--- a/Planilha Controle(Instagram)/Planilha controle(final).xlsx
+++ b/Planilha Controle(Instagram)/Planilha controle(final).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T-Gamer\Documents\Desenvolvimento 2022\Excel Estudos\Planilha Controle(Instagram)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E49B090-584B-4CF9-82F6-D569B8934001}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53457B33-9D23-4D90-B52F-699AC6FD043F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Menu" sheetId="16" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="54">
   <si>
     <t>Salário</t>
   </si>
@@ -224,6 +224,12 @@
   </si>
   <si>
     <t xml:space="preserve">Planos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Renda Passiva </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Renda Extra </t>
   </si>
 </sst>
 </file>
@@ -845,12 +851,6 @@
     <xf numFmtId="44" fontId="0" fillId="10" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -861,6 +861,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4530,40 +4536,40 @@
                 <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>-1040</c:v>
+                  <c:v>2150</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-960</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-860</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-760</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-660</c:v>
+                  <c:v>1400</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>2440</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2440</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2440</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2440</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2440</c:v>
+                  <c:v>-120</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2440</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2440</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4812,16 +4818,16 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Condomínio</c:v>
+                  <c:v>Aluguel</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Manutenção</c:v>
+                  <c:v>IPVA</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Remédios</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Lanches</c:v>
+                  <c:v>Cinema</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4833,16 +4839,16 @@
                 <c:formatCode>"R$"\ #,##0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>520</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>500</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>70</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4904,16 +4910,16 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Condomínio</c:v>
+                  <c:v>Aluguel</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Manutenção</c:v>
+                  <c:v>IPVA</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Remédios</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Lanches</c:v>
+                  <c:v>Cinema</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5236,7 +5242,7 @@
                   <c:v>1400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2060</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5460,16 +5466,16 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Condomínio</c:v>
+                  <c:v>Aluguel</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Manutenção</c:v>
+                  <c:v>IPVA</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Remédios</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Lanches</c:v>
+                  <c:v>Cinema</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5481,16 +5487,16 @@
                 <c:formatCode>"R$"\ #,##0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>520</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>500</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>70</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5552,16 +5558,16 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Condomínio</c:v>
+                  <c:v>Aluguel</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Manutenção</c:v>
+                  <c:v>IPVA</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Remédios</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Lanches</c:v>
+                  <c:v>Cinema</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6529,10 +6535,10 @@
                 <c:formatCode>"R$"\ #,##0.00</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>4500</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2060</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6756,16 +6762,16 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Condomínio</c:v>
+                  <c:v>Aluguel</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Manutenção</c:v>
+                  <c:v>IPVA</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Remédios</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Lanches</c:v>
+                  <c:v>Cinema</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6777,16 +6783,16 @@
                 <c:formatCode>"R$"\ #,##0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>520</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>500</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>70</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6848,16 +6854,16 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Condomínio</c:v>
+                  <c:v>Aluguel</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Manutenção</c:v>
+                  <c:v>IPVA</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Remédios</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Lanches</c:v>
+                  <c:v>Cinema</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7177,10 +7183,10 @@
                 <c:formatCode>"R$"\ #,##0.00</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>4500</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2060</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7404,16 +7410,16 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Condomínio</c:v>
+                  <c:v>Aluguel</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Manutenção</c:v>
+                  <c:v>IPVA</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Remédios</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Lanches</c:v>
+                  <c:v>Cinema</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7425,16 +7431,16 @@
                 <c:formatCode>"R$"\ #,##0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>520</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>500</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>70</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7496,16 +7502,16 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Condomínio</c:v>
+                  <c:v>Aluguel</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Manutenção</c:v>
+                  <c:v>IPVA</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Remédios</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Lanches</c:v>
+                  <c:v>Cinema</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7825,10 +7831,10 @@
                 <c:formatCode>"R$"\ #,##0.00</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>4500</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2060</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8093,10 +8099,10 @@
                 <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>24700</c:v>
+                  <c:v>5030</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>37500</c:v>
+                  <c:v>10900</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8320,16 +8326,16 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Condomínio</c:v>
+                  <c:v>Aluguel</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Manutenção</c:v>
+                  <c:v>IPVA</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Remédios</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Lanches</c:v>
+                  <c:v>Cinema</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8341,16 +8347,16 @@
                 <c:formatCode>"R$"\ #,##0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>520</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>500</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>70</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8412,16 +8418,16 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Condomínio</c:v>
+                  <c:v>Aluguel</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Manutenção</c:v>
+                  <c:v>IPVA</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Remédios</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Lanches</c:v>
+                  <c:v>Cinema</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8741,10 +8747,10 @@
                 <c:formatCode>"R$"\ #,##0.00</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>4500</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2060</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8968,10 +8974,10 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Condomínio</c:v>
+                  <c:v>Aluguel</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Manutenção</c:v>
+                  <c:v>IPVA</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Remédios</c:v>
@@ -8989,10 +8995,10 @@
                 <c:formatCode>"R$"\ #,##0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>520</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>500</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -9060,10 +9066,10 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Condomínio</c:v>
+                  <c:v>Aluguel</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Manutenção</c:v>
+                  <c:v>IPVA</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Remédios</c:v>
@@ -9389,10 +9395,10 @@
                 <c:formatCode>"R$"\ #,##0.00</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>4500</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2060</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9616,16 +9622,16 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Condomínio</c:v>
+                  <c:v>Aluguel</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Manutenção</c:v>
+                  <c:v>IPVA</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Remédios</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Lanches</c:v>
+                  <c:v>Cinema</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9637,16 +9643,16 @@
                 <c:formatCode>"R$"\ #,##0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>520</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>500</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>70</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9708,16 +9714,16 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Condomínio</c:v>
+                  <c:v>Aluguel</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Manutenção</c:v>
+                  <c:v>IPVA</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Remédios</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Lanches</c:v>
+                  <c:v>Cinema</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10037,10 +10043,10 @@
                 <c:formatCode>"R$"\ #,##0.00</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>4500</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2060</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10264,16 +10270,16 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Condomínio</c:v>
+                  <c:v>Aluguel</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Manutenção</c:v>
+                  <c:v>IPVA</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Remédios</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Lanches</c:v>
+                  <c:v>Cinema</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10285,16 +10291,16 @@
                 <c:formatCode>"R$"\ #,##0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>520</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>500</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>70</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10356,16 +10362,16 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Condomínio</c:v>
+                  <c:v>Aluguel</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Manutenção</c:v>
+                  <c:v>IPVA</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Remédios</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Lanches</c:v>
+                  <c:v>Cinema</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10710,40 +10716,40 @@
                 <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>-1040</c:v>
+                  <c:v>2150</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-960</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-860</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-760</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-660</c:v>
+                  <c:v>1400</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>2440</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2440</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2440</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2440</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2440</c:v>
+                  <c:v>-120</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2440</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2440</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11066,10 +11072,10 @@
                 <c:formatCode>"R$"\ #,##0.00</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2040</c:v>
+                  <c:v>2850</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11293,16 +11299,16 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Aluguel</c:v>
+                  <c:v>Supermercado</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Manutenção</c:v>
+                  <c:v>IPVA</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Remédios</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Lanches</c:v>
+                  <c:v>Cinema</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -11314,16 +11320,16 @@
                 <c:formatCode>"R$"\ #,##0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>500</c:v>
+                  <c:v>550</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>500</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>70</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11385,16 +11391,16 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Aluguel</c:v>
+                  <c:v>Supermercado</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Manutenção</c:v>
+                  <c:v>IPVA</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Remédios</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Lanches</c:v>
+                  <c:v>Cinema</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -11714,10 +11720,10 @@
                 <c:formatCode>"R$"\ #,##0.00</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1100</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2060</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11941,16 +11947,16 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Condomínio</c:v>
+                  <c:v>Aluguel</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Manutenção</c:v>
+                  <c:v>IPVA</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Remédios</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Lanches</c:v>
+                  <c:v>Cinema</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -11962,16 +11968,16 @@
                 <c:formatCode>"R$"\ #,##0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>520</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>500</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>70</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12033,16 +12039,16 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Condomínio</c:v>
+                  <c:v>Aluguel</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Manutenção</c:v>
+                  <c:v>IPVA</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Remédios</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Lanches</c:v>
+                  <c:v>Cinema</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -12362,10 +12368,10 @@
                 <c:formatCode>"R$"\ #,##0.00</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1200</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2060</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12589,16 +12595,16 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Condomínio</c:v>
+                  <c:v>Aluguel</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Manutenção</c:v>
+                  <c:v>IPVA</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Remédios</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Lanches</c:v>
+                  <c:v>Cinema</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -12610,16 +12616,16 @@
                 <c:formatCode>"R$"\ #,##0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>520</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>500</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>70</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12681,16 +12687,16 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Condomínio</c:v>
+                  <c:v>Aluguel</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Manutenção</c:v>
+                  <c:v>IPVA</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Remédios</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Lanches</c:v>
+                  <c:v>Cinema</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -13010,10 +13016,10 @@
                 <c:formatCode>"R$"\ #,##0.00</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1300</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2060</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16033,9 +16039,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>330582</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>132580</xdr:rowOff>
+      <xdr:colOff>117431</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>13048</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -16050,10 +16056,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="763829" y="2285492"/>
-          <a:ext cx="13762917" cy="6067293"/>
+          <a:off x="1155267" y="2285492"/>
+          <a:ext cx="13549767" cy="6143481"/>
           <a:chOff x="724843" y="994367"/>
-          <a:chExt cx="13734491" cy="5975803"/>
+          <a:chExt cx="13521780" cy="6050842"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -16070,7 +16076,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="724843" y="994367"/>
-            <a:ext cx="13734491" cy="5975803"/>
+            <a:ext cx="13521780" cy="6050842"/>
           </a:xfrm>
           <a:prstGeom prst="roundRect">
             <a:avLst/>
@@ -17155,8 +17161,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="6439596" y="5112029"/>
-            <a:ext cx="1266511" cy="364602"/>
+            <a:off x="6856267" y="5112029"/>
+            <a:ext cx="1036111" cy="364602"/>
           </a:xfrm>
           <a:prstGeom prst="roundRect">
             <a:avLst/>
@@ -17614,8 +17620,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2786645" y="1318690"/>
-          <a:ext cx="4531342" cy="2398383"/>
+          <a:off x="2783121" y="1330958"/>
+          <a:ext cx="4545438" cy="2393685"/>
           <a:chOff x="2275548" y="1272226"/>
           <a:chExt cx="4519726" cy="2293841"/>
         </a:xfrm>
@@ -17720,8 +17726,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7547922" y="1324208"/>
-          <a:ext cx="7111285" cy="2985274"/>
+          <a:off x="7564367" y="1336476"/>
+          <a:ext cx="7101888" cy="2988146"/>
           <a:chOff x="7025208" y="1277744"/>
           <a:chExt cx="6675830" cy="2693456"/>
         </a:xfrm>
@@ -19028,8 +19034,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2780111" y="1321594"/>
-          <a:ext cx="4537634" cy="2389671"/>
+          <a:off x="2786065" y="1333500"/>
+          <a:ext cx="4533665" cy="2389671"/>
           <a:chOff x="2275548" y="1272226"/>
           <a:chExt cx="4519726" cy="2293841"/>
         </a:xfrm>
@@ -19134,8 +19140,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7548648" y="1327112"/>
-          <a:ext cx="7103784" cy="2970754"/>
+          <a:off x="7554601" y="1339018"/>
+          <a:ext cx="7105768" cy="2970754"/>
           <a:chOff x="7025208" y="1277744"/>
           <a:chExt cx="6675830" cy="2693456"/>
         </a:xfrm>
@@ -19743,8 +19749,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2780111" y="1321594"/>
-          <a:ext cx="4537634" cy="2389671"/>
+          <a:off x="2777257" y="1372154"/>
+          <a:ext cx="4555847" cy="2394565"/>
           <a:chOff x="2275548" y="1272226"/>
           <a:chExt cx="4519726" cy="2293841"/>
         </a:xfrm>
@@ -19849,8 +19855,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7548648" y="1327112"/>
-          <a:ext cx="7103784" cy="2970754"/>
+          <a:off x="7561288" y="1377672"/>
+          <a:ext cx="7116696" cy="2991958"/>
           <a:chOff x="7025208" y="1277744"/>
           <a:chExt cx="6675830" cy="2693456"/>
         </a:xfrm>
@@ -20499,8 +20505,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2786645" y="1318690"/>
-          <a:ext cx="4531342" cy="2398383"/>
+          <a:off x="2778952" y="1400453"/>
+          <a:ext cx="4537376" cy="2400495"/>
           <a:chOff x="2275548" y="1272226"/>
           <a:chExt cx="4519726" cy="2293841"/>
         </a:xfrm>
@@ -20605,8 +20611,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7547922" y="1324208"/>
-          <a:ext cx="7111285" cy="2985274"/>
+          <a:off x="7546715" y="1405971"/>
+          <a:ext cx="7103139" cy="2984671"/>
           <a:chOff x="7025208" y="1277744"/>
           <a:chExt cx="6675830" cy="2693456"/>
         </a:xfrm>
@@ -25448,8 +25454,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2780111" y="1321594"/>
-          <a:ext cx="4537634" cy="2389671"/>
+          <a:off x="2775859" y="1338602"/>
+          <a:ext cx="4540469" cy="2395342"/>
           <a:chOff x="2275548" y="1272226"/>
           <a:chExt cx="4519726" cy="2293841"/>
         </a:xfrm>
@@ -25554,8 +25560,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7548648" y="1327112"/>
-          <a:ext cx="7103784" cy="2970754"/>
+          <a:off x="7552900" y="1344120"/>
+          <a:ext cx="7116540" cy="2987764"/>
           <a:chOff x="7025208" y="1277744"/>
           <a:chExt cx="6675830" cy="2693456"/>
         </a:xfrm>
@@ -26408,7 +26414,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -26460,7 +26466,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -26664,11 +26670,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y30"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="73" zoomScaleNormal="73" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="Y26" sqref="Y26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11" style="22" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" style="22" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" style="22" customWidth="1"/>
     <col min="3" max="25" width="9.140625" style="22" customWidth="1"/>
     <col min="26" max="16384" width="9.140625" style="22" hidden="1"/>
@@ -27494,8 +27502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:M52"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19:M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -27524,7 +27532,7 @@
       </c>
       <c r="C2" s="38">
         <f>D16+D23+D30</f>
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="F2" s="35"/>
     </row>
@@ -27535,17 +27543,17 @@
       </c>
       <c r="C3" s="37">
         <f>I23+I29+M22+M29+M15</f>
-        <v>2060</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="19.5" thickBot="1">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="48"/>
+      <c r="B4" s="52"/>
       <c r="C4" s="40">
         <f>C2-C3</f>
-        <v>2440</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="197.25" customHeight="1"/>
@@ -27563,23 +27571,23 @@
       <c r="D12" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="G12" s="51" t="s">
+      <c r="G12" s="49" t="s">
         <v>7</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>8</v>
       </c>
       <c r="I12" s="5">
-        <v>500</v>
-      </c>
-      <c r="K12" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="K12" s="49" t="s">
         <v>21</v>
       </c>
       <c r="L12" s="4" t="s">
         <v>22</v>
       </c>
       <c r="M12" s="5">
-        <v>300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="16.5" thickBot="1">
@@ -27589,21 +27597,21 @@
         <v>1</v>
       </c>
       <c r="D13" s="17">
-        <v>2000</v>
-      </c>
-      <c r="G13" s="52"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="50"/>
       <c r="H13" s="3" t="s">
         <v>9</v>
       </c>
       <c r="I13" s="5">
-        <v>520</v>
-      </c>
-      <c r="K13" s="52"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="50"/>
       <c r="L13" s="3" t="s">
         <v>50</v>
       </c>
       <c r="M13" s="5">
-        <v>500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="16.5" thickBot="1">
@@ -27613,16 +27621,16 @@
         <v>2</v>
       </c>
       <c r="D14" s="17">
-        <v>1000</v>
-      </c>
-      <c r="G14" s="52"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="50"/>
       <c r="H14" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I14" s="5">
-        <v>120</v>
-      </c>
-      <c r="K14" s="52"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="50"/>
       <c r="L14" s="6" t="s">
         <v>17</v>
       </c>
@@ -27637,22 +27645,22 @@
         <v>3</v>
       </c>
       <c r="D15" s="17">
-        <v>1500</v>
-      </c>
-      <c r="G15" s="52"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="50"/>
       <c r="H15" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I15" s="5">
         <v>0</v>
       </c>
-      <c r="K15" s="47" t="s">
+      <c r="K15" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="L15" s="48"/>
+      <c r="L15" s="52"/>
       <c r="M15" s="7">
         <f>SUM(M12:M14)</f>
-        <v>800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="16.5" thickBot="1">
@@ -27663,9 +27671,9 @@
       </c>
       <c r="D16" s="12">
         <f>SUM(D13:D15)</f>
-        <v>4500</v>
-      </c>
-      <c r="G16" s="52"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="50"/>
       <c r="H16" s="3" t="s">
         <v>12</v>
       </c>
@@ -27676,7 +27684,7 @@
     <row r="17" spans="1:13" ht="16.5" thickBot="1">
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
-      <c r="G17" s="52"/>
+      <c r="G17" s="50"/>
       <c r="H17" s="3" t="s">
         <v>13</v>
       </c>
@@ -27687,7 +27695,7 @@
     <row r="18" spans="1:13" ht="16.5" thickBot="1">
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
-      <c r="G18" s="52"/>
+      <c r="G18" s="50"/>
       <c r="H18" s="3" t="s">
         <v>14</v>
       </c>
@@ -27706,21 +27714,21 @@
       <c r="D19" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="G19" s="52"/>
+      <c r="G19" s="50"/>
       <c r="H19" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I19" s="5">
         <v>0</v>
       </c>
-      <c r="K19" s="51" t="s">
+      <c r="K19" s="49" t="s">
         <v>23</v>
       </c>
       <c r="L19" s="4" t="s">
         <v>24</v>
       </c>
       <c r="M19" s="5">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
@@ -27732,19 +27740,19 @@
       <c r="D20" s="17">
         <v>0</v>
       </c>
-      <c r="G20" s="52"/>
+      <c r="G20" s="50"/>
       <c r="H20" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I20" s="5">
         <v>0</v>
       </c>
-      <c r="K20" s="52"/>
+      <c r="K20" s="50"/>
       <c r="L20" s="3" t="s">
         <v>25</v>
       </c>
       <c r="M20" s="5">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="16.5" customHeight="1" thickBot="1">
@@ -27756,14 +27764,14 @@
       <c r="D21" s="17">
         <v>0</v>
       </c>
-      <c r="G21" s="52"/>
+      <c r="G21" s="50"/>
       <c r="H21" s="3" t="s">
         <v>16</v>
       </c>
       <c r="I21" s="5">
         <v>0</v>
       </c>
-      <c r="K21" s="52"/>
+      <c r="K21" s="50"/>
       <c r="L21" s="6" t="s">
         <v>26</v>
       </c>
@@ -27780,20 +27788,20 @@
       <c r="D22" s="17">
         <v>0</v>
       </c>
-      <c r="G22" s="52"/>
+      <c r="G22" s="50"/>
       <c r="H22" s="6" t="s">
         <v>17</v>
       </c>
       <c r="I22" s="5">
         <v>0</v>
       </c>
-      <c r="K22" s="47" t="s">
+      <c r="K22" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="L22" s="48"/>
+      <c r="L22" s="52"/>
       <c r="M22" s="7">
         <f>SUM(M19:M21)</f>
-        <v>120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="16.5" thickBot="1">
@@ -27806,13 +27814,13 @@
         <f>SUM(D20:D22)</f>
         <v>0</v>
       </c>
-      <c r="G23" s="47" t="s">
+      <c r="G23" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="H23" s="48"/>
+      <c r="H23" s="52"/>
       <c r="I23" s="7">
         <f>SUM(I12:I22)</f>
-        <v>1140</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="15.75">
@@ -27834,7 +27842,7 @@
       <c r="D26" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="G26" s="51" t="s">
+      <c r="G26" s="49" t="s">
         <v>19</v>
       </c>
       <c r="H26" s="4" t="s">
@@ -27856,7 +27864,7 @@
       <c r="D27" s="17">
         <v>0</v>
       </c>
-      <c r="G27" s="52"/>
+      <c r="G27" s="50"/>
       <c r="H27" s="3" t="s">
         <v>51</v>
       </c>
@@ -27876,7 +27884,7 @@
       <c r="D28" s="17">
         <v>0</v>
       </c>
-      <c r="G28" s="52"/>
+      <c r="G28" s="50"/>
       <c r="H28" s="6" t="s">
         <v>17</v>
       </c>
@@ -27896,10 +27904,10 @@
       <c r="D29" s="17">
         <v>0</v>
       </c>
-      <c r="G29" s="47" t="s">
+      <c r="G29" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="H29" s="48"/>
+      <c r="H29" s="52"/>
       <c r="I29" s="7">
         <f>SUM(I26:I28)</f>
         <v>0</v>
@@ -27928,11 +27936,11 @@
       </c>
       <c r="H32" s="16">
         <f>MAX(I12:I22)</f>
-        <v>520</v>
+        <v>0</v>
       </c>
       <c r="I32" s="15" t="str">
         <f>INDEX(H12:I22,MATCH(H32,I12:I22,0),1)</f>
-        <v>Condomínio</v>
+        <v>Aluguel</v>
       </c>
     </row>
     <row r="33" spans="7:10">
@@ -27941,11 +27949,11 @@
       </c>
       <c r="H33" s="16">
         <f>MAX(M12:M14)</f>
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="I33" s="15" t="str">
         <f>INDEX(L12:M14,MATCH(H33,M12:M14,0),1)</f>
-        <v>Manutenção</v>
+        <v>IPVA</v>
       </c>
     </row>
     <row r="34" spans="7:10">
@@ -27967,11 +27975,11 @@
       </c>
       <c r="H35" s="16">
         <f>MAX(M19:M21)</f>
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="I35" s="15" t="str">
         <f>INDEX(L19:M21,MATCH(H35,M19:M21,0),1)</f>
-        <v>Lanches</v>
+        <v>Cinema</v>
       </c>
     </row>
     <row r="41" spans="7:10" ht="15.75">
@@ -28030,8 +28038,8 @@
       <c r="J51" s="9"/>
     </row>
     <row r="52" spans="8:10" ht="15.75">
-      <c r="H52" s="49"/>
-      <c r="I52" s="50"/>
+      <c r="H52" s="47"/>
+      <c r="I52" s="48"/>
       <c r="J52" s="10"/>
     </row>
   </sheetData>
@@ -28074,8 +28082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:M52"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView showGridLines="0" topLeftCell="A12" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12:M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -28104,7 +28112,7 @@
       </c>
       <c r="C2" s="38">
         <f>D16+D23+D30</f>
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="F2" s="35"/>
     </row>
@@ -28115,17 +28123,17 @@
       </c>
       <c r="C3" s="37">
         <f>I23+I29+M22+M29+M15</f>
-        <v>2060</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="19.5" thickBot="1">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="48"/>
+      <c r="B4" s="52"/>
       <c r="C4" s="40">
         <f>C2-C3</f>
-        <v>2440</v>
+        <v>-120</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="197.25" customHeight="1"/>
@@ -28143,23 +28151,23 @@
       <c r="D12" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="G12" s="51" t="s">
+      <c r="G12" s="49" t="s">
         <v>7</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>8</v>
       </c>
       <c r="I12" s="5">
-        <v>500</v>
-      </c>
-      <c r="K12" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="K12" s="49" t="s">
         <v>21</v>
       </c>
       <c r="L12" s="4" t="s">
         <v>22</v>
       </c>
       <c r="M12" s="5">
-        <v>300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="16.5" thickBot="1">
@@ -28169,21 +28177,21 @@
         <v>1</v>
       </c>
       <c r="D13" s="17">
-        <v>2000</v>
-      </c>
-      <c r="G13" s="52"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="50"/>
       <c r="H13" s="3" t="s">
         <v>9</v>
       </c>
       <c r="I13" s="5">
-        <v>520</v>
-      </c>
-      <c r="K13" s="52"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="50"/>
       <c r="L13" s="3" t="s">
         <v>50</v>
       </c>
       <c r="M13" s="5">
-        <v>500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="16.5" thickBot="1">
@@ -28193,16 +28201,16 @@
         <v>2</v>
       </c>
       <c r="D14" s="17">
-        <v>1000</v>
-      </c>
-      <c r="G14" s="52"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="50"/>
       <c r="H14" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I14" s="5">
-        <v>120</v>
-      </c>
-      <c r="K14" s="52"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="50"/>
       <c r="L14" s="6" t="s">
         <v>17</v>
       </c>
@@ -28217,22 +28225,22 @@
         <v>3</v>
       </c>
       <c r="D15" s="17">
-        <v>1500</v>
-      </c>
-      <c r="G15" s="52"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="50"/>
       <c r="H15" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I15" s="5">
         <v>0</v>
       </c>
-      <c r="K15" s="47" t="s">
+      <c r="K15" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="L15" s="48"/>
+      <c r="L15" s="52"/>
       <c r="M15" s="7">
         <f>SUM(M12:M14)</f>
-        <v>800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="16.5" thickBot="1">
@@ -28243,9 +28251,9 @@
       </c>
       <c r="D16" s="12">
         <f>SUM(D13:D15)</f>
-        <v>4500</v>
-      </c>
-      <c r="G16" s="52"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="50"/>
       <c r="H16" s="3" t="s">
         <v>12</v>
       </c>
@@ -28256,7 +28264,7 @@
     <row r="17" spans="1:13" ht="16.5" thickBot="1">
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
-      <c r="G17" s="52"/>
+      <c r="G17" s="50"/>
       <c r="H17" s="3" t="s">
         <v>13</v>
       </c>
@@ -28267,7 +28275,7 @@
     <row r="18" spans="1:13" ht="16.5" thickBot="1">
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
-      <c r="G18" s="52"/>
+      <c r="G18" s="50"/>
       <c r="H18" s="3" t="s">
         <v>14</v>
       </c>
@@ -28286,14 +28294,14 @@
       <c r="D19" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="G19" s="52"/>
+      <c r="G19" s="50"/>
       <c r="H19" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I19" s="5">
         <v>0</v>
       </c>
-      <c r="K19" s="51" t="s">
+      <c r="K19" s="49" t="s">
         <v>23</v>
       </c>
       <c r="L19" s="4" t="s">
@@ -28312,14 +28320,14 @@
       <c r="D20" s="17">
         <v>0</v>
       </c>
-      <c r="G20" s="52"/>
+      <c r="G20" s="50"/>
       <c r="H20" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I20" s="5">
         <v>0</v>
       </c>
-      <c r="K20" s="52"/>
+      <c r="K20" s="50"/>
       <c r="L20" s="3" t="s">
         <v>25</v>
       </c>
@@ -28336,14 +28344,14 @@
       <c r="D21" s="17">
         <v>0</v>
       </c>
-      <c r="G21" s="52"/>
+      <c r="G21" s="50"/>
       <c r="H21" s="3" t="s">
         <v>16</v>
       </c>
       <c r="I21" s="5">
         <v>0</v>
       </c>
-      <c r="K21" s="52"/>
+      <c r="K21" s="50"/>
       <c r="L21" s="6" t="s">
         <v>26</v>
       </c>
@@ -28360,17 +28368,17 @@
       <c r="D22" s="17">
         <v>0</v>
       </c>
-      <c r="G22" s="52"/>
+      <c r="G22" s="50"/>
       <c r="H22" s="6" t="s">
         <v>17</v>
       </c>
       <c r="I22" s="5">
         <v>0</v>
       </c>
-      <c r="K22" s="47" t="s">
+      <c r="K22" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="L22" s="48"/>
+      <c r="L22" s="52"/>
       <c r="M22" s="7">
         <f>SUM(M19:M21)</f>
         <v>120</v>
@@ -28386,13 +28394,13 @@
         <f>SUM(D20:D22)</f>
         <v>0</v>
       </c>
-      <c r="G23" s="47" t="s">
+      <c r="G23" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="H23" s="48"/>
+      <c r="H23" s="52"/>
       <c r="I23" s="7">
         <f>SUM(I12:I22)</f>
-        <v>1140</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="15.75">
@@ -28414,7 +28422,7 @@
       <c r="D26" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="G26" s="51" t="s">
+      <c r="G26" s="49" t="s">
         <v>19</v>
       </c>
       <c r="H26" s="4" t="s">
@@ -28436,7 +28444,7 @@
       <c r="D27" s="17">
         <v>0</v>
       </c>
-      <c r="G27" s="52"/>
+      <c r="G27" s="50"/>
       <c r="H27" s="3" t="s">
         <v>51</v>
       </c>
@@ -28456,7 +28464,7 @@
       <c r="D28" s="17">
         <v>0</v>
       </c>
-      <c r="G28" s="52"/>
+      <c r="G28" s="50"/>
       <c r="H28" s="6" t="s">
         <v>17</v>
       </c>
@@ -28476,10 +28484,10 @@
       <c r="D29" s="17">
         <v>0</v>
       </c>
-      <c r="G29" s="47" t="s">
+      <c r="G29" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="H29" s="48"/>
+      <c r="H29" s="52"/>
       <c r="I29" s="7">
         <f>SUM(I26:I28)</f>
         <v>0</v>
@@ -28508,11 +28516,11 @@
       </c>
       <c r="H32" s="16">
         <f>MAX(I12:I22)</f>
-        <v>520</v>
+        <v>0</v>
       </c>
       <c r="I32" s="15" t="str">
         <f>INDEX(H12:I22,MATCH(H32,I12:I22,0),1)</f>
-        <v>Condomínio</v>
+        <v>Aluguel</v>
       </c>
     </row>
     <row r="33" spans="7:10">
@@ -28521,11 +28529,11 @@
       </c>
       <c r="H33" s="16">
         <f>MAX(M12:M14)</f>
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="I33" s="15" t="str">
         <f>INDEX(L12:M14,MATCH(H33,M12:M14,0),1)</f>
-        <v>Manutenção</v>
+        <v>IPVA</v>
       </c>
     </row>
     <row r="34" spans="7:10">
@@ -28610,8 +28618,8 @@
       <c r="J51" s="9"/>
     </row>
     <row r="52" spans="8:10" ht="15.75">
-      <c r="H52" s="49"/>
-      <c r="I52" s="50"/>
+      <c r="H52" s="47"/>
+      <c r="I52" s="48"/>
       <c r="J52" s="10"/>
     </row>
   </sheetData>
@@ -28654,8 +28662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:M52"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView showGridLines="0" topLeftCell="A8" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -28684,7 +28692,7 @@
       </c>
       <c r="C2" s="38">
         <f>D16+D23+D30</f>
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="F2" s="35"/>
     </row>
@@ -28695,17 +28703,17 @@
       </c>
       <c r="C3" s="37">
         <f>I23+I29+M22+M29+M15</f>
-        <v>2060</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="19.5" thickBot="1">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="48"/>
+      <c r="B4" s="52"/>
       <c r="C4" s="40">
         <f>C2-C3</f>
-        <v>2440</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="197.25" customHeight="1"/>
@@ -28723,23 +28731,23 @@
       <c r="D12" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="G12" s="51" t="s">
+      <c r="G12" s="49" t="s">
         <v>7</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>8</v>
       </c>
       <c r="I12" s="5">
-        <v>500</v>
-      </c>
-      <c r="K12" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="K12" s="49" t="s">
         <v>21</v>
       </c>
       <c r="L12" s="4" t="s">
         <v>22</v>
       </c>
       <c r="M12" s="5">
-        <v>300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="16.5" thickBot="1">
@@ -28749,21 +28757,21 @@
         <v>1</v>
       </c>
       <c r="D13" s="17">
-        <v>2000</v>
-      </c>
-      <c r="G13" s="52"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="50"/>
       <c r="H13" s="3" t="s">
         <v>9</v>
       </c>
       <c r="I13" s="5">
-        <v>520</v>
-      </c>
-      <c r="K13" s="52"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="50"/>
       <c r="L13" s="3" t="s">
         <v>50</v>
       </c>
       <c r="M13" s="5">
-        <v>500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="16.5" thickBot="1">
@@ -28773,16 +28781,16 @@
         <v>2</v>
       </c>
       <c r="D14" s="17">
-        <v>1000</v>
-      </c>
-      <c r="G14" s="52"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="50"/>
       <c r="H14" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I14" s="5">
-        <v>120</v>
-      </c>
-      <c r="K14" s="52"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="50"/>
       <c r="L14" s="6" t="s">
         <v>17</v>
       </c>
@@ -28797,22 +28805,22 @@
         <v>3</v>
       </c>
       <c r="D15" s="17">
-        <v>1500</v>
-      </c>
-      <c r="G15" s="52"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="50"/>
       <c r="H15" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I15" s="5">
         <v>0</v>
       </c>
-      <c r="K15" s="47" t="s">
+      <c r="K15" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="L15" s="48"/>
+      <c r="L15" s="52"/>
       <c r="M15" s="7">
         <f>SUM(M12:M14)</f>
-        <v>800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="16.5" thickBot="1">
@@ -28823,9 +28831,9 @@
       </c>
       <c r="D16" s="12">
         <f>SUM(D13:D15)</f>
-        <v>4500</v>
-      </c>
-      <c r="G16" s="52"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="50"/>
       <c r="H16" s="3" t="s">
         <v>12</v>
       </c>
@@ -28836,7 +28844,7 @@
     <row r="17" spans="1:13" ht="16.5" thickBot="1">
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
-      <c r="G17" s="52"/>
+      <c r="G17" s="50"/>
       <c r="H17" s="3" t="s">
         <v>13</v>
       </c>
@@ -28847,7 +28855,7 @@
     <row r="18" spans="1:13" ht="16.5" thickBot="1">
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
-      <c r="G18" s="52"/>
+      <c r="G18" s="50"/>
       <c r="H18" s="3" t="s">
         <v>14</v>
       </c>
@@ -28866,21 +28874,21 @@
       <c r="D19" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="G19" s="52"/>
+      <c r="G19" s="50"/>
       <c r="H19" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I19" s="5">
         <v>0</v>
       </c>
-      <c r="K19" s="51" t="s">
+      <c r="K19" s="49" t="s">
         <v>23</v>
       </c>
       <c r="L19" s="4" t="s">
         <v>24</v>
       </c>
       <c r="M19" s="5">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
@@ -28892,19 +28900,19 @@
       <c r="D20" s="17">
         <v>0</v>
       </c>
-      <c r="G20" s="52"/>
+      <c r="G20" s="50"/>
       <c r="H20" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I20" s="5">
         <v>0</v>
       </c>
-      <c r="K20" s="52"/>
+      <c r="K20" s="50"/>
       <c r="L20" s="3" t="s">
         <v>25</v>
       </c>
       <c r="M20" s="5">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="16.5" customHeight="1" thickBot="1">
@@ -28916,14 +28924,14 @@
       <c r="D21" s="17">
         <v>0</v>
       </c>
-      <c r="G21" s="52"/>
+      <c r="G21" s="50"/>
       <c r="H21" s="3" t="s">
         <v>16</v>
       </c>
       <c r="I21" s="5">
         <v>0</v>
       </c>
-      <c r="K21" s="52"/>
+      <c r="K21" s="50"/>
       <c r="L21" s="6" t="s">
         <v>26</v>
       </c>
@@ -28940,20 +28948,20 @@
       <c r="D22" s="17">
         <v>0</v>
       </c>
-      <c r="G22" s="52"/>
+      <c r="G22" s="50"/>
       <c r="H22" s="6" t="s">
         <v>17</v>
       </c>
       <c r="I22" s="5">
         <v>0</v>
       </c>
-      <c r="K22" s="47" t="s">
+      <c r="K22" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="L22" s="48"/>
+      <c r="L22" s="52"/>
       <c r="M22" s="7">
         <f>SUM(M19:M21)</f>
-        <v>120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="16.5" thickBot="1">
@@ -28966,13 +28974,13 @@
         <f>SUM(D20:D22)</f>
         <v>0</v>
       </c>
-      <c r="G23" s="47" t="s">
+      <c r="G23" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="H23" s="48"/>
+      <c r="H23" s="52"/>
       <c r="I23" s="7">
         <f>SUM(I12:I22)</f>
-        <v>1140</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="15.75">
@@ -28994,7 +29002,7 @@
       <c r="D26" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="G26" s="51" t="s">
+      <c r="G26" s="49" t="s">
         <v>19</v>
       </c>
       <c r="H26" s="4" t="s">
@@ -29016,7 +29024,7 @@
       <c r="D27" s="17">
         <v>0</v>
       </c>
-      <c r="G27" s="52"/>
+      <c r="G27" s="50"/>
       <c r="H27" s="3" t="s">
         <v>51</v>
       </c>
@@ -29036,7 +29044,7 @@
       <c r="D28" s="17">
         <v>0</v>
       </c>
-      <c r="G28" s="52"/>
+      <c r="G28" s="50"/>
       <c r="H28" s="6" t="s">
         <v>17</v>
       </c>
@@ -29056,10 +29064,10 @@
       <c r="D29" s="17">
         <v>0</v>
       </c>
-      <c r="G29" s="47" t="s">
+      <c r="G29" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="H29" s="48"/>
+      <c r="H29" s="52"/>
       <c r="I29" s="7">
         <f>SUM(I26:I28)</f>
         <v>0</v>
@@ -29088,11 +29096,11 @@
       </c>
       <c r="H32" s="16">
         <f>MAX(I12:I22)</f>
-        <v>520</v>
+        <v>0</v>
       </c>
       <c r="I32" s="15" t="str">
         <f>INDEX(H12:I22,MATCH(H32,I12:I22,0),1)</f>
-        <v>Condomínio</v>
+        <v>Aluguel</v>
       </c>
     </row>
     <row r="33" spans="7:10">
@@ -29101,11 +29109,11 @@
       </c>
       <c r="H33" s="16">
         <f>MAX(M12:M14)</f>
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="I33" s="15" t="str">
         <f>INDEX(L12:M14,MATCH(H33,M12:M14,0),1)</f>
-        <v>Manutenção</v>
+        <v>IPVA</v>
       </c>
     </row>
     <row r="34" spans="7:10">
@@ -29127,11 +29135,11 @@
       </c>
       <c r="H35" s="16">
         <f>MAX(M19:M21)</f>
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="I35" s="15" t="str">
         <f>INDEX(L19:M21,MATCH(H35,M19:M21,0),1)</f>
-        <v>Lanches</v>
+        <v>Cinema</v>
       </c>
     </row>
     <row r="41" spans="7:10" ht="15.75">
@@ -29190,8 +29198,8 @@
       <c r="J51" s="9"/>
     </row>
     <row r="52" spans="8:10" ht="15.75">
-      <c r="H52" s="49"/>
-      <c r="I52" s="50"/>
+      <c r="H52" s="47"/>
+      <c r="I52" s="48"/>
       <c r="J52" s="10"/>
     </row>
   </sheetData>
@@ -29234,8 +29242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:M52"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView showGridLines="0" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12:I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -29264,28 +29272,28 @@
       </c>
       <c r="C2" s="38">
         <f>D16+D23+D30</f>
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="F2" s="35"/>
     </row>
-    <row r="3" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
+    <row r="3" spans="1:13" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="28"/>
       <c r="B3" s="39" t="s">
         <v>30</v>
       </c>
       <c r="C3" s="37">
         <f>I23+I29+M22+M29+M15</f>
-        <v>2060</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="19.5" thickBot="1">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="48"/>
+      <c r="B4" s="52"/>
       <c r="C4" s="40">
         <f>C2-C3</f>
-        <v>2440</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="197.25" customHeight="1"/>
@@ -29303,23 +29311,23 @@
       <c r="D12" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="G12" s="51" t="s">
+      <c r="G12" s="49" t="s">
         <v>7</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>8</v>
       </c>
       <c r="I12" s="5">
-        <v>500</v>
-      </c>
-      <c r="K12" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="K12" s="49" t="s">
         <v>21</v>
       </c>
       <c r="L12" s="4" t="s">
         <v>22</v>
       </c>
       <c r="M12" s="5">
-        <v>300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="16.5" thickBot="1">
@@ -29329,21 +29337,21 @@
         <v>1</v>
       </c>
       <c r="D13" s="17">
-        <v>2000</v>
-      </c>
-      <c r="G13" s="52"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="50"/>
       <c r="H13" s="3" t="s">
         <v>9</v>
       </c>
       <c r="I13" s="5">
-        <v>520</v>
-      </c>
-      <c r="K13" s="52"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="50"/>
       <c r="L13" s="3" t="s">
         <v>50</v>
       </c>
       <c r="M13" s="5">
-        <v>500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="16.5" thickBot="1">
@@ -29353,16 +29361,16 @@
         <v>2</v>
       </c>
       <c r="D14" s="17">
-        <v>1000</v>
-      </c>
-      <c r="G14" s="52"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="50"/>
       <c r="H14" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I14" s="5">
-        <v>120</v>
-      </c>
-      <c r="K14" s="52"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="50"/>
       <c r="L14" s="6" t="s">
         <v>17</v>
       </c>
@@ -29377,22 +29385,22 @@
         <v>3</v>
       </c>
       <c r="D15" s="17">
-        <v>1500</v>
-      </c>
-      <c r="G15" s="52"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="50"/>
       <c r="H15" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I15" s="5">
         <v>0</v>
       </c>
-      <c r="K15" s="47" t="s">
+      <c r="K15" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="L15" s="48"/>
+      <c r="L15" s="52"/>
       <c r="M15" s="7">
         <f>SUM(M12:M14)</f>
-        <v>800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="16.5" thickBot="1">
@@ -29403,9 +29411,9 @@
       </c>
       <c r="D16" s="12">
         <f>SUM(D13:D15)</f>
-        <v>4500</v>
-      </c>
-      <c r="G16" s="52"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="50"/>
       <c r="H16" s="3" t="s">
         <v>12</v>
       </c>
@@ -29416,7 +29424,7 @@
     <row r="17" spans="1:13" ht="16.5" thickBot="1">
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
-      <c r="G17" s="52"/>
+      <c r="G17" s="50"/>
       <c r="H17" s="3" t="s">
         <v>13</v>
       </c>
@@ -29427,7 +29435,7 @@
     <row r="18" spans="1:13" ht="16.5" thickBot="1">
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
-      <c r="G18" s="52"/>
+      <c r="G18" s="50"/>
       <c r="H18" s="3" t="s">
         <v>14</v>
       </c>
@@ -29446,21 +29454,21 @@
       <c r="D19" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="G19" s="52"/>
+      <c r="G19" s="50"/>
       <c r="H19" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I19" s="5">
         <v>0</v>
       </c>
-      <c r="K19" s="51" t="s">
+      <c r="K19" s="49" t="s">
         <v>23</v>
       </c>
       <c r="L19" s="4" t="s">
         <v>24</v>
       </c>
       <c r="M19" s="5">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
@@ -29472,19 +29480,19 @@
       <c r="D20" s="17">
         <v>0</v>
       </c>
-      <c r="G20" s="52"/>
+      <c r="G20" s="50"/>
       <c r="H20" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I20" s="5">
         <v>0</v>
       </c>
-      <c r="K20" s="52"/>
+      <c r="K20" s="50"/>
       <c r="L20" s="3" t="s">
         <v>25</v>
       </c>
       <c r="M20" s="5">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="16.5" customHeight="1" thickBot="1">
@@ -29496,14 +29504,14 @@
       <c r="D21" s="17">
         <v>0</v>
       </c>
-      <c r="G21" s="52"/>
+      <c r="G21" s="50"/>
       <c r="H21" s="3" t="s">
         <v>16</v>
       </c>
       <c r="I21" s="5">
         <v>0</v>
       </c>
-      <c r="K21" s="52"/>
+      <c r="K21" s="50"/>
       <c r="L21" s="6" t="s">
         <v>26</v>
       </c>
@@ -29520,20 +29528,20 @@
       <c r="D22" s="17">
         <v>0</v>
       </c>
-      <c r="G22" s="52"/>
+      <c r="G22" s="50"/>
       <c r="H22" s="6" t="s">
         <v>17</v>
       </c>
       <c r="I22" s="5">
         <v>0</v>
       </c>
-      <c r="K22" s="47" t="s">
+      <c r="K22" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="L22" s="48"/>
+      <c r="L22" s="52"/>
       <c r="M22" s="7">
         <f>SUM(M19:M21)</f>
-        <v>120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="16.5" thickBot="1">
@@ -29546,13 +29554,13 @@
         <f>SUM(D20:D22)</f>
         <v>0</v>
       </c>
-      <c r="G23" s="47" t="s">
+      <c r="G23" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="H23" s="48"/>
+      <c r="H23" s="52"/>
       <c r="I23" s="7">
         <f>SUM(I12:I22)</f>
-        <v>1140</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="15.75">
@@ -29574,7 +29582,7 @@
       <c r="D26" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="G26" s="51" t="s">
+      <c r="G26" s="49" t="s">
         <v>19</v>
       </c>
       <c r="H26" s="4" t="s">
@@ -29596,7 +29604,7 @@
       <c r="D27" s="17">
         <v>0</v>
       </c>
-      <c r="G27" s="52"/>
+      <c r="G27" s="50"/>
       <c r="H27" s="3" t="s">
         <v>51</v>
       </c>
@@ -29616,7 +29624,7 @@
       <c r="D28" s="17">
         <v>0</v>
       </c>
-      <c r="G28" s="52"/>
+      <c r="G28" s="50"/>
       <c r="H28" s="6" t="s">
         <v>17</v>
       </c>
@@ -29636,10 +29644,10 @@
       <c r="D29" s="17">
         <v>0</v>
       </c>
-      <c r="G29" s="47" t="s">
+      <c r="G29" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="H29" s="48"/>
+      <c r="H29" s="52"/>
       <c r="I29" s="7">
         <f>SUM(I26:I28)</f>
         <v>0</v>
@@ -29668,11 +29676,11 @@
       </c>
       <c r="H32" s="16">
         <f>MAX(I12:I22)</f>
-        <v>520</v>
+        <v>0</v>
       </c>
       <c r="I32" s="15" t="str">
         <f>INDEX(H12:I22,MATCH(H32,I12:I22,0),1)</f>
-        <v>Condomínio</v>
+        <v>Aluguel</v>
       </c>
     </row>
     <row r="33" spans="7:10">
@@ -29681,11 +29689,11 @@
       </c>
       <c r="H33" s="16">
         <f>MAX(M12:M14)</f>
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="I33" s="15" t="str">
         <f>INDEX(L12:M14,MATCH(H33,M12:M14,0),1)</f>
-        <v>Manutenção</v>
+        <v>IPVA</v>
       </c>
     </row>
     <row r="34" spans="7:10">
@@ -29707,11 +29715,11 @@
       </c>
       <c r="H35" s="16">
         <f>MAX(M19:M21)</f>
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="I35" s="15" t="str">
         <f>INDEX(L19:M21,MATCH(H35,M19:M21,0),1)</f>
-        <v>Lanches</v>
+        <v>Cinema</v>
       </c>
     </row>
     <row r="41" spans="7:10" ht="15.75">
@@ -29770,8 +29778,8 @@
       <c r="J51" s="9"/>
     </row>
     <row r="52" spans="8:10" ht="15.75">
-      <c r="H52" s="49"/>
-      <c r="I52" s="50"/>
+      <c r="H52" s="47"/>
+      <c r="I52" s="48"/>
       <c r="J52" s="10"/>
     </row>
   </sheetData>
@@ -29842,15 +29850,15 @@
       </c>
       <c r="B2" s="26">
         <f>Janeiro!C4</f>
-        <v>-1040</v>
+        <v>2150</v>
       </c>
       <c r="C2" s="42">
         <f>Janeiro!$C$3</f>
-        <v>2040</v>
+        <v>2850</v>
       </c>
       <c r="D2" s="45">
         <f>Janeiro!C2</f>
-        <v>1000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -29859,15 +29867,15 @@
       </c>
       <c r="B3" s="26">
         <f>Fevereiro!$C$4</f>
-        <v>-960</v>
+        <v>0</v>
       </c>
       <c r="C3" s="42">
         <f>Fevereiro!$C$3</f>
-        <v>2060</v>
+        <v>0</v>
       </c>
       <c r="D3" s="45">
         <f>Fevereiro!$C$2</f>
-        <v>1100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -29876,15 +29884,15 @@
       </c>
       <c r="B4" s="26">
         <f>Março!C4</f>
-        <v>-860</v>
+        <v>0</v>
       </c>
       <c r="C4" s="42">
         <f>Março!$C$3</f>
-        <v>2060</v>
+        <v>0</v>
       </c>
       <c r="D4" s="45">
         <f>Março!$C$2</f>
-        <v>1200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -29893,15 +29901,15 @@
       </c>
       <c r="B5" s="26">
         <f>Abril!C4</f>
-        <v>-760</v>
+        <v>0</v>
       </c>
       <c r="C5" s="42">
         <f>Abril!$C$3</f>
-        <v>2060</v>
+        <v>0</v>
       </c>
       <c r="D5" s="45">
         <f>Abril!$C$2</f>
-        <v>1300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -29910,11 +29918,11 @@
       </c>
       <c r="B6" s="26">
         <f>Maio!C4</f>
-        <v>-660</v>
+        <v>1400</v>
       </c>
       <c r="C6" s="42">
         <f>Maio!$C$3</f>
-        <v>2060</v>
+        <v>0</v>
       </c>
       <c r="D6" s="45">
         <f>Maio!$C$2</f>
@@ -29944,15 +29952,15 @@
       </c>
       <c r="B8" s="26">
         <f>Julho!C4</f>
-        <v>2440</v>
+        <v>0</v>
       </c>
       <c r="C8" s="42">
         <f>Julho!$C$3</f>
-        <v>2060</v>
+        <v>0</v>
       </c>
       <c r="D8" s="45">
         <f>Julho!$C$2</f>
-        <v>4500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -29961,15 +29969,15 @@
       </c>
       <c r="B9" s="26">
         <f>Agosto!C4</f>
-        <v>2440</v>
+        <v>0</v>
       </c>
       <c r="C9" s="42">
         <f>Agosto!$C$3</f>
-        <v>2060</v>
+        <v>0</v>
       </c>
       <c r="D9" s="45">
         <f>Agosto!$C$2</f>
-        <v>4500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -29978,15 +29986,15 @@
       </c>
       <c r="B10" s="26">
         <f>Setembro!C4</f>
-        <v>2440</v>
+        <v>0</v>
       </c>
       <c r="C10" s="42">
         <f>Setembro!$C$3</f>
-        <v>2060</v>
+        <v>0</v>
       </c>
       <c r="D10" s="45">
         <f>Setembro!$C$2</f>
-        <v>4500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -29995,15 +30003,15 @@
       </c>
       <c r="B11" s="26">
         <f>Outubro!C4</f>
-        <v>2440</v>
+        <v>-120</v>
       </c>
       <c r="C11" s="42">
         <f>Outubro!$C$3</f>
-        <v>2060</v>
+        <v>120</v>
       </c>
       <c r="D11" s="45">
         <f>Outubro!$C$2</f>
-        <v>4500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -30012,15 +30020,15 @@
       </c>
       <c r="B12" s="26">
         <f>Novembro!C4</f>
-        <v>2440</v>
+        <v>0</v>
       </c>
       <c r="C12" s="42">
         <f>Novembro!$C$3</f>
-        <v>2060</v>
+        <v>0</v>
       </c>
       <c r="D12" s="45">
         <f>Novembro!$C$2</f>
-        <v>4500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -30029,15 +30037,15 @@
       </c>
       <c r="B13" s="26">
         <f>Dezembro!C4</f>
-        <v>2440</v>
+        <v>0</v>
       </c>
       <c r="C13" s="42">
         <f>Dezembro!$C$3</f>
-        <v>2060</v>
+        <v>0</v>
       </c>
       <c r="D13" s="45">
         <f>Dezembro!$C$2</f>
-        <v>4500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -30045,11 +30053,11 @@
       <c r="B14" s="24"/>
       <c r="C14" s="43">
         <f>SUM(C2:C13)</f>
-        <v>24700</v>
+        <v>5030</v>
       </c>
       <c r="D14" s="46">
         <f>SUM(D2:D13)</f>
-        <v>37500</v>
+        <v>10900</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -30058,7 +30066,7 @@
       </c>
       <c r="B16" s="23">
         <f>C14</f>
-        <v>24700</v>
+        <v>5030</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -30068,7 +30076,7 @@
       </c>
       <c r="B17" s="23">
         <f>D14</f>
-        <v>37500</v>
+        <v>10900</v>
       </c>
     </row>
   </sheetData>
@@ -30087,7 +30095,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -30115,28 +30125,28 @@
       </c>
       <c r="C2" s="38">
         <f>D16+D23+D30</f>
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="F2" s="35"/>
     </row>
-    <row r="3" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
+    <row r="3" spans="1:13" ht="22.5" customHeight="1" thickBot="1">
       <c r="A3" s="14"/>
       <c r="B3" s="39" t="s">
         <v>30</v>
       </c>
       <c r="C3" s="37">
         <f>I23+I29+M22+M29+M15</f>
-        <v>2040</v>
+        <v>2850</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="19.5" thickBot="1">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="48"/>
+      <c r="B4" s="52"/>
       <c r="C4" s="40">
         <f>C2-C3</f>
-        <v>-1040</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="197.25" customHeight="1"/>
@@ -30154,7 +30164,7 @@
       <c r="D12" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="G12" s="51" t="s">
+      <c r="G12" s="49" t="s">
         <v>7</v>
       </c>
       <c r="H12" s="4" t="s">
@@ -30163,14 +30173,14 @@
       <c r="I12" s="5">
         <v>500</v>
       </c>
-      <c r="K12" s="51" t="s">
+      <c r="K12" s="49" t="s">
         <v>21</v>
       </c>
       <c r="L12" s="4" t="s">
         <v>22</v>
       </c>
       <c r="M12" s="5">
-        <v>300</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="16.5" thickBot="1">
@@ -30180,21 +30190,21 @@
         <v>1</v>
       </c>
       <c r="D13" s="17">
-        <v>1000</v>
-      </c>
-      <c r="G13" s="52"/>
+        <v>3000</v>
+      </c>
+      <c r="G13" s="50"/>
       <c r="H13" s="3" t="s">
         <v>9</v>
       </c>
       <c r="I13" s="5">
-        <v>500</v>
-      </c>
-      <c r="K13" s="52"/>
+        <v>450</v>
+      </c>
+      <c r="K13" s="50"/>
       <c r="L13" s="3" t="s">
         <v>50</v>
       </c>
       <c r="M13" s="5">
-        <v>500</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="16.5" thickBot="1">
@@ -30204,16 +30214,16 @@
         <v>2</v>
       </c>
       <c r="D14" s="17">
-        <v>0</v>
-      </c>
-      <c r="G14" s="52"/>
+        <v>2000</v>
+      </c>
+      <c r="G14" s="50"/>
       <c r="H14" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I14" s="5">
-        <v>120</v>
-      </c>
-      <c r="K14" s="52"/>
+        <v>160</v>
+      </c>
+      <c r="K14" s="50"/>
       <c r="L14" s="6" t="s">
         <v>17</v>
       </c>
@@ -30230,20 +30240,20 @@
       <c r="D15" s="17">
         <v>0</v>
       </c>
-      <c r="G15" s="52"/>
+      <c r="G15" s="50"/>
       <c r="H15" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I15" s="5">
-        <v>0</v>
-      </c>
-      <c r="K15" s="47" t="s">
+        <v>160</v>
+      </c>
+      <c r="K15" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="L15" s="48"/>
+      <c r="L15" s="52"/>
       <c r="M15" s="7">
         <f>SUM(M12:M14)</f>
-        <v>800</v>
+        <v>270</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="16.5" thickBot="1">
@@ -30254,20 +30264,20 @@
       </c>
       <c r="D16" s="12">
         <f>SUM(D13:D15)</f>
-        <v>1000</v>
-      </c>
-      <c r="G16" s="52"/>
+        <v>5000</v>
+      </c>
+      <c r="G16" s="50"/>
       <c r="H16" s="3" t="s">
         <v>12</v>
       </c>
       <c r="I16" s="5">
-        <v>0</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="16.5" thickBot="1">
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
-      <c r="G17" s="52"/>
+      <c r="G17" s="50"/>
       <c r="H17" s="3" t="s">
         <v>13</v>
       </c>
@@ -30278,17 +30288,17 @@
     <row r="18" spans="1:13" ht="16.5" thickBot="1">
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
-      <c r="G18" s="52"/>
+      <c r="G18" s="50"/>
       <c r="H18" s="3" t="s">
         <v>14</v>
       </c>
       <c r="I18" s="5">
-        <v>0</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
       <c r="A19" s="55" t="s">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="B19" s="56"/>
       <c r="C19" s="21" t="s">
@@ -30297,21 +30307,21 @@
       <c r="D19" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="G19" s="52"/>
+      <c r="G19" s="50"/>
       <c r="H19" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I19" s="5">
-        <v>0</v>
-      </c>
-      <c r="K19" s="51" t="s">
+        <v>300</v>
+      </c>
+      <c r="K19" s="49" t="s">
         <v>23</v>
       </c>
       <c r="L19" s="4" t="s">
         <v>24</v>
       </c>
       <c r="M19" s="5">
-        <v>50</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
@@ -30323,19 +30333,19 @@
       <c r="D20" s="17">
         <v>0</v>
       </c>
-      <c r="G20" s="52"/>
+      <c r="G20" s="50"/>
       <c r="H20" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I20" s="5">
-        <v>0</v>
-      </c>
-      <c r="K20" s="52"/>
+        <v>550</v>
+      </c>
+      <c r="K20" s="50"/>
       <c r="L20" s="3" t="s">
         <v>25</v>
       </c>
       <c r="M20" s="5">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="16.5" customHeight="1" thickBot="1">
@@ -30347,14 +30357,14 @@
       <c r="D21" s="17">
         <v>0</v>
       </c>
-      <c r="G21" s="52"/>
+      <c r="G21" s="50"/>
       <c r="H21" s="3" t="s">
         <v>16</v>
       </c>
       <c r="I21" s="5">
         <v>0</v>
       </c>
-      <c r="K21" s="52"/>
+      <c r="K21" s="50"/>
       <c r="L21" s="6" t="s">
         <v>26</v>
       </c>
@@ -30371,20 +30381,20 @@
       <c r="D22" s="17">
         <v>0</v>
       </c>
-      <c r="G22" s="52"/>
+      <c r="G22" s="50"/>
       <c r="H22" s="6" t="s">
         <v>17</v>
       </c>
       <c r="I22" s="5">
         <v>0</v>
       </c>
-      <c r="K22" s="47" t="s">
+      <c r="K22" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="L22" s="48"/>
+      <c r="L22" s="52"/>
       <c r="M22" s="7">
         <f>SUM(M19:M21)</f>
-        <v>120</v>
+        <v>200</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="16.5" thickBot="1">
@@ -30397,13 +30407,13 @@
         <f>SUM(D20:D22)</f>
         <v>0</v>
       </c>
-      <c r="G23" s="47" t="s">
+      <c r="G23" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="H23" s="48"/>
+      <c r="H23" s="52"/>
       <c r="I23" s="7">
         <f>SUM(I12:I22)</f>
-        <v>1120</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="15.75">
@@ -30416,7 +30426,7 @@
     </row>
     <row r="26" spans="1:13" ht="16.5" customHeight="1" thickBot="1">
       <c r="A26" s="55" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="B26" s="61"/>
       <c r="C26" s="21" t="s">
@@ -30425,7 +30435,7 @@
       <c r="D26" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="G26" s="51" t="s">
+      <c r="G26" s="49" t="s">
         <v>19</v>
       </c>
       <c r="H26" s="4" t="s">
@@ -30447,7 +30457,7 @@
       <c r="D27" s="17">
         <v>0</v>
       </c>
-      <c r="G27" s="52"/>
+      <c r="G27" s="50"/>
       <c r="H27" s="3" t="s">
         <v>51</v>
       </c>
@@ -30467,7 +30477,7 @@
       <c r="D28" s="17">
         <v>0</v>
       </c>
-      <c r="G28" s="52"/>
+      <c r="G28" s="50"/>
       <c r="H28" s="6" t="s">
         <v>17</v>
       </c>
@@ -30487,10 +30497,10 @@
       <c r="D29" s="17">
         <v>0</v>
       </c>
-      <c r="G29" s="47" t="s">
+      <c r="G29" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="H29" s="48"/>
+      <c r="H29" s="52"/>
       <c r="I29" s="7">
         <f>SUM(I26:I28)</f>
         <v>0</v>
@@ -30519,11 +30529,11 @@
       </c>
       <c r="H32" s="16">
         <f>MAX(I12:I22)</f>
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="I32" s="15" t="str">
         <f>INDEX(H12:I22,MATCH(H32,I12:I22,0),1)</f>
-        <v>Aluguel</v>
+        <v>Supermercado</v>
       </c>
     </row>
     <row r="33" spans="7:10">
@@ -30532,11 +30542,11 @@
       </c>
       <c r="H33" s="16">
         <f>MAX(M12:M14)</f>
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="I33" s="15" t="str">
         <f>INDEX(L12:M14,MATCH(H33,M12:M14,0),1)</f>
-        <v>Manutenção</v>
+        <v>IPVA</v>
       </c>
     </row>
     <row r="34" spans="7:10">
@@ -30558,11 +30568,11 @@
       </c>
       <c r="H35" s="16">
         <f>MAX(M19:M21)</f>
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="I35" s="15" t="str">
         <f>INDEX(L19:M21,MATCH(H35,M19:M21,0),1)</f>
-        <v>Lanches</v>
+        <v>Cinema</v>
       </c>
     </row>
     <row r="41" spans="7:10" ht="15.75">
@@ -30621,8 +30631,8 @@
       <c r="J51" s="9"/>
     </row>
     <row r="52" spans="8:10" ht="15.75">
-      <c r="H52" s="49"/>
-      <c r="I52" s="50"/>
+      <c r="H52" s="47"/>
+      <c r="I52" s="48"/>
       <c r="J52" s="10"/>
     </row>
   </sheetData>
@@ -30665,7 +30675,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M52"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -30695,7 +30705,7 @@
       </c>
       <c r="C2" s="38">
         <f>D16+D23+D30</f>
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="F2" s="35"/>
     </row>
@@ -30706,17 +30716,17 @@
       </c>
       <c r="C3" s="37">
         <f>I23+I29+M22+M29+M15</f>
-        <v>2060</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="19.5" thickBot="1">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="48"/>
+      <c r="B4" s="52"/>
       <c r="C4" s="40">
         <f>C2-C3</f>
-        <v>-960</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="197.25" customHeight="1"/>
@@ -30734,23 +30744,23 @@
       <c r="D12" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="G12" s="51" t="s">
+      <c r="G12" s="49" t="s">
         <v>7</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>8</v>
       </c>
       <c r="I12" s="5">
-        <v>500</v>
-      </c>
-      <c r="K12" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="K12" s="49" t="s">
         <v>21</v>
       </c>
       <c r="L12" s="4" t="s">
         <v>22</v>
       </c>
       <c r="M12" s="5">
-        <v>300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="16.5" thickBot="1">
@@ -30760,21 +30770,21 @@
         <v>1</v>
       </c>
       <c r="D13" s="17">
-        <v>1100</v>
-      </c>
-      <c r="G13" s="52"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="50"/>
       <c r="H13" s="3" t="s">
         <v>9</v>
       </c>
       <c r="I13" s="5">
-        <v>520</v>
-      </c>
-      <c r="K13" s="52"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="50"/>
       <c r="L13" s="3" t="s">
         <v>50</v>
       </c>
       <c r="M13" s="5">
-        <v>500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="16.5" thickBot="1">
@@ -30786,14 +30796,14 @@
       <c r="D14" s="17">
         <v>0</v>
       </c>
-      <c r="G14" s="52"/>
+      <c r="G14" s="50"/>
       <c r="H14" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I14" s="5">
-        <v>120</v>
-      </c>
-      <c r="K14" s="52"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="50"/>
       <c r="L14" s="6" t="s">
         <v>17</v>
       </c>
@@ -30810,20 +30820,20 @@
       <c r="D15" s="17">
         <v>0</v>
       </c>
-      <c r="G15" s="52"/>
+      <c r="G15" s="50"/>
       <c r="H15" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I15" s="5">
         <v>0</v>
       </c>
-      <c r="K15" s="47" t="s">
+      <c r="K15" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="L15" s="48"/>
+      <c r="L15" s="52"/>
       <c r="M15" s="7">
         <f>SUM(M12:M14)</f>
-        <v>800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="16.5" thickBot="1">
@@ -30834,9 +30844,9 @@
       </c>
       <c r="D16" s="12">
         <f>SUM(D13:D15)</f>
-        <v>1100</v>
-      </c>
-      <c r="G16" s="52"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="50"/>
       <c r="H16" s="3" t="s">
         <v>12</v>
       </c>
@@ -30847,7 +30857,7 @@
     <row r="17" spans="1:13" ht="16.5" thickBot="1">
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
-      <c r="G17" s="52"/>
+      <c r="G17" s="50"/>
       <c r="H17" s="3" t="s">
         <v>13</v>
       </c>
@@ -30858,7 +30868,7 @@
     <row r="18" spans="1:13" ht="16.5" thickBot="1">
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
-      <c r="G18" s="52"/>
+      <c r="G18" s="50"/>
       <c r="H18" s="3" t="s">
         <v>14</v>
       </c>
@@ -30877,21 +30887,21 @@
       <c r="D19" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="G19" s="52"/>
+      <c r="G19" s="50"/>
       <c r="H19" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I19" s="5">
         <v>0</v>
       </c>
-      <c r="K19" s="51" t="s">
+      <c r="K19" s="49" t="s">
         <v>23</v>
       </c>
       <c r="L19" s="4" t="s">
         <v>24</v>
       </c>
       <c r="M19" s="5">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
@@ -30903,19 +30913,19 @@
       <c r="D20" s="17">
         <v>0</v>
       </c>
-      <c r="G20" s="52"/>
+      <c r="G20" s="50"/>
       <c r="H20" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I20" s="5">
         <v>0</v>
       </c>
-      <c r="K20" s="52"/>
+      <c r="K20" s="50"/>
       <c r="L20" s="3" t="s">
         <v>25</v>
       </c>
       <c r="M20" s="5">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="16.5" customHeight="1" thickBot="1">
@@ -30927,14 +30937,14 @@
       <c r="D21" s="17">
         <v>0</v>
       </c>
-      <c r="G21" s="52"/>
+      <c r="G21" s="50"/>
       <c r="H21" s="3" t="s">
         <v>16</v>
       </c>
       <c r="I21" s="5">
         <v>0</v>
       </c>
-      <c r="K21" s="52"/>
+      <c r="K21" s="50"/>
       <c r="L21" s="6" t="s">
         <v>26</v>
       </c>
@@ -30951,20 +30961,20 @@
       <c r="D22" s="17">
         <v>0</v>
       </c>
-      <c r="G22" s="52"/>
+      <c r="G22" s="50"/>
       <c r="H22" s="6" t="s">
         <v>17</v>
       </c>
       <c r="I22" s="5">
         <v>0</v>
       </c>
-      <c r="K22" s="47" t="s">
+      <c r="K22" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="L22" s="48"/>
+      <c r="L22" s="52"/>
       <c r="M22" s="7">
         <f>SUM(M19:M21)</f>
-        <v>120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="16.5" thickBot="1">
@@ -30977,13 +30987,13 @@
         <f>SUM(D20:D22)</f>
         <v>0</v>
       </c>
-      <c r="G23" s="47" t="s">
+      <c r="G23" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="H23" s="48"/>
+      <c r="H23" s="52"/>
       <c r="I23" s="7">
         <f>SUM(I12:I22)</f>
-        <v>1140</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="15.75">
@@ -31005,7 +31015,7 @@
       <c r="D26" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="G26" s="51" t="s">
+      <c r="G26" s="49" t="s">
         <v>19</v>
       </c>
       <c r="H26" s="4" t="s">
@@ -31027,7 +31037,7 @@
       <c r="D27" s="17">
         <v>0</v>
       </c>
-      <c r="G27" s="52"/>
+      <c r="G27" s="50"/>
       <c r="H27" s="3" t="s">
         <v>51</v>
       </c>
@@ -31047,7 +31057,7 @@
       <c r="D28" s="17">
         <v>0</v>
       </c>
-      <c r="G28" s="52"/>
+      <c r="G28" s="50"/>
       <c r="H28" s="6" t="s">
         <v>17</v>
       </c>
@@ -31067,10 +31077,10 @@
       <c r="D29" s="17">
         <v>0</v>
       </c>
-      <c r="G29" s="47" t="s">
+      <c r="G29" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="H29" s="48"/>
+      <c r="H29" s="52"/>
       <c r="I29" s="7">
         <f>SUM(I26:I28)</f>
         <v>0</v>
@@ -31099,11 +31109,11 @@
       </c>
       <c r="H32" s="16">
         <f>MAX(I12:I22)</f>
-        <v>520</v>
+        <v>0</v>
       </c>
       <c r="I32" s="15" t="str">
         <f>INDEX(H12:I22,MATCH(H32,I12:I22,0),1)</f>
-        <v>Condomínio</v>
+        <v>Aluguel</v>
       </c>
     </row>
     <row r="33" spans="7:10">
@@ -31112,11 +31122,11 @@
       </c>
       <c r="H33" s="16">
         <f>MAX(M12:M14)</f>
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="I33" s="15" t="str">
         <f>INDEX(L12:M14,MATCH(H33,M12:M14,0),1)</f>
-        <v>Manutenção</v>
+        <v>IPVA</v>
       </c>
     </row>
     <row r="34" spans="7:10">
@@ -31138,11 +31148,11 @@
       </c>
       <c r="H35" s="16">
         <f>MAX(M19:M21)</f>
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="I35" s="15" t="str">
         <f>INDEX(L19:M21,MATCH(H35,M19:M21,0),1)</f>
-        <v>Lanches</v>
+        <v>Cinema</v>
       </c>
     </row>
     <row r="41" spans="7:10" ht="15.75">
@@ -31201,8 +31211,8 @@
       <c r="J51" s="9"/>
     </row>
     <row r="52" spans="8:10" ht="15.75">
-      <c r="H52" s="49"/>
-      <c r="I52" s="50"/>
+      <c r="H52" s="47"/>
+      <c r="I52" s="48"/>
       <c r="J52" s="10"/>
     </row>
   </sheetData>
@@ -31245,7 +31255,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M52"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="82" zoomScaleNormal="82" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -31273,7 +31285,7 @@
       </c>
       <c r="C2" s="38">
         <f>D16+D23+D30</f>
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="F2" s="35"/>
     </row>
@@ -31284,17 +31296,17 @@
       </c>
       <c r="C3" s="37">
         <f>I23+I29+M22+M29+M15</f>
-        <v>2060</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="19.5" thickBot="1">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="48"/>
+      <c r="B4" s="52"/>
       <c r="C4" s="40">
         <f>C2-C3</f>
-        <v>-860</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="197.25" customHeight="1"/>
@@ -31312,23 +31324,23 @@
       <c r="D12" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="G12" s="51" t="s">
+      <c r="G12" s="49" t="s">
         <v>7</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>8</v>
       </c>
       <c r="I12" s="5">
-        <v>500</v>
-      </c>
-      <c r="K12" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="K12" s="49" t="s">
         <v>21</v>
       </c>
       <c r="L12" s="4" t="s">
         <v>22</v>
       </c>
       <c r="M12" s="5">
-        <v>300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="16.5" thickBot="1">
@@ -31338,21 +31350,21 @@
         <v>1</v>
       </c>
       <c r="D13" s="17">
-        <v>1200</v>
-      </c>
-      <c r="G13" s="52"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="50"/>
       <c r="H13" s="3" t="s">
         <v>9</v>
       </c>
       <c r="I13" s="5">
-        <v>520</v>
-      </c>
-      <c r="K13" s="52"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="50"/>
       <c r="L13" s="3" t="s">
         <v>50</v>
       </c>
       <c r="M13" s="5">
-        <v>500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="16.5" thickBot="1">
@@ -31364,14 +31376,14 @@
       <c r="D14" s="17">
         <v>0</v>
       </c>
-      <c r="G14" s="52"/>
+      <c r="G14" s="50"/>
       <c r="H14" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I14" s="5">
-        <v>120</v>
-      </c>
-      <c r="K14" s="52"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="50"/>
       <c r="L14" s="6" t="s">
         <v>17</v>
       </c>
@@ -31388,20 +31400,20 @@
       <c r="D15" s="17">
         <v>0</v>
       </c>
-      <c r="G15" s="52"/>
+      <c r="G15" s="50"/>
       <c r="H15" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I15" s="5">
         <v>0</v>
       </c>
-      <c r="K15" s="47" t="s">
+      <c r="K15" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="L15" s="48"/>
+      <c r="L15" s="52"/>
       <c r="M15" s="7">
         <f>SUM(M12:M14)</f>
-        <v>800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="16.5" thickBot="1">
@@ -31412,9 +31424,9 @@
       </c>
       <c r="D16" s="12">
         <f>SUM(D13:D15)</f>
-        <v>1200</v>
-      </c>
-      <c r="G16" s="52"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="50"/>
       <c r="H16" s="3" t="s">
         <v>12</v>
       </c>
@@ -31425,7 +31437,7 @@
     <row r="17" spans="1:13" ht="16.5" thickBot="1">
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
-      <c r="G17" s="52"/>
+      <c r="G17" s="50"/>
       <c r="H17" s="3" t="s">
         <v>13</v>
       </c>
@@ -31436,7 +31448,7 @@
     <row r="18" spans="1:13" ht="16.5" thickBot="1">
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
-      <c r="G18" s="52"/>
+      <c r="G18" s="50"/>
       <c r="H18" s="3" t="s">
         <v>14</v>
       </c>
@@ -31455,21 +31467,21 @@
       <c r="D19" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="G19" s="52"/>
+      <c r="G19" s="50"/>
       <c r="H19" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I19" s="5">
         <v>0</v>
       </c>
-      <c r="K19" s="51" t="s">
+      <c r="K19" s="49" t="s">
         <v>23</v>
       </c>
       <c r="L19" s="4" t="s">
         <v>24</v>
       </c>
       <c r="M19" s="5">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
@@ -31481,19 +31493,19 @@
       <c r="D20" s="17">
         <v>0</v>
       </c>
-      <c r="G20" s="52"/>
+      <c r="G20" s="50"/>
       <c r="H20" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I20" s="5">
         <v>0</v>
       </c>
-      <c r="K20" s="52"/>
+      <c r="K20" s="50"/>
       <c r="L20" s="3" t="s">
         <v>25</v>
       </c>
       <c r="M20" s="5">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="16.5" customHeight="1" thickBot="1">
@@ -31505,14 +31517,14 @@
       <c r="D21" s="17">
         <v>0</v>
       </c>
-      <c r="G21" s="52"/>
+      <c r="G21" s="50"/>
       <c r="H21" s="3" t="s">
         <v>16</v>
       </c>
       <c r="I21" s="5">
         <v>0</v>
       </c>
-      <c r="K21" s="52"/>
+      <c r="K21" s="50"/>
       <c r="L21" s="6" t="s">
         <v>26</v>
       </c>
@@ -31529,20 +31541,20 @@
       <c r="D22" s="17">
         <v>0</v>
       </c>
-      <c r="G22" s="52"/>
+      <c r="G22" s="50"/>
       <c r="H22" s="6" t="s">
         <v>17</v>
       </c>
       <c r="I22" s="5">
         <v>0</v>
       </c>
-      <c r="K22" s="47" t="s">
+      <c r="K22" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="L22" s="48"/>
+      <c r="L22" s="52"/>
       <c r="M22" s="7">
         <f>SUM(M19:M21)</f>
-        <v>120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="16.5" thickBot="1">
@@ -31555,13 +31567,13 @@
         <f>SUM(D20:D22)</f>
         <v>0</v>
       </c>
-      <c r="G23" s="47" t="s">
+      <c r="G23" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="H23" s="48"/>
+      <c r="H23" s="52"/>
       <c r="I23" s="7">
         <f>SUM(I12:I22)</f>
-        <v>1140</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="15.75">
@@ -31583,7 +31595,7 @@
       <c r="D26" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="G26" s="51" t="s">
+      <c r="G26" s="49" t="s">
         <v>19</v>
       </c>
       <c r="H26" s="4" t="s">
@@ -31605,7 +31617,7 @@
       <c r="D27" s="17">
         <v>0</v>
       </c>
-      <c r="G27" s="52"/>
+      <c r="G27" s="50"/>
       <c r="H27" s="3" t="s">
         <v>51</v>
       </c>
@@ -31625,7 +31637,7 @@
       <c r="D28" s="17">
         <v>0</v>
       </c>
-      <c r="G28" s="52"/>
+      <c r="G28" s="50"/>
       <c r="H28" s="6" t="s">
         <v>17</v>
       </c>
@@ -31645,10 +31657,10 @@
       <c r="D29" s="17">
         <v>0</v>
       </c>
-      <c r="G29" s="47" t="s">
+      <c r="G29" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="H29" s="48"/>
+      <c r="H29" s="52"/>
       <c r="I29" s="7">
         <f>SUM(I26:I28)</f>
         <v>0</v>
@@ -31677,11 +31689,11 @@
       </c>
       <c r="H32" s="16">
         <f>MAX(I12:I22)</f>
-        <v>520</v>
+        <v>0</v>
       </c>
       <c r="I32" s="15" t="str">
         <f>INDEX(H12:I22,MATCH(H32,I12:I22,0),1)</f>
-        <v>Condomínio</v>
+        <v>Aluguel</v>
       </c>
     </row>
     <row r="33" spans="7:10">
@@ -31690,11 +31702,11 @@
       </c>
       <c r="H33" s="16">
         <f>MAX(M12:M14)</f>
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="I33" s="15" t="str">
         <f>INDEX(L12:M14,MATCH(H33,M12:M14,0),1)</f>
-        <v>Manutenção</v>
+        <v>IPVA</v>
       </c>
     </row>
     <row r="34" spans="7:10">
@@ -31716,11 +31728,11 @@
       </c>
       <c r="H35" s="16">
         <f>MAX(M19:M21)</f>
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="I35" s="15" t="str">
         <f>INDEX(L19:M21,MATCH(H35,M19:M21,0),1)</f>
-        <v>Lanches</v>
+        <v>Cinema</v>
       </c>
     </row>
     <row r="41" spans="7:10" ht="15.75">
@@ -31779,8 +31791,8 @@
       <c r="J51" s="9"/>
     </row>
     <row r="52" spans="8:10" ht="15.75">
-      <c r="H52" s="49"/>
-      <c r="I52" s="50"/>
+      <c r="H52" s="47"/>
+      <c r="I52" s="48"/>
       <c r="J52" s="10"/>
     </row>
   </sheetData>
@@ -31823,7 +31835,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:M52"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -31853,7 +31865,7 @@
       </c>
       <c r="C2" s="38">
         <f>D16+D23+D30</f>
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="F2" s="35"/>
     </row>
@@ -31864,17 +31876,17 @@
       </c>
       <c r="C3" s="37">
         <f>I23+I29+M22+M29+M15</f>
-        <v>2060</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="19.5" thickBot="1">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="48"/>
+      <c r="B4" s="52"/>
       <c r="C4" s="40">
         <f>C2-C3</f>
-        <v>-760</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="197.25" customHeight="1"/>
@@ -31892,23 +31904,23 @@
       <c r="D12" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="G12" s="51" t="s">
+      <c r="G12" s="49" t="s">
         <v>7</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>8</v>
       </c>
       <c r="I12" s="5">
-        <v>500</v>
-      </c>
-      <c r="K12" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="K12" s="49" t="s">
         <v>21</v>
       </c>
       <c r="L12" s="4" t="s">
         <v>22</v>
       </c>
       <c r="M12" s="5">
-        <v>300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="16.5" thickBot="1">
@@ -31918,21 +31930,21 @@
         <v>1</v>
       </c>
       <c r="D13" s="17">
-        <v>1300</v>
-      </c>
-      <c r="G13" s="52"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="50"/>
       <c r="H13" s="3" t="s">
         <v>9</v>
       </c>
       <c r="I13" s="5">
-        <v>520</v>
-      </c>
-      <c r="K13" s="52"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="50"/>
       <c r="L13" s="3" t="s">
         <v>50</v>
       </c>
       <c r="M13" s="5">
-        <v>500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="16.5" thickBot="1">
@@ -31944,14 +31956,14 @@
       <c r="D14" s="17">
         <v>0</v>
       </c>
-      <c r="G14" s="52"/>
+      <c r="G14" s="50"/>
       <c r="H14" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I14" s="5">
-        <v>120</v>
-      </c>
-      <c r="K14" s="52"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="50"/>
       <c r="L14" s="6" t="s">
         <v>17</v>
       </c>
@@ -31968,20 +31980,20 @@
       <c r="D15" s="17">
         <v>0</v>
       </c>
-      <c r="G15" s="52"/>
+      <c r="G15" s="50"/>
       <c r="H15" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I15" s="5">
         <v>0</v>
       </c>
-      <c r="K15" s="47" t="s">
+      <c r="K15" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="L15" s="48"/>
+      <c r="L15" s="52"/>
       <c r="M15" s="7">
         <f>SUM(M12:M14)</f>
-        <v>800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="16.5" thickBot="1">
@@ -31992,9 +32004,9 @@
       </c>
       <c r="D16" s="12">
         <f>SUM(D13:D15)</f>
-        <v>1300</v>
-      </c>
-      <c r="G16" s="52"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="50"/>
       <c r="H16" s="3" t="s">
         <v>12</v>
       </c>
@@ -32005,7 +32017,7 @@
     <row r="17" spans="1:13" ht="16.5" thickBot="1">
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
-      <c r="G17" s="52"/>
+      <c r="G17" s="50"/>
       <c r="H17" s="3" t="s">
         <v>13</v>
       </c>
@@ -32016,7 +32028,7 @@
     <row r="18" spans="1:13" ht="16.5" thickBot="1">
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
-      <c r="G18" s="52"/>
+      <c r="G18" s="50"/>
       <c r="H18" s="3" t="s">
         <v>14</v>
       </c>
@@ -32035,21 +32047,21 @@
       <c r="D19" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="G19" s="52"/>
+      <c r="G19" s="50"/>
       <c r="H19" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I19" s="5">
         <v>0</v>
       </c>
-      <c r="K19" s="51" t="s">
+      <c r="K19" s="49" t="s">
         <v>23</v>
       </c>
       <c r="L19" s="4" t="s">
         <v>24</v>
       </c>
       <c r="M19" s="5">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
@@ -32061,19 +32073,19 @@
       <c r="D20" s="17">
         <v>0</v>
       </c>
-      <c r="G20" s="52"/>
+      <c r="G20" s="50"/>
       <c r="H20" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I20" s="5">
         <v>0</v>
       </c>
-      <c r="K20" s="52"/>
+      <c r="K20" s="50"/>
       <c r="L20" s="3" t="s">
         <v>25</v>
       </c>
       <c r="M20" s="5">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="16.5" customHeight="1" thickBot="1">
@@ -32085,14 +32097,14 @@
       <c r="D21" s="17">
         <v>0</v>
       </c>
-      <c r="G21" s="52"/>
+      <c r="G21" s="50"/>
       <c r="H21" s="3" t="s">
         <v>16</v>
       </c>
       <c r="I21" s="5">
         <v>0</v>
       </c>
-      <c r="K21" s="52"/>
+      <c r="K21" s="50"/>
       <c r="L21" s="6" t="s">
         <v>26</v>
       </c>
@@ -32109,20 +32121,20 @@
       <c r="D22" s="17">
         <v>0</v>
       </c>
-      <c r="G22" s="52"/>
+      <c r="G22" s="50"/>
       <c r="H22" s="6" t="s">
         <v>17</v>
       </c>
       <c r="I22" s="5">
         <v>0</v>
       </c>
-      <c r="K22" s="47" t="s">
+      <c r="K22" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="L22" s="48"/>
+      <c r="L22" s="52"/>
       <c r="M22" s="7">
         <f>SUM(M19:M21)</f>
-        <v>120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="16.5" thickBot="1">
@@ -32135,13 +32147,13 @@
         <f>SUM(D20:D22)</f>
         <v>0</v>
       </c>
-      <c r="G23" s="47" t="s">
+      <c r="G23" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="H23" s="48"/>
+      <c r="H23" s="52"/>
       <c r="I23" s="7">
         <f>SUM(I12:I22)</f>
-        <v>1140</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="15.75">
@@ -32163,7 +32175,7 @@
       <c r="D26" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="G26" s="51" t="s">
+      <c r="G26" s="49" t="s">
         <v>19</v>
       </c>
       <c r="H26" s="4" t="s">
@@ -32185,7 +32197,7 @@
       <c r="D27" s="17">
         <v>0</v>
       </c>
-      <c r="G27" s="52"/>
+      <c r="G27" s="50"/>
       <c r="H27" s="3" t="s">
         <v>51</v>
       </c>
@@ -32205,7 +32217,7 @@
       <c r="D28" s="17">
         <v>0</v>
       </c>
-      <c r="G28" s="52"/>
+      <c r="G28" s="50"/>
       <c r="H28" s="6" t="s">
         <v>17</v>
       </c>
@@ -32225,10 +32237,10 @@
       <c r="D29" s="17">
         <v>0</v>
       </c>
-      <c r="G29" s="47" t="s">
+      <c r="G29" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="H29" s="48"/>
+      <c r="H29" s="52"/>
       <c r="I29" s="7">
         <f>SUM(I26:I28)</f>
         <v>0</v>
@@ -32257,11 +32269,11 @@
       </c>
       <c r="H32" s="16">
         <f>MAX(I12:I22)</f>
-        <v>520</v>
+        <v>0</v>
       </c>
       <c r="I32" s="15" t="str">
         <f>INDEX(H12:I22,MATCH(H32,I12:I22,0),1)</f>
-        <v>Condomínio</v>
+        <v>Aluguel</v>
       </c>
     </row>
     <row r="33" spans="7:10">
@@ -32270,11 +32282,11 @@
       </c>
       <c r="H33" s="16">
         <f>MAX(M12:M14)</f>
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="I33" s="15" t="str">
         <f>INDEX(L12:M14,MATCH(H33,M12:M14,0),1)</f>
-        <v>Manutenção</v>
+        <v>IPVA</v>
       </c>
     </row>
     <row r="34" spans="7:10">
@@ -32296,11 +32308,11 @@
       </c>
       <c r="H35" s="16">
         <f>MAX(M19:M21)</f>
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="I35" s="15" t="str">
         <f>INDEX(L19:M21,MATCH(H35,M19:M21,0),1)</f>
-        <v>Lanches</v>
+        <v>Cinema</v>
       </c>
     </row>
     <row r="41" spans="7:10" ht="15.75">
@@ -32359,8 +32371,8 @@
       <c r="J51" s="9"/>
     </row>
     <row r="52" spans="8:10" ht="15.75">
-      <c r="H52" s="49"/>
-      <c r="I52" s="50"/>
+      <c r="H52" s="47"/>
+      <c r="I52" s="48"/>
       <c r="J52" s="10"/>
     </row>
   </sheetData>
@@ -32403,8 +32415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:M52"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView showGridLines="0" topLeftCell="A12" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19:M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -32444,17 +32456,17 @@
       </c>
       <c r="C3" s="37">
         <f>I23+I29+M22+M29+M15</f>
-        <v>2060</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="19.5" thickBot="1">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="48"/>
+      <c r="B4" s="52"/>
       <c r="C4" s="40">
         <f>C2-C3</f>
-        <v>-660</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="197.25" customHeight="1"/>
@@ -32472,23 +32484,23 @@
       <c r="D12" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="G12" s="51" t="s">
+      <c r="G12" s="49" t="s">
         <v>7</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>8</v>
       </c>
       <c r="I12" s="5">
-        <v>500</v>
-      </c>
-      <c r="K12" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="K12" s="49" t="s">
         <v>21</v>
       </c>
       <c r="L12" s="4" t="s">
         <v>22</v>
       </c>
       <c r="M12" s="5">
-        <v>300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="16.5" thickBot="1">
@@ -32500,19 +32512,19 @@
       <c r="D13" s="17">
         <v>1400</v>
       </c>
-      <c r="G13" s="52"/>
+      <c r="G13" s="50"/>
       <c r="H13" s="3" t="s">
         <v>9</v>
       </c>
       <c r="I13" s="5">
-        <v>520</v>
-      </c>
-      <c r="K13" s="52"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="50"/>
       <c r="L13" s="3" t="s">
         <v>50</v>
       </c>
       <c r="M13" s="5">
-        <v>500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="16.5" thickBot="1">
@@ -32524,14 +32536,14 @@
       <c r="D14" s="17">
         <v>0</v>
       </c>
-      <c r="G14" s="52"/>
+      <c r="G14" s="50"/>
       <c r="H14" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I14" s="5">
-        <v>120</v>
-      </c>
-      <c r="K14" s="52"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="50"/>
       <c r="L14" s="6" t="s">
         <v>17</v>
       </c>
@@ -32548,20 +32560,20 @@
       <c r="D15" s="17">
         <v>0</v>
       </c>
-      <c r="G15" s="52"/>
+      <c r="G15" s="50"/>
       <c r="H15" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I15" s="5">
         <v>0</v>
       </c>
-      <c r="K15" s="47" t="s">
+      <c r="K15" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="L15" s="48"/>
+      <c r="L15" s="52"/>
       <c r="M15" s="7">
         <f>SUM(M12:M14)</f>
-        <v>800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="16.5" thickBot="1">
@@ -32574,7 +32586,7 @@
         <f>SUM(D13:D15)</f>
         <v>1400</v>
       </c>
-      <c r="G16" s="52"/>
+      <c r="G16" s="50"/>
       <c r="H16" s="3" t="s">
         <v>12</v>
       </c>
@@ -32585,7 +32597,7 @@
     <row r="17" spans="1:13" ht="16.5" thickBot="1">
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
-      <c r="G17" s="52"/>
+      <c r="G17" s="50"/>
       <c r="H17" s="3" t="s">
         <v>13</v>
       </c>
@@ -32596,7 +32608,7 @@
     <row r="18" spans="1:13" ht="16.5" thickBot="1">
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
-      <c r="G18" s="52"/>
+      <c r="G18" s="50"/>
       <c r="H18" s="3" t="s">
         <v>14</v>
       </c>
@@ -32615,21 +32627,21 @@
       <c r="D19" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="G19" s="52"/>
+      <c r="G19" s="50"/>
       <c r="H19" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I19" s="5">
         <v>0</v>
       </c>
-      <c r="K19" s="51" t="s">
+      <c r="K19" s="49" t="s">
         <v>23</v>
       </c>
       <c r="L19" s="4" t="s">
         <v>24</v>
       </c>
       <c r="M19" s="5">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
@@ -32641,19 +32653,19 @@
       <c r="D20" s="17">
         <v>0</v>
       </c>
-      <c r="G20" s="52"/>
+      <c r="G20" s="50"/>
       <c r="H20" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I20" s="5">
         <v>0</v>
       </c>
-      <c r="K20" s="52"/>
+      <c r="K20" s="50"/>
       <c r="L20" s="3" t="s">
         <v>25</v>
       </c>
       <c r="M20" s="5">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="16.5" customHeight="1" thickBot="1">
@@ -32665,14 +32677,14 @@
       <c r="D21" s="17">
         <v>0</v>
       </c>
-      <c r="G21" s="52"/>
+      <c r="G21" s="50"/>
       <c r="H21" s="3" t="s">
         <v>16</v>
       </c>
       <c r="I21" s="5">
         <v>0</v>
       </c>
-      <c r="K21" s="52"/>
+      <c r="K21" s="50"/>
       <c r="L21" s="6" t="s">
         <v>26</v>
       </c>
@@ -32689,20 +32701,20 @@
       <c r="D22" s="17">
         <v>0</v>
       </c>
-      <c r="G22" s="52"/>
+      <c r="G22" s="50"/>
       <c r="H22" s="6" t="s">
         <v>17</v>
       </c>
       <c r="I22" s="5">
         <v>0</v>
       </c>
-      <c r="K22" s="47" t="s">
+      <c r="K22" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="L22" s="48"/>
+      <c r="L22" s="52"/>
       <c r="M22" s="7">
         <f>SUM(M19:M21)</f>
-        <v>120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="16.5" thickBot="1">
@@ -32715,13 +32727,13 @@
         <f>SUM(D20:D22)</f>
         <v>0</v>
       </c>
-      <c r="G23" s="47" t="s">
+      <c r="G23" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="H23" s="48"/>
+      <c r="H23" s="52"/>
       <c r="I23" s="7">
         <f>SUM(I12:I22)</f>
-        <v>1140</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="15.75">
@@ -32743,7 +32755,7 @@
       <c r="D26" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="G26" s="51" t="s">
+      <c r="G26" s="49" t="s">
         <v>19</v>
       </c>
       <c r="H26" s="4" t="s">
@@ -32765,7 +32777,7 @@
       <c r="D27" s="17">
         <v>0</v>
       </c>
-      <c r="G27" s="52"/>
+      <c r="G27" s="50"/>
       <c r="H27" s="3" t="s">
         <v>51</v>
       </c>
@@ -32785,7 +32797,7 @@
       <c r="D28" s="17">
         <v>0</v>
       </c>
-      <c r="G28" s="52"/>
+      <c r="G28" s="50"/>
       <c r="H28" s="6" t="s">
         <v>17</v>
       </c>
@@ -32805,10 +32817,10 @@
       <c r="D29" s="17">
         <v>0</v>
       </c>
-      <c r="G29" s="47" t="s">
+      <c r="G29" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="H29" s="48"/>
+      <c r="H29" s="52"/>
       <c r="I29" s="7">
         <f>SUM(I26:I28)</f>
         <v>0</v>
@@ -32837,11 +32849,11 @@
       </c>
       <c r="H32" s="16">
         <f>MAX(I12:I22)</f>
-        <v>520</v>
+        <v>0</v>
       </c>
       <c r="I32" s="15" t="str">
         <f>INDEX(H12:I22,MATCH(H32,I12:I22,0),1)</f>
-        <v>Condomínio</v>
+        <v>Aluguel</v>
       </c>
     </row>
     <row r="33" spans="7:10">
@@ -32850,11 +32862,11 @@
       </c>
       <c r="H33" s="16">
         <f>MAX(M12:M14)</f>
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="I33" s="15" t="str">
         <f>INDEX(L12:M14,MATCH(H33,M12:M14,0),1)</f>
-        <v>Manutenção</v>
+        <v>IPVA</v>
       </c>
     </row>
     <row r="34" spans="7:10">
@@ -32876,11 +32888,11 @@
       </c>
       <c r="H35" s="16">
         <f>MAX(M19:M21)</f>
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="I35" s="15" t="str">
         <f>INDEX(L19:M21,MATCH(H35,M19:M21,0),1)</f>
-        <v>Lanches</v>
+        <v>Cinema</v>
       </c>
     </row>
     <row r="41" spans="7:10" ht="15.75">
@@ -32939,8 +32951,8 @@
       <c r="J51" s="9"/>
     </row>
     <row r="52" spans="8:10" ht="15.75">
-      <c r="H52" s="49"/>
-      <c r="I52" s="50"/>
+      <c r="H52" s="47"/>
+      <c r="I52" s="48"/>
       <c r="J52" s="10"/>
     </row>
   </sheetData>
@@ -33028,10 +33040,10 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="19.5" thickBot="1">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="48"/>
+      <c r="B4" s="52"/>
       <c r="C4" s="40">
         <f>C2-C3</f>
         <v>2440</v>
@@ -33052,7 +33064,7 @@
       <c r="D12" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="G12" s="51" t="s">
+      <c r="G12" s="49" t="s">
         <v>7</v>
       </c>
       <c r="H12" s="4" t="s">
@@ -33061,7 +33073,7 @@
       <c r="I12" s="5">
         <v>500</v>
       </c>
-      <c r="K12" s="51" t="s">
+      <c r="K12" s="49" t="s">
         <v>21</v>
       </c>
       <c r="L12" s="4" t="s">
@@ -33080,14 +33092,14 @@
       <c r="D13" s="17">
         <v>2000</v>
       </c>
-      <c r="G13" s="52"/>
+      <c r="G13" s="50"/>
       <c r="H13" s="3" t="s">
         <v>9</v>
       </c>
       <c r="I13" s="5">
         <v>520</v>
       </c>
-      <c r="K13" s="52"/>
+      <c r="K13" s="50"/>
       <c r="L13" s="3" t="s">
         <v>50</v>
       </c>
@@ -33104,14 +33116,14 @@
       <c r="D14" s="17">
         <v>1000</v>
       </c>
-      <c r="G14" s="52"/>
+      <c r="G14" s="50"/>
       <c r="H14" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I14" s="5">
         <v>120</v>
       </c>
-      <c r="K14" s="52"/>
+      <c r="K14" s="50"/>
       <c r="L14" s="6" t="s">
         <v>17</v>
       </c>
@@ -33128,17 +33140,17 @@
       <c r="D15" s="17">
         <v>1500</v>
       </c>
-      <c r="G15" s="52"/>
+      <c r="G15" s="50"/>
       <c r="H15" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I15" s="5">
         <v>0</v>
       </c>
-      <c r="K15" s="47" t="s">
+      <c r="K15" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="L15" s="48"/>
+      <c r="L15" s="52"/>
       <c r="M15" s="7">
         <f>SUM(M12:M14)</f>
         <v>800</v>
@@ -33154,7 +33166,7 @@
         <f>SUM(D13:D15)</f>
         <v>4500</v>
       </c>
-      <c r="G16" s="52"/>
+      <c r="G16" s="50"/>
       <c r="H16" s="3" t="s">
         <v>12</v>
       </c>
@@ -33165,7 +33177,7 @@
     <row r="17" spans="1:13" ht="16.5" thickBot="1">
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
-      <c r="G17" s="52"/>
+      <c r="G17" s="50"/>
       <c r="H17" s="3" t="s">
         <v>13</v>
       </c>
@@ -33176,7 +33188,7 @@
     <row r="18" spans="1:13" ht="16.5" thickBot="1">
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
-      <c r="G18" s="52"/>
+      <c r="G18" s="50"/>
       <c r="H18" s="3" t="s">
         <v>14</v>
       </c>
@@ -33195,14 +33207,14 @@
       <c r="D19" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="G19" s="52"/>
+      <c r="G19" s="50"/>
       <c r="H19" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I19" s="5">
         <v>0</v>
       </c>
-      <c r="K19" s="51" t="s">
+      <c r="K19" s="49" t="s">
         <v>23</v>
       </c>
       <c r="L19" s="4" t="s">
@@ -33221,14 +33233,14 @@
       <c r="D20" s="17">
         <v>0</v>
       </c>
-      <c r="G20" s="52"/>
+      <c r="G20" s="50"/>
       <c r="H20" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I20" s="5">
         <v>0</v>
       </c>
-      <c r="K20" s="52"/>
+      <c r="K20" s="50"/>
       <c r="L20" s="3" t="s">
         <v>25</v>
       </c>
@@ -33245,14 +33257,14 @@
       <c r="D21" s="17">
         <v>0</v>
       </c>
-      <c r="G21" s="52"/>
+      <c r="G21" s="50"/>
       <c r="H21" s="3" t="s">
         <v>16</v>
       </c>
       <c r="I21" s="5">
         <v>0</v>
       </c>
-      <c r="K21" s="52"/>
+      <c r="K21" s="50"/>
       <c r="L21" s="6" t="s">
         <v>26</v>
       </c>
@@ -33269,17 +33281,17 @@
       <c r="D22" s="17">
         <v>0</v>
       </c>
-      <c r="G22" s="52"/>
+      <c r="G22" s="50"/>
       <c r="H22" s="6" t="s">
         <v>17</v>
       </c>
       <c r="I22" s="5">
         <v>0</v>
       </c>
-      <c r="K22" s="47" t="s">
+      <c r="K22" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="L22" s="48"/>
+      <c r="L22" s="52"/>
       <c r="M22" s="7">
         <f>SUM(M19:M21)</f>
         <v>120</v>
@@ -33295,10 +33307,10 @@
         <f>SUM(D20:D22)</f>
         <v>0</v>
       </c>
-      <c r="G23" s="47" t="s">
+      <c r="G23" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="H23" s="48"/>
+      <c r="H23" s="52"/>
       <c r="I23" s="7">
         <f>SUM(I12:I22)</f>
         <v>1140</v>
@@ -33323,7 +33335,7 @@
       <c r="D26" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="G26" s="51" t="s">
+      <c r="G26" s="49" t="s">
         <v>19</v>
       </c>
       <c r="H26" s="4" t="s">
@@ -33345,7 +33357,7 @@
       <c r="D27" s="17">
         <v>0</v>
       </c>
-      <c r="G27" s="52"/>
+      <c r="G27" s="50"/>
       <c r="H27" s="3" t="s">
         <v>51</v>
       </c>
@@ -33365,7 +33377,7 @@
       <c r="D28" s="17">
         <v>0</v>
       </c>
-      <c r="G28" s="52"/>
+      <c r="G28" s="50"/>
       <c r="H28" s="6" t="s">
         <v>17</v>
       </c>
@@ -33385,10 +33397,10 @@
       <c r="D29" s="17">
         <v>0</v>
       </c>
-      <c r="G29" s="47" t="s">
+      <c r="G29" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="H29" s="48"/>
+      <c r="H29" s="52"/>
       <c r="I29" s="7">
         <f>SUM(I26:I28)</f>
         <v>0</v>
@@ -33519,8 +33531,8 @@
       <c r="J51" s="9"/>
     </row>
     <row r="52" spans="8:10" ht="15.75">
-      <c r="H52" s="49"/>
-      <c r="I52" s="50"/>
+      <c r="H52" s="47"/>
+      <c r="I52" s="48"/>
       <c r="J52" s="10"/>
     </row>
   </sheetData>
@@ -33563,8 +33575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:M52"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView showGridLines="0" topLeftCell="A8" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19:M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -33593,7 +33605,7 @@
       </c>
       <c r="C2" s="38">
         <f>D16+D23+D30</f>
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="F2" s="35"/>
     </row>
@@ -33604,17 +33616,17 @@
       </c>
       <c r="C3" s="37">
         <f>I23+I29+M22+M29+M15</f>
-        <v>2060</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="19.5" thickBot="1">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="48"/>
+      <c r="B4" s="52"/>
       <c r="C4" s="40">
         <f>C2-C3</f>
-        <v>2440</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="197.25" customHeight="1"/>
@@ -33632,23 +33644,23 @@
       <c r="D12" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="G12" s="51" t="s">
+      <c r="G12" s="49" t="s">
         <v>7</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>8</v>
       </c>
       <c r="I12" s="5">
-        <v>500</v>
-      </c>
-      <c r="K12" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="K12" s="49" t="s">
         <v>21</v>
       </c>
       <c r="L12" s="4" t="s">
         <v>22</v>
       </c>
       <c r="M12" s="5">
-        <v>300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="16.5" thickBot="1">
@@ -33658,21 +33670,21 @@
         <v>1</v>
       </c>
       <c r="D13" s="17">
-        <v>2000</v>
-      </c>
-      <c r="G13" s="52"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="50"/>
       <c r="H13" s="3" t="s">
         <v>9</v>
       </c>
       <c r="I13" s="5">
-        <v>520</v>
-      </c>
-      <c r="K13" s="52"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="50"/>
       <c r="L13" s="3" t="s">
         <v>50</v>
       </c>
       <c r="M13" s="5">
-        <v>500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="16.5" thickBot="1">
@@ -33682,16 +33694,16 @@
         <v>2</v>
       </c>
       <c r="D14" s="17">
-        <v>1000</v>
-      </c>
-      <c r="G14" s="52"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="50"/>
       <c r="H14" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I14" s="5">
-        <v>120</v>
-      </c>
-      <c r="K14" s="52"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="50"/>
       <c r="L14" s="6" t="s">
         <v>17</v>
       </c>
@@ -33706,22 +33718,22 @@
         <v>3</v>
       </c>
       <c r="D15" s="17">
-        <v>1500</v>
-      </c>
-      <c r="G15" s="52"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="50"/>
       <c r="H15" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I15" s="5">
         <v>0</v>
       </c>
-      <c r="K15" s="47" t="s">
+      <c r="K15" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="L15" s="48"/>
+      <c r="L15" s="52"/>
       <c r="M15" s="7">
         <f>SUM(M12:M14)</f>
-        <v>800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="16.5" thickBot="1">
@@ -33732,9 +33744,9 @@
       </c>
       <c r="D16" s="12">
         <f>SUM(D13:D15)</f>
-        <v>4500</v>
-      </c>
-      <c r="G16" s="52"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="50"/>
       <c r="H16" s="3" t="s">
         <v>12</v>
       </c>
@@ -33745,7 +33757,7 @@
     <row r="17" spans="1:13" ht="16.5" thickBot="1">
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
-      <c r="G17" s="52"/>
+      <c r="G17" s="50"/>
       <c r="H17" s="3" t="s">
         <v>13</v>
       </c>
@@ -33756,7 +33768,7 @@
     <row r="18" spans="1:13" ht="16.5" thickBot="1">
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
-      <c r="G18" s="52"/>
+      <c r="G18" s="50"/>
       <c r="H18" s="3" t="s">
         <v>14</v>
       </c>
@@ -33775,21 +33787,21 @@
       <c r="D19" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="G19" s="52"/>
+      <c r="G19" s="50"/>
       <c r="H19" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I19" s="5">
         <v>0</v>
       </c>
-      <c r="K19" s="51" t="s">
+      <c r="K19" s="49" t="s">
         <v>23</v>
       </c>
       <c r="L19" s="4" t="s">
         <v>24</v>
       </c>
       <c r="M19" s="5">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
@@ -33801,19 +33813,19 @@
       <c r="D20" s="17">
         <v>0</v>
       </c>
-      <c r="G20" s="52"/>
+      <c r="G20" s="50"/>
       <c r="H20" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I20" s="5">
         <v>0</v>
       </c>
-      <c r="K20" s="52"/>
+      <c r="K20" s="50"/>
       <c r="L20" s="3" t="s">
         <v>25</v>
       </c>
       <c r="M20" s="5">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="16.5" customHeight="1" thickBot="1">
@@ -33825,14 +33837,14 @@
       <c r="D21" s="17">
         <v>0</v>
       </c>
-      <c r="G21" s="52"/>
+      <c r="G21" s="50"/>
       <c r="H21" s="3" t="s">
         <v>16</v>
       </c>
       <c r="I21" s="5">
         <v>0</v>
       </c>
-      <c r="K21" s="52"/>
+      <c r="K21" s="50"/>
       <c r="L21" s="6" t="s">
         <v>26</v>
       </c>
@@ -33849,20 +33861,20 @@
       <c r="D22" s="17">
         <v>0</v>
       </c>
-      <c r="G22" s="52"/>
+      <c r="G22" s="50"/>
       <c r="H22" s="6" t="s">
         <v>17</v>
       </c>
       <c r="I22" s="5">
         <v>0</v>
       </c>
-      <c r="K22" s="47" t="s">
+      <c r="K22" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="L22" s="48"/>
+      <c r="L22" s="52"/>
       <c r="M22" s="7">
         <f>SUM(M19:M21)</f>
-        <v>120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="16.5" thickBot="1">
@@ -33875,13 +33887,13 @@
         <f>SUM(D20:D22)</f>
         <v>0</v>
       </c>
-      <c r="G23" s="47" t="s">
+      <c r="G23" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="H23" s="48"/>
+      <c r="H23" s="52"/>
       <c r="I23" s="7">
         <f>SUM(I12:I22)</f>
-        <v>1140</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="15.75">
@@ -33903,7 +33915,7 @@
       <c r="D26" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="G26" s="51" t="s">
+      <c r="G26" s="49" t="s">
         <v>19</v>
       </c>
       <c r="H26" s="4" t="s">
@@ -33925,7 +33937,7 @@
       <c r="D27" s="17">
         <v>0</v>
       </c>
-      <c r="G27" s="52"/>
+      <c r="G27" s="50"/>
       <c r="H27" s="3" t="s">
         <v>51</v>
       </c>
@@ -33945,7 +33957,7 @@
       <c r="D28" s="17">
         <v>0</v>
       </c>
-      <c r="G28" s="52"/>
+      <c r="G28" s="50"/>
       <c r="H28" s="6" t="s">
         <v>17</v>
       </c>
@@ -33965,10 +33977,10 @@
       <c r="D29" s="17">
         <v>0</v>
       </c>
-      <c r="G29" s="47" t="s">
+      <c r="G29" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="H29" s="48"/>
+      <c r="H29" s="52"/>
       <c r="I29" s="7">
         <f>SUM(I26:I28)</f>
         <v>0</v>
@@ -33997,11 +34009,11 @@
       </c>
       <c r="H32" s="16">
         <f>MAX(I12:I22)</f>
-        <v>520</v>
+        <v>0</v>
       </c>
       <c r="I32" s="15" t="str">
         <f>INDEX(H12:I22,MATCH(H32,I12:I22,0),1)</f>
-        <v>Condomínio</v>
+        <v>Aluguel</v>
       </c>
     </row>
     <row r="33" spans="7:10">
@@ -34010,11 +34022,11 @@
       </c>
       <c r="H33" s="16">
         <f>MAX(M12:M14)</f>
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="I33" s="15" t="str">
         <f>INDEX(L12:M14,MATCH(H33,M12:M14,0),1)</f>
-        <v>Manutenção</v>
+        <v>IPVA</v>
       </c>
     </row>
     <row r="34" spans="7:10">
@@ -34036,11 +34048,11 @@
       </c>
       <c r="H35" s="16">
         <f>MAX(M19:M21)</f>
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="I35" s="15" t="str">
         <f>INDEX(L19:M21,MATCH(H35,M19:M21,0),1)</f>
-        <v>Lanches</v>
+        <v>Cinema</v>
       </c>
     </row>
     <row r="41" spans="7:10" ht="15.75">
@@ -34099,8 +34111,8 @@
       <c r="J51" s="9"/>
     </row>
     <row r="52" spans="8:10" ht="15.75">
-      <c r="H52" s="49"/>
-      <c r="I52" s="50"/>
+      <c r="H52" s="47"/>
+      <c r="I52" s="48"/>
       <c r="J52" s="10"/>
     </row>
   </sheetData>
@@ -34143,8 +34155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:M52"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView showGridLines="0" topLeftCell="A5" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -34173,7 +34185,7 @@
       </c>
       <c r="C2" s="38">
         <f>D16+D23+D30</f>
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="F2" s="35"/>
     </row>
@@ -34184,17 +34196,17 @@
       </c>
       <c r="C3" s="37">
         <f>I23+I29+M22+M29+M15</f>
-        <v>2060</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="19.5" thickBot="1">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="48"/>
+      <c r="B4" s="52"/>
       <c r="C4" s="40">
         <f>C2-C3</f>
-        <v>2440</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="197.25" customHeight="1"/>
@@ -34212,23 +34224,23 @@
       <c r="D12" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="G12" s="51" t="s">
+      <c r="G12" s="49" t="s">
         <v>7</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>8</v>
       </c>
       <c r="I12" s="5">
-        <v>500</v>
-      </c>
-      <c r="K12" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="K12" s="49" t="s">
         <v>21</v>
       </c>
       <c r="L12" s="4" t="s">
         <v>22</v>
       </c>
       <c r="M12" s="5">
-        <v>300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="16.5" thickBot="1">
@@ -34238,21 +34250,21 @@
         <v>1</v>
       </c>
       <c r="D13" s="17">
-        <v>2000</v>
-      </c>
-      <c r="G13" s="52"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="50"/>
       <c r="H13" s="3" t="s">
         <v>9</v>
       </c>
       <c r="I13" s="5">
-        <v>520</v>
-      </c>
-      <c r="K13" s="52"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="50"/>
       <c r="L13" s="3" t="s">
         <v>50</v>
       </c>
       <c r="M13" s="5">
-        <v>500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="16.5" thickBot="1">
@@ -34262,16 +34274,16 @@
         <v>2</v>
       </c>
       <c r="D14" s="17">
-        <v>1000</v>
-      </c>
-      <c r="G14" s="52"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="50"/>
       <c r="H14" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I14" s="5">
-        <v>120</v>
-      </c>
-      <c r="K14" s="52"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="50"/>
       <c r="L14" s="6" t="s">
         <v>17</v>
       </c>
@@ -34286,22 +34298,22 @@
         <v>3</v>
       </c>
       <c r="D15" s="17">
-        <v>1500</v>
-      </c>
-      <c r="G15" s="52"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="50"/>
       <c r="H15" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I15" s="5">
         <v>0</v>
       </c>
-      <c r="K15" s="47" t="s">
+      <c r="K15" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="L15" s="48"/>
+      <c r="L15" s="52"/>
       <c r="M15" s="7">
         <f>SUM(M12:M14)</f>
-        <v>800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="16.5" thickBot="1">
@@ -34312,9 +34324,9 @@
       </c>
       <c r="D16" s="12">
         <f>SUM(D13:D15)</f>
-        <v>4500</v>
-      </c>
-      <c r="G16" s="52"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="50"/>
       <c r="H16" s="3" t="s">
         <v>12</v>
       </c>
@@ -34325,7 +34337,7 @@
     <row r="17" spans="1:13" ht="16.5" thickBot="1">
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
-      <c r="G17" s="52"/>
+      <c r="G17" s="50"/>
       <c r="H17" s="3" t="s">
         <v>13</v>
       </c>
@@ -34336,7 +34348,7 @@
     <row r="18" spans="1:13" ht="16.5" thickBot="1">
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
-      <c r="G18" s="52"/>
+      <c r="G18" s="50"/>
       <c r="H18" s="3" t="s">
         <v>14</v>
       </c>
@@ -34355,21 +34367,21 @@
       <c r="D19" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="G19" s="52"/>
+      <c r="G19" s="50"/>
       <c r="H19" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I19" s="5">
         <v>0</v>
       </c>
-      <c r="K19" s="51" t="s">
+      <c r="K19" s="49" t="s">
         <v>23</v>
       </c>
       <c r="L19" s="4" t="s">
         <v>24</v>
       </c>
       <c r="M19" s="5">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
@@ -34381,19 +34393,19 @@
       <c r="D20" s="17">
         <v>0</v>
       </c>
-      <c r="G20" s="52"/>
+      <c r="G20" s="50"/>
       <c r="H20" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I20" s="5">
         <v>0</v>
       </c>
-      <c r="K20" s="52"/>
+      <c r="K20" s="50"/>
       <c r="L20" s="3" t="s">
         <v>25</v>
       </c>
       <c r="M20" s="5">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="16.5" customHeight="1" thickBot="1">
@@ -34405,14 +34417,14 @@
       <c r="D21" s="17">
         <v>0</v>
       </c>
-      <c r="G21" s="52"/>
+      <c r="G21" s="50"/>
       <c r="H21" s="3" t="s">
         <v>16</v>
       </c>
       <c r="I21" s="5">
         <v>0</v>
       </c>
-      <c r="K21" s="52"/>
+      <c r="K21" s="50"/>
       <c r="L21" s="6" t="s">
         <v>26</v>
       </c>
@@ -34429,20 +34441,20 @@
       <c r="D22" s="17">
         <v>0</v>
       </c>
-      <c r="G22" s="52"/>
+      <c r="G22" s="50"/>
       <c r="H22" s="6" t="s">
         <v>17</v>
       </c>
       <c r="I22" s="5">
         <v>0</v>
       </c>
-      <c r="K22" s="47" t="s">
+      <c r="K22" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="L22" s="48"/>
+      <c r="L22" s="52"/>
       <c r="M22" s="7">
         <f>SUM(M19:M21)</f>
-        <v>120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="16.5" thickBot="1">
@@ -34455,13 +34467,13 @@
         <f>SUM(D20:D22)</f>
         <v>0</v>
       </c>
-      <c r="G23" s="47" t="s">
+      <c r="G23" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="H23" s="48"/>
+      <c r="H23" s="52"/>
       <c r="I23" s="7">
         <f>SUM(I12:I22)</f>
-        <v>1140</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="15.75">
@@ -34483,7 +34495,7 @@
       <c r="D26" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="G26" s="51" t="s">
+      <c r="G26" s="49" t="s">
         <v>19</v>
       </c>
       <c r="H26" s="4" t="s">
@@ -34505,7 +34517,7 @@
       <c r="D27" s="17">
         <v>0</v>
       </c>
-      <c r="G27" s="52"/>
+      <c r="G27" s="50"/>
       <c r="H27" s="3" t="s">
         <v>51</v>
       </c>
@@ -34525,7 +34537,7 @@
       <c r="D28" s="17">
         <v>0</v>
       </c>
-      <c r="G28" s="52"/>
+      <c r="G28" s="50"/>
       <c r="H28" s="6" t="s">
         <v>17</v>
       </c>
@@ -34545,10 +34557,10 @@
       <c r="D29" s="17">
         <v>0</v>
       </c>
-      <c r="G29" s="47" t="s">
+      <c r="G29" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="H29" s="48"/>
+      <c r="H29" s="52"/>
       <c r="I29" s="7">
         <f>SUM(I26:I28)</f>
         <v>0</v>
@@ -34577,11 +34589,11 @@
       </c>
       <c r="H32" s="16">
         <f>MAX(I12:I22)</f>
-        <v>520</v>
+        <v>0</v>
       </c>
       <c r="I32" s="15" t="str">
         <f>INDEX(H12:I22,MATCH(H32,I12:I22,0),1)</f>
-        <v>Condomínio</v>
+        <v>Aluguel</v>
       </c>
     </row>
     <row r="33" spans="7:10">
@@ -34590,11 +34602,11 @@
       </c>
       <c r="H33" s="16">
         <f>MAX(M12:M14)</f>
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="I33" s="15" t="str">
         <f>INDEX(L12:M14,MATCH(H33,M12:M14,0),1)</f>
-        <v>Manutenção</v>
+        <v>IPVA</v>
       </c>
     </row>
     <row r="34" spans="7:10">
@@ -34616,11 +34628,11 @@
       </c>
       <c r="H35" s="16">
         <f>MAX(M19:M21)</f>
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="I35" s="15" t="str">
         <f>INDEX(L19:M21,MATCH(H35,M19:M21,0),1)</f>
-        <v>Lanches</v>
+        <v>Cinema</v>
       </c>
     </row>
     <row r="41" spans="7:10" ht="15.75">
@@ -34679,8 +34691,8 @@
       <c r="J51" s="9"/>
     </row>
     <row r="52" spans="8:10" ht="15.75">
-      <c r="H52" s="49"/>
-      <c r="I52" s="50"/>
+      <c r="H52" s="47"/>
+      <c r="I52" s="48"/>
       <c r="J52" s="10"/>
     </row>
   </sheetData>

--- a/Planilha Controle(Instagram)/Planilha controle(final).xlsx
+++ b/Planilha Controle(Instagram)/Planilha controle(final).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T-Gamer\Documents\Desenvolvimento 2022\Excel Estudos\Planilha Controle(Instagram)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53457B33-9D23-4D90-B52F-699AC6FD043F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C96B1ABE-6E57-497F-AE6C-23C478E7BF6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Menu" sheetId="16" r:id="rId1"/>
@@ -57,9 +57,6 @@
   </si>
   <si>
     <t>Pessoa 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13º </t>
   </si>
   <si>
     <t>Total</t>
@@ -230,6 +227,9 @@
   </si>
   <si>
     <t xml:space="preserve">Renda Extra </t>
+  </si>
+  <si>
+    <t>Renda Passiva</t>
   </si>
 </sst>
 </file>
@@ -851,12 +851,6 @@
     <xf numFmtId="44" fontId="0" fillId="10" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -865,6 +859,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4551,7 +4551,7 @@
                   <c:v>1400</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2440</c:v>
+                  <c:v>4500</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -4563,7 +4563,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-120</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -5890,7 +5890,7 @@
                   <c:v>4500</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2060</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6114,16 +6114,16 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Condomínio</c:v>
+                  <c:v>Aluguel</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Manutenção</c:v>
+                  <c:v>IPVA</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Remédios</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Lanches</c:v>
+                  <c:v>Cinema</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6135,16 +6135,16 @@
                 <c:formatCode>"R$"\ #,##0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>520</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>500</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>70</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6206,16 +6206,16 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Condomínio</c:v>
+                  <c:v>Aluguel</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Manutenção</c:v>
+                  <c:v>IPVA</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Remédios</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Lanches</c:v>
+                  <c:v>Cinema</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8099,7 +8099,7 @@
                 <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>5030</c:v>
+                  <c:v>2850</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>10900</c:v>
@@ -8750,7 +8750,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>120</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8983,7 +8983,7 @@
                   <c:v>Remédios</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Lanches</c:v>
+                  <c:v>Cinema</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9004,7 +9004,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>70</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9075,7 +9075,7 @@
                   <c:v>Remédios</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Lanches</c:v>
+                  <c:v>Cinema</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10731,7 +10731,7 @@
                   <c:v>1400</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2440</c:v>
+                  <c:v>4500</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -10743,7 +10743,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-120</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -18327,8 +18327,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2780111" y="1321594"/>
-          <a:ext cx="4537634" cy="2389671"/>
+          <a:off x="2782506" y="1322962"/>
+          <a:ext cx="4536950" cy="2396514"/>
           <a:chOff x="2275548" y="1272226"/>
           <a:chExt cx="4519726" cy="2293841"/>
         </a:xfrm>
@@ -18433,8 +18433,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7548648" y="1327112"/>
-          <a:ext cx="7103784" cy="2970754"/>
+          <a:off x="7548990" y="1328480"/>
+          <a:ext cx="7118495" cy="2985808"/>
           <a:chOff x="7025208" y="1277744"/>
           <a:chExt cx="6675830" cy="2693456"/>
         </a:xfrm>
@@ -26670,7 +26670,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A6" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
       <selection activeCell="Y26" sqref="Y26"/>
     </sheetView>
   </sheetViews>
@@ -27503,7 +27503,7 @@
   <dimension ref="A1:M52"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A7" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19:M21"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -27525,10 +27525,10 @@
     <row r="1" spans="1:13" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:13" ht="18.75">
       <c r="A2" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="36" t="s">
         <v>28</v>
-      </c>
-      <c r="B2" s="36" t="s">
-        <v>29</v>
       </c>
       <c r="C2" s="38">
         <f>D16+D23+D30</f>
@@ -27539,7 +27539,7 @@
     <row r="3" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
       <c r="A3" s="28"/>
       <c r="B3" s="39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" s="37">
         <f>I23+I29+M22+M29+M15</f>
@@ -27547,10 +27547,10 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="19.5" thickBot="1">
-      <c r="A4" s="51" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="52"/>
+      <c r="A4" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="50"/>
       <c r="C4" s="40">
         <f>C2-C3</f>
         <v>0</v>
@@ -27566,25 +27566,25 @@
       </c>
       <c r="B12" s="56"/>
       <c r="C12" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" s="49" t="s">
+      <c r="G12" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="I12" s="5">
         <v>0</v>
       </c>
-      <c r="K12" s="49" t="s">
+      <c r="K12" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="M12" s="5">
         <v>0</v>
@@ -27599,16 +27599,16 @@
       <c r="D13" s="17">
         <v>0</v>
       </c>
-      <c r="G13" s="50"/>
+      <c r="G13" s="48"/>
       <c r="H13" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I13" s="5">
         <v>0</v>
       </c>
-      <c r="K13" s="50"/>
+      <c r="K13" s="48"/>
       <c r="L13" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M13" s="5">
         <v>0</v>
@@ -27623,16 +27623,16 @@
       <c r="D14" s="17">
         <v>0</v>
       </c>
-      <c r="G14" s="50"/>
+      <c r="G14" s="48"/>
       <c r="H14" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I14" s="5">
         <v>0</v>
       </c>
-      <c r="K14" s="50"/>
+      <c r="K14" s="48"/>
       <c r="L14" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M14" s="5">
         <v>0</v>
@@ -27647,17 +27647,17 @@
       <c r="D15" s="17">
         <v>0</v>
       </c>
-      <c r="G15" s="50"/>
+      <c r="G15" s="48"/>
       <c r="H15" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I15" s="5">
         <v>0</v>
       </c>
-      <c r="K15" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="L15" s="52"/>
+      <c r="K15" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="L15" s="50"/>
       <c r="M15" s="7">
         <f>SUM(M12:M14)</f>
         <v>0</v>
@@ -27667,15 +27667,15 @@
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" s="12">
         <f>SUM(D13:D15)</f>
         <v>0</v>
       </c>
-      <c r="G16" s="50"/>
+      <c r="G16" s="48"/>
       <c r="H16" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I16" s="5">
         <v>0</v>
@@ -27684,9 +27684,9 @@
     <row r="17" spans="1:13" ht="16.5" thickBot="1">
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
-      <c r="G17" s="50"/>
+      <c r="G17" s="48"/>
       <c r="H17" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I17" s="5">
         <v>0</v>
@@ -27695,9 +27695,9 @@
     <row r="18" spans="1:13" ht="16.5" thickBot="1">
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
-      <c r="G18" s="50"/>
+      <c r="G18" s="48"/>
       <c r="H18" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I18" s="5">
         <v>0</v>
@@ -27705,27 +27705,27 @@
     </row>
     <row r="19" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
       <c r="A19" s="55" t="s">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="B19" s="56"/>
       <c r="C19" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="G19" s="50"/>
+      <c r="G19" s="48"/>
       <c r="H19" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I19" s="5">
         <v>0</v>
       </c>
-      <c r="K19" s="49" t="s">
+      <c r="K19" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="L19" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="L19" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="M19" s="5">
         <v>0</v>
@@ -27740,16 +27740,16 @@
       <c r="D20" s="17">
         <v>0</v>
       </c>
-      <c r="G20" s="50"/>
+      <c r="G20" s="48"/>
       <c r="H20" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I20" s="5">
         <v>0</v>
       </c>
-      <c r="K20" s="50"/>
+      <c r="K20" s="48"/>
       <c r="L20" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M20" s="5">
         <v>0</v>
@@ -27764,16 +27764,16 @@
       <c r="D21" s="17">
         <v>0</v>
       </c>
-      <c r="G21" s="50"/>
+      <c r="G21" s="48"/>
       <c r="H21" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I21" s="5">
         <v>0</v>
       </c>
-      <c r="K21" s="50"/>
+      <c r="K21" s="48"/>
       <c r="L21" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M21" s="5">
         <v>0</v>
@@ -27788,17 +27788,17 @@
       <c r="D22" s="17">
         <v>0</v>
       </c>
-      <c r="G22" s="50"/>
+      <c r="G22" s="48"/>
       <c r="H22" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" s="5">
+        <v>0</v>
+      </c>
+      <c r="K22" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="I22" s="5">
-        <v>0</v>
-      </c>
-      <c r="K22" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="L22" s="52"/>
+      <c r="L22" s="50"/>
       <c r="M22" s="7">
         <f>SUM(M19:M21)</f>
         <v>0</v>
@@ -27808,16 +27808,16 @@
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" s="12">
         <f>SUM(D20:D22)</f>
         <v>0</v>
       </c>
-      <c r="G23" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="H23" s="52"/>
+      <c r="G23" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" s="50"/>
       <c r="I23" s="7">
         <f>SUM(I12:I22)</f>
         <v>0</v>
@@ -27833,20 +27833,20 @@
     </row>
     <row r="26" spans="1:13" ht="16.5" customHeight="1" thickBot="1">
       <c r="A26" s="55" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B26" s="61"/>
       <c r="C26" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="G26" s="49" t="s">
+      <c r="G26" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="H26" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>20</v>
       </c>
       <c r="I26" s="5">
         <v>0</v>
@@ -27864,9 +27864,9 @@
       <c r="D27" s="17">
         <v>0</v>
       </c>
-      <c r="G27" s="50"/>
+      <c r="G27" s="48"/>
       <c r="H27" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I27" s="5">
         <v>0</v>
@@ -27884,9 +27884,9 @@
       <c r="D28" s="17">
         <v>0</v>
       </c>
-      <c r="G28" s="50"/>
+      <c r="G28" s="48"/>
       <c r="H28" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I28" s="5">
         <v>0</v>
@@ -27904,10 +27904,10 @@
       <c r="D29" s="17">
         <v>0</v>
       </c>
-      <c r="G29" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="H29" s="52"/>
+      <c r="G29" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="H29" s="50"/>
       <c r="I29" s="7">
         <f>SUM(I26:I28)</f>
         <v>0</v>
@@ -27920,7 +27920,7 @@
       <c r="A30" s="1"/>
       <c r="B30" s="2"/>
       <c r="C30" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" s="12">
         <f>SUM(D26:D29)</f>
@@ -27932,7 +27932,7 @@
     </row>
     <row r="32" spans="1:13">
       <c r="G32" s="15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H32" s="16">
         <f>MAX(I12:I22)</f>
@@ -27945,7 +27945,7 @@
     </row>
     <row r="33" spans="7:10">
       <c r="G33" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H33" s="16">
         <f>MAX(M12:M14)</f>
@@ -27958,7 +27958,7 @@
     </row>
     <row r="34" spans="7:10">
       <c r="G34" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H34" s="16">
         <f>MAX(I26:I28)</f>
@@ -27971,7 +27971,7 @@
     </row>
     <row r="35" spans="7:10">
       <c r="G35" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H35" s="16">
         <f>MAX(M19:M21)</f>
@@ -28038,8 +28038,8 @@
       <c r="J51" s="9"/>
     </row>
     <row r="52" spans="8:10" ht="15.75">
-      <c r="H52" s="47"/>
-      <c r="I52" s="48"/>
+      <c r="H52" s="51"/>
+      <c r="I52" s="52"/>
       <c r="J52" s="10"/>
     </row>
   </sheetData>
@@ -28082,8 +28082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:M52"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A12" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12:M14"/>
+    <sheetView showGridLines="0" topLeftCell="A15" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -28105,10 +28105,10 @@
     <row r="1" spans="1:13" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:13" ht="18.75">
       <c r="A2" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="36" t="s">
         <v>28</v>
-      </c>
-      <c r="B2" s="36" t="s">
-        <v>29</v>
       </c>
       <c r="C2" s="38">
         <f>D16+D23+D30</f>
@@ -28119,21 +28119,21 @@
     <row r="3" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
       <c r="A3" s="28"/>
       <c r="B3" s="39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" s="37">
         <f>I23+I29+M22+M29+M15</f>
-        <v>120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="19.5" thickBot="1">
-      <c r="A4" s="51" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="52"/>
+      <c r="A4" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="50"/>
       <c r="C4" s="40">
         <f>C2-C3</f>
-        <v>-120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="197.25" customHeight="1"/>
@@ -28146,25 +28146,25 @@
       </c>
       <c r="B12" s="56"/>
       <c r="C12" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" s="49" t="s">
+      <c r="G12" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="I12" s="5">
         <v>0</v>
       </c>
-      <c r="K12" s="49" t="s">
+      <c r="K12" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="M12" s="5">
         <v>0</v>
@@ -28179,16 +28179,16 @@
       <c r="D13" s="17">
         <v>0</v>
       </c>
-      <c r="G13" s="50"/>
+      <c r="G13" s="48"/>
       <c r="H13" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I13" s="5">
         <v>0</v>
       </c>
-      <c r="K13" s="50"/>
+      <c r="K13" s="48"/>
       <c r="L13" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M13" s="5">
         <v>0</v>
@@ -28203,16 +28203,16 @@
       <c r="D14" s="17">
         <v>0</v>
       </c>
-      <c r="G14" s="50"/>
+      <c r="G14" s="48"/>
       <c r="H14" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I14" s="5">
         <v>0</v>
       </c>
-      <c r="K14" s="50"/>
+      <c r="K14" s="48"/>
       <c r="L14" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M14" s="5">
         <v>0</v>
@@ -28227,17 +28227,17 @@
       <c r="D15" s="17">
         <v>0</v>
       </c>
-      <c r="G15" s="50"/>
+      <c r="G15" s="48"/>
       <c r="H15" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I15" s="5">
         <v>0</v>
       </c>
-      <c r="K15" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="L15" s="52"/>
+      <c r="K15" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="L15" s="50"/>
       <c r="M15" s="7">
         <f>SUM(M12:M14)</f>
         <v>0</v>
@@ -28247,15 +28247,15 @@
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" s="12">
         <f>SUM(D13:D15)</f>
         <v>0</v>
       </c>
-      <c r="G16" s="50"/>
+      <c r="G16" s="48"/>
       <c r="H16" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I16" s="5">
         <v>0</v>
@@ -28264,9 +28264,9 @@
     <row r="17" spans="1:13" ht="16.5" thickBot="1">
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
-      <c r="G17" s="50"/>
+      <c r="G17" s="48"/>
       <c r="H17" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I17" s="5">
         <v>0</v>
@@ -28275,9 +28275,9 @@
     <row r="18" spans="1:13" ht="16.5" thickBot="1">
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
-      <c r="G18" s="50"/>
+      <c r="G18" s="48"/>
       <c r="H18" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I18" s="5">
         <v>0</v>
@@ -28285,30 +28285,30 @@
     </row>
     <row r="19" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
       <c r="A19" s="55" t="s">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="B19" s="56"/>
       <c r="C19" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="G19" s="50"/>
+      <c r="G19" s="48"/>
       <c r="H19" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I19" s="5">
         <v>0</v>
       </c>
-      <c r="K19" s="49" t="s">
+      <c r="K19" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="L19" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="L19" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="M19" s="5">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
@@ -28320,19 +28320,19 @@
       <c r="D20" s="17">
         <v>0</v>
       </c>
-      <c r="G20" s="50"/>
+      <c r="G20" s="48"/>
       <c r="H20" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I20" s="5">
         <v>0</v>
       </c>
-      <c r="K20" s="50"/>
+      <c r="K20" s="48"/>
       <c r="L20" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M20" s="5">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="16.5" customHeight="1" thickBot="1">
@@ -28344,16 +28344,16 @@
       <c r="D21" s="17">
         <v>0</v>
       </c>
-      <c r="G21" s="50"/>
+      <c r="G21" s="48"/>
       <c r="H21" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I21" s="5">
         <v>0</v>
       </c>
-      <c r="K21" s="50"/>
+      <c r="K21" s="48"/>
       <c r="L21" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M21" s="5">
         <v>0</v>
@@ -28368,36 +28368,36 @@
       <c r="D22" s="17">
         <v>0</v>
       </c>
-      <c r="G22" s="50"/>
+      <c r="G22" s="48"/>
       <c r="H22" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" s="5">
+        <v>0</v>
+      </c>
+      <c r="K22" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="I22" s="5">
-        <v>0</v>
-      </c>
-      <c r="K22" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="L22" s="52"/>
+      <c r="L22" s="50"/>
       <c r="M22" s="7">
         <f>SUM(M19:M21)</f>
-        <v>120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="16.5" thickBot="1">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" s="12">
         <f>SUM(D20:D22)</f>
         <v>0</v>
       </c>
-      <c r="G23" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="H23" s="52"/>
+      <c r="G23" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" s="50"/>
       <c r="I23" s="7">
         <f>SUM(I12:I22)</f>
         <v>0</v>
@@ -28413,20 +28413,20 @@
     </row>
     <row r="26" spans="1:13" ht="16.5" customHeight="1" thickBot="1">
       <c r="A26" s="55" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B26" s="61"/>
       <c r="C26" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="G26" s="49" t="s">
+      <c r="G26" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="H26" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>20</v>
       </c>
       <c r="I26" s="5">
         <v>0</v>
@@ -28444,9 +28444,9 @@
       <c r="D27" s="17">
         <v>0</v>
       </c>
-      <c r="G27" s="50"/>
+      <c r="G27" s="48"/>
       <c r="H27" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I27" s="5">
         <v>0</v>
@@ -28464,9 +28464,9 @@
       <c r="D28" s="17">
         <v>0</v>
       </c>
-      <c r="G28" s="50"/>
+      <c r="G28" s="48"/>
       <c r="H28" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I28" s="5">
         <v>0</v>
@@ -28484,10 +28484,10 @@
       <c r="D29" s="17">
         <v>0</v>
       </c>
-      <c r="G29" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="H29" s="52"/>
+      <c r="G29" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="H29" s="50"/>
       <c r="I29" s="7">
         <f>SUM(I26:I28)</f>
         <v>0</v>
@@ -28500,7 +28500,7 @@
       <c r="A30" s="1"/>
       <c r="B30" s="2"/>
       <c r="C30" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" s="12">
         <f>SUM(D26:D29)</f>
@@ -28512,7 +28512,7 @@
     </row>
     <row r="32" spans="1:13">
       <c r="G32" s="15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H32" s="16">
         <f>MAX(I12:I22)</f>
@@ -28525,7 +28525,7 @@
     </row>
     <row r="33" spans="7:10">
       <c r="G33" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H33" s="16">
         <f>MAX(M12:M14)</f>
@@ -28538,7 +28538,7 @@
     </row>
     <row r="34" spans="7:10">
       <c r="G34" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H34" s="16">
         <f>MAX(I26:I28)</f>
@@ -28551,15 +28551,15 @@
     </row>
     <row r="35" spans="7:10">
       <c r="G35" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H35" s="16">
         <f>MAX(M19:M21)</f>
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="I35" s="15" t="str">
         <f>INDEX(L19:M21,MATCH(H35,M19:M21,0),1)</f>
-        <v>Lanches</v>
+        <v>Cinema</v>
       </c>
     </row>
     <row r="41" spans="7:10" ht="15.75">
@@ -28618,8 +28618,8 @@
       <c r="J51" s="9"/>
     </row>
     <row r="52" spans="8:10" ht="15.75">
-      <c r="H52" s="47"/>
-      <c r="I52" s="48"/>
+      <c r="H52" s="51"/>
+      <c r="I52" s="52"/>
       <c r="J52" s="10"/>
     </row>
   </sheetData>
@@ -28663,7 +28663,7 @@
   <dimension ref="A1:M52"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A8" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13:D15"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -28685,10 +28685,10 @@
     <row r="1" spans="1:13" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:13" ht="18.75">
       <c r="A2" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="36" t="s">
         <v>28</v>
-      </c>
-      <c r="B2" s="36" t="s">
-        <v>29</v>
       </c>
       <c r="C2" s="38">
         <f>D16+D23+D30</f>
@@ -28699,7 +28699,7 @@
     <row r="3" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
       <c r="A3" s="28"/>
       <c r="B3" s="39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" s="37">
         <f>I23+I29+M22+M29+M15</f>
@@ -28707,10 +28707,10 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="19.5" thickBot="1">
-      <c r="A4" s="51" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="52"/>
+      <c r="A4" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="50"/>
       <c r="C4" s="40">
         <f>C2-C3</f>
         <v>0</v>
@@ -28726,25 +28726,25 @@
       </c>
       <c r="B12" s="56"/>
       <c r="C12" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" s="49" t="s">
+      <c r="G12" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="I12" s="5">
         <v>0</v>
       </c>
-      <c r="K12" s="49" t="s">
+      <c r="K12" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="M12" s="5">
         <v>0</v>
@@ -28759,16 +28759,16 @@
       <c r="D13" s="17">
         <v>0</v>
       </c>
-      <c r="G13" s="50"/>
+      <c r="G13" s="48"/>
       <c r="H13" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I13" s="5">
         <v>0</v>
       </c>
-      <c r="K13" s="50"/>
+      <c r="K13" s="48"/>
       <c r="L13" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M13" s="5">
         <v>0</v>
@@ -28783,16 +28783,16 @@
       <c r="D14" s="17">
         <v>0</v>
       </c>
-      <c r="G14" s="50"/>
+      <c r="G14" s="48"/>
       <c r="H14" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I14" s="5">
         <v>0</v>
       </c>
-      <c r="K14" s="50"/>
+      <c r="K14" s="48"/>
       <c r="L14" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M14" s="5">
         <v>0</v>
@@ -28807,17 +28807,17 @@
       <c r="D15" s="17">
         <v>0</v>
       </c>
-      <c r="G15" s="50"/>
+      <c r="G15" s="48"/>
       <c r="H15" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I15" s="5">
         <v>0</v>
       </c>
-      <c r="K15" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="L15" s="52"/>
+      <c r="K15" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="L15" s="50"/>
       <c r="M15" s="7">
         <f>SUM(M12:M14)</f>
         <v>0</v>
@@ -28827,15 +28827,15 @@
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" s="12">
         <f>SUM(D13:D15)</f>
         <v>0</v>
       </c>
-      <c r="G16" s="50"/>
+      <c r="G16" s="48"/>
       <c r="H16" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I16" s="5">
         <v>0</v>
@@ -28844,9 +28844,9 @@
     <row r="17" spans="1:13" ht="16.5" thickBot="1">
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
-      <c r="G17" s="50"/>
+      <c r="G17" s="48"/>
       <c r="H17" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I17" s="5">
         <v>0</v>
@@ -28855,9 +28855,9 @@
     <row r="18" spans="1:13" ht="16.5" thickBot="1">
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
-      <c r="G18" s="50"/>
+      <c r="G18" s="48"/>
       <c r="H18" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I18" s="5">
         <v>0</v>
@@ -28865,27 +28865,27 @@
     </row>
     <row r="19" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
       <c r="A19" s="55" t="s">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="B19" s="56"/>
       <c r="C19" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="G19" s="50"/>
+      <c r="G19" s="48"/>
       <c r="H19" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I19" s="5">
         <v>0</v>
       </c>
-      <c r="K19" s="49" t="s">
+      <c r="K19" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="L19" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="L19" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="M19" s="5">
         <v>0</v>
@@ -28900,16 +28900,16 @@
       <c r="D20" s="17">
         <v>0</v>
       </c>
-      <c r="G20" s="50"/>
+      <c r="G20" s="48"/>
       <c r="H20" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I20" s="5">
         <v>0</v>
       </c>
-      <c r="K20" s="50"/>
+      <c r="K20" s="48"/>
       <c r="L20" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M20" s="5">
         <v>0</v>
@@ -28924,16 +28924,16 @@
       <c r="D21" s="17">
         <v>0</v>
       </c>
-      <c r="G21" s="50"/>
+      <c r="G21" s="48"/>
       <c r="H21" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I21" s="5">
         <v>0</v>
       </c>
-      <c r="K21" s="50"/>
+      <c r="K21" s="48"/>
       <c r="L21" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M21" s="5">
         <v>0</v>
@@ -28948,17 +28948,17 @@
       <c r="D22" s="17">
         <v>0</v>
       </c>
-      <c r="G22" s="50"/>
+      <c r="G22" s="48"/>
       <c r="H22" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" s="5">
+        <v>0</v>
+      </c>
+      <c r="K22" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="I22" s="5">
-        <v>0</v>
-      </c>
-      <c r="K22" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="L22" s="52"/>
+      <c r="L22" s="50"/>
       <c r="M22" s="7">
         <f>SUM(M19:M21)</f>
         <v>0</v>
@@ -28968,16 +28968,16 @@
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" s="12">
         <f>SUM(D20:D22)</f>
         <v>0</v>
       </c>
-      <c r="G23" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="H23" s="52"/>
+      <c r="G23" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" s="50"/>
       <c r="I23" s="7">
         <f>SUM(I12:I22)</f>
         <v>0</v>
@@ -28993,20 +28993,20 @@
     </row>
     <row r="26" spans="1:13" ht="16.5" customHeight="1" thickBot="1">
       <c r="A26" s="55" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B26" s="61"/>
       <c r="C26" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="G26" s="49" t="s">
+      <c r="G26" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="H26" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>20</v>
       </c>
       <c r="I26" s="5">
         <v>0</v>
@@ -29024,9 +29024,9 @@
       <c r="D27" s="17">
         <v>0</v>
       </c>
-      <c r="G27" s="50"/>
+      <c r="G27" s="48"/>
       <c r="H27" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I27" s="5">
         <v>0</v>
@@ -29044,9 +29044,9 @@
       <c r="D28" s="17">
         <v>0</v>
       </c>
-      <c r="G28" s="50"/>
+      <c r="G28" s="48"/>
       <c r="H28" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I28" s="5">
         <v>0</v>
@@ -29064,10 +29064,10 @@
       <c r="D29" s="17">
         <v>0</v>
       </c>
-      <c r="G29" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="H29" s="52"/>
+      <c r="G29" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="H29" s="50"/>
       <c r="I29" s="7">
         <f>SUM(I26:I28)</f>
         <v>0</v>
@@ -29080,7 +29080,7 @@
       <c r="A30" s="1"/>
       <c r="B30" s="2"/>
       <c r="C30" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" s="12">
         <f>SUM(D26:D29)</f>
@@ -29092,7 +29092,7 @@
     </row>
     <row r="32" spans="1:13">
       <c r="G32" s="15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H32" s="16">
         <f>MAX(I12:I22)</f>
@@ -29105,7 +29105,7 @@
     </row>
     <row r="33" spans="7:10">
       <c r="G33" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H33" s="16">
         <f>MAX(M12:M14)</f>
@@ -29118,7 +29118,7 @@
     </row>
     <row r="34" spans="7:10">
       <c r="G34" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H34" s="16">
         <f>MAX(I26:I28)</f>
@@ -29131,7 +29131,7 @@
     </row>
     <row r="35" spans="7:10">
       <c r="G35" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H35" s="16">
         <f>MAX(M19:M21)</f>
@@ -29198,8 +29198,8 @@
       <c r="J51" s="9"/>
     </row>
     <row r="52" spans="8:10" ht="15.75">
-      <c r="H52" s="47"/>
-      <c r="I52" s="48"/>
+      <c r="H52" s="51"/>
+      <c r="I52" s="52"/>
       <c r="J52" s="10"/>
     </row>
   </sheetData>
@@ -29242,8 +29242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:M52"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12:I22"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -29265,10 +29265,10 @@
     <row r="1" spans="1:13" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:13" ht="18.75">
       <c r="A2" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="36" t="s">
         <v>28</v>
-      </c>
-      <c r="B2" s="36" t="s">
-        <v>29</v>
       </c>
       <c r="C2" s="38">
         <f>D16+D23+D30</f>
@@ -29279,7 +29279,7 @@
     <row r="3" spans="1:13" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="28"/>
       <c r="B3" s="39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" s="37">
         <f>I23+I29+M22+M29+M15</f>
@@ -29287,10 +29287,10 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="19.5" thickBot="1">
-      <c r="A4" s="51" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="52"/>
+      <c r="A4" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="50"/>
       <c r="C4" s="40">
         <f>C2-C3</f>
         <v>0</v>
@@ -29306,25 +29306,25 @@
       </c>
       <c r="B12" s="56"/>
       <c r="C12" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" s="49" t="s">
+      <c r="G12" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="I12" s="5">
         <v>0</v>
       </c>
-      <c r="K12" s="49" t="s">
+      <c r="K12" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="M12" s="5">
         <v>0</v>
@@ -29339,16 +29339,16 @@
       <c r="D13" s="17">
         <v>0</v>
       </c>
-      <c r="G13" s="50"/>
+      <c r="G13" s="48"/>
       <c r="H13" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I13" s="5">
         <v>0</v>
       </c>
-      <c r="K13" s="50"/>
+      <c r="K13" s="48"/>
       <c r="L13" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M13" s="5">
         <v>0</v>
@@ -29363,16 +29363,16 @@
       <c r="D14" s="17">
         <v>0</v>
       </c>
-      <c r="G14" s="50"/>
+      <c r="G14" s="48"/>
       <c r="H14" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I14" s="5">
         <v>0</v>
       </c>
-      <c r="K14" s="50"/>
+      <c r="K14" s="48"/>
       <c r="L14" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M14" s="5">
         <v>0</v>
@@ -29387,17 +29387,17 @@
       <c r="D15" s="17">
         <v>0</v>
       </c>
-      <c r="G15" s="50"/>
+      <c r="G15" s="48"/>
       <c r="H15" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I15" s="5">
         <v>0</v>
       </c>
-      <c r="K15" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="L15" s="52"/>
+      <c r="K15" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="L15" s="50"/>
       <c r="M15" s="7">
         <f>SUM(M12:M14)</f>
         <v>0</v>
@@ -29407,15 +29407,15 @@
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" s="12">
         <f>SUM(D13:D15)</f>
         <v>0</v>
       </c>
-      <c r="G16" s="50"/>
+      <c r="G16" s="48"/>
       <c r="H16" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I16" s="5">
         <v>0</v>
@@ -29424,9 +29424,9 @@
     <row r="17" spans="1:13" ht="16.5" thickBot="1">
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
-      <c r="G17" s="50"/>
+      <c r="G17" s="48"/>
       <c r="H17" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I17" s="5">
         <v>0</v>
@@ -29435,9 +29435,9 @@
     <row r="18" spans="1:13" ht="16.5" thickBot="1">
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
-      <c r="G18" s="50"/>
+      <c r="G18" s="48"/>
       <c r="H18" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I18" s="5">
         <v>0</v>
@@ -29445,27 +29445,27 @@
     </row>
     <row r="19" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
       <c r="A19" s="55" t="s">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="B19" s="56"/>
       <c r="C19" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="G19" s="50"/>
+      <c r="G19" s="48"/>
       <c r="H19" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I19" s="5">
         <v>0</v>
       </c>
-      <c r="K19" s="49" t="s">
+      <c r="K19" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="L19" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="L19" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="M19" s="5">
         <v>0</v>
@@ -29480,16 +29480,16 @@
       <c r="D20" s="17">
         <v>0</v>
       </c>
-      <c r="G20" s="50"/>
+      <c r="G20" s="48"/>
       <c r="H20" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I20" s="5">
         <v>0</v>
       </c>
-      <c r="K20" s="50"/>
+      <c r="K20" s="48"/>
       <c r="L20" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M20" s="5">
         <v>0</v>
@@ -29504,16 +29504,16 @@
       <c r="D21" s="17">
         <v>0</v>
       </c>
-      <c r="G21" s="50"/>
+      <c r="G21" s="48"/>
       <c r="H21" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I21" s="5">
         <v>0</v>
       </c>
-      <c r="K21" s="50"/>
+      <c r="K21" s="48"/>
       <c r="L21" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M21" s="5">
         <v>0</v>
@@ -29528,17 +29528,17 @@
       <c r="D22" s="17">
         <v>0</v>
       </c>
-      <c r="G22" s="50"/>
+      <c r="G22" s="48"/>
       <c r="H22" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" s="5">
+        <v>0</v>
+      </c>
+      <c r="K22" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="I22" s="5">
-        <v>0</v>
-      </c>
-      <c r="K22" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="L22" s="52"/>
+      <c r="L22" s="50"/>
       <c r="M22" s="7">
         <f>SUM(M19:M21)</f>
         <v>0</v>
@@ -29548,16 +29548,16 @@
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" s="12">
         <f>SUM(D20:D22)</f>
         <v>0</v>
       </c>
-      <c r="G23" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="H23" s="52"/>
+      <c r="G23" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" s="50"/>
       <c r="I23" s="7">
         <f>SUM(I12:I22)</f>
         <v>0</v>
@@ -29573,20 +29573,20 @@
     </row>
     <row r="26" spans="1:13" ht="16.5" customHeight="1" thickBot="1">
       <c r="A26" s="55" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B26" s="61"/>
       <c r="C26" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="G26" s="49" t="s">
+      <c r="G26" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="H26" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>20</v>
       </c>
       <c r="I26" s="5">
         <v>0</v>
@@ -29604,9 +29604,9 @@
       <c r="D27" s="17">
         <v>0</v>
       </c>
-      <c r="G27" s="50"/>
+      <c r="G27" s="48"/>
       <c r="H27" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I27" s="5">
         <v>0</v>
@@ -29624,9 +29624,9 @@
       <c r="D28" s="17">
         <v>0</v>
       </c>
-      <c r="G28" s="50"/>
+      <c r="G28" s="48"/>
       <c r="H28" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I28" s="5">
         <v>0</v>
@@ -29644,10 +29644,10 @@
       <c r="D29" s="17">
         <v>0</v>
       </c>
-      <c r="G29" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="H29" s="52"/>
+      <c r="G29" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="H29" s="50"/>
       <c r="I29" s="7">
         <f>SUM(I26:I28)</f>
         <v>0</v>
@@ -29660,7 +29660,7 @@
       <c r="A30" s="1"/>
       <c r="B30" s="2"/>
       <c r="C30" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" s="12">
         <f>SUM(D26:D29)</f>
@@ -29672,7 +29672,7 @@
     </row>
     <row r="32" spans="1:13">
       <c r="G32" s="15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H32" s="16">
         <f>MAX(I12:I22)</f>
@@ -29685,7 +29685,7 @@
     </row>
     <row r="33" spans="7:10">
       <c r="G33" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H33" s="16">
         <f>MAX(M12:M14)</f>
@@ -29698,7 +29698,7 @@
     </row>
     <row r="34" spans="7:10">
       <c r="G34" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H34" s="16">
         <f>MAX(I26:I28)</f>
@@ -29711,7 +29711,7 @@
     </row>
     <row r="35" spans="7:10">
       <c r="G35" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H35" s="16">
         <f>MAX(M19:M21)</f>
@@ -29778,8 +29778,8 @@
       <c r="J51" s="9"/>
     </row>
     <row r="52" spans="8:10" ht="15.75">
-      <c r="H52" s="47"/>
-      <c r="I52" s="48"/>
+      <c r="H52" s="51"/>
+      <c r="I52" s="52"/>
       <c r="J52" s="10"/>
     </row>
   </sheetData>
@@ -29835,18 +29835,18 @@
     <row r="1" spans="1:4">
       <c r="A1" s="24"/>
       <c r="B1" s="25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C1" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="44" t="s">
         <v>46</v>
-      </c>
-      <c r="D1" s="44" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B2" s="26">
         <f>Janeiro!C4</f>
@@ -29863,7 +29863,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" s="26">
         <f>Fevereiro!$C$4</f>
@@ -29880,7 +29880,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" s="26">
         <f>Março!C4</f>
@@ -29897,7 +29897,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B5" s="26">
         <f>Abril!C4</f>
@@ -29914,7 +29914,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B6" s="26">
         <f>Maio!C4</f>
@@ -29931,15 +29931,15 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B7" s="26">
         <f>Junho!C4</f>
-        <v>2440</v>
+        <v>4500</v>
       </c>
       <c r="C7" s="42">
         <f>Junho!$C$3</f>
-        <v>2060</v>
+        <v>0</v>
       </c>
       <c r="D7" s="45">
         <f>Junho!$C$2</f>
@@ -29948,7 +29948,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8" s="26">
         <f>Julho!C4</f>
@@ -29965,7 +29965,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B9" s="26">
         <f>Agosto!C4</f>
@@ -29982,7 +29982,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B10" s="26">
         <f>Setembro!C4</f>
@@ -29999,15 +29999,15 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B11" s="26">
         <f>Outubro!C4</f>
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="C11" s="42">
         <f>Outubro!$C$3</f>
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="D11" s="45">
         <f>Outubro!$C$2</f>
@@ -30016,7 +30016,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B12" s="26">
         <f>Novembro!C4</f>
@@ -30033,7 +30033,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B13" s="26">
         <f>Dezembro!C4</f>
@@ -30053,7 +30053,7 @@
       <c r="B14" s="24"/>
       <c r="C14" s="43">
         <f>SUM(C2:C13)</f>
-        <v>5030</v>
+        <v>2850</v>
       </c>
       <c r="D14" s="46">
         <f>SUM(D2:D13)</f>
@@ -30062,11 +30062,11 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B16" s="23">
         <f>C14</f>
-        <v>5030</v>
+        <v>2850</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -30118,10 +30118,10 @@
     <row r="1" spans="1:13" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:13" ht="18.75">
       <c r="A2" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="36" t="s">
         <v>28</v>
-      </c>
-      <c r="B2" s="36" t="s">
-        <v>29</v>
       </c>
       <c r="C2" s="38">
         <f>D16+D23+D30</f>
@@ -30132,7 +30132,7 @@
     <row r="3" spans="1:13" ht="22.5" customHeight="1" thickBot="1">
       <c r="A3" s="14"/>
       <c r="B3" s="39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" s="37">
         <f>I23+I29+M22+M29+M15</f>
@@ -30140,10 +30140,10 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="19.5" thickBot="1">
-      <c r="A4" s="51" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="52"/>
+      <c r="A4" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="50"/>
       <c r="C4" s="40">
         <f>C2-C3</f>
         <v>2150</v>
@@ -30159,25 +30159,25 @@
       </c>
       <c r="B12" s="56"/>
       <c r="C12" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" s="49" t="s">
+      <c r="G12" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>8</v>
       </c>
       <c r="I12" s="5">
         <v>500</v>
       </c>
-      <c r="K12" s="49" t="s">
+      <c r="K12" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="M12" s="5">
         <v>150</v>
@@ -30192,16 +30192,16 @@
       <c r="D13" s="17">
         <v>3000</v>
       </c>
-      <c r="G13" s="50"/>
+      <c r="G13" s="48"/>
       <c r="H13" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I13" s="5">
         <v>450</v>
       </c>
-      <c r="K13" s="50"/>
+      <c r="K13" s="48"/>
       <c r="L13" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M13" s="5">
         <v>120</v>
@@ -30216,16 +30216,16 @@
       <c r="D14" s="17">
         <v>2000</v>
       </c>
-      <c r="G14" s="50"/>
+      <c r="G14" s="48"/>
       <c r="H14" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I14" s="5">
         <v>160</v>
       </c>
-      <c r="K14" s="50"/>
+      <c r="K14" s="48"/>
       <c r="L14" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M14" s="5">
         <v>0</v>
@@ -30240,17 +30240,17 @@
       <c r="D15" s="17">
         <v>0</v>
       </c>
-      <c r="G15" s="50"/>
+      <c r="G15" s="48"/>
       <c r="H15" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I15" s="5">
         <v>160</v>
       </c>
-      <c r="K15" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="L15" s="52"/>
+      <c r="K15" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="L15" s="50"/>
       <c r="M15" s="7">
         <f>SUM(M12:M14)</f>
         <v>270</v>
@@ -30260,15 +30260,15 @@
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" s="12">
         <f>SUM(D13:D15)</f>
         <v>5000</v>
       </c>
-      <c r="G16" s="50"/>
+      <c r="G16" s="48"/>
       <c r="H16" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I16" s="5">
         <v>110</v>
@@ -30277,9 +30277,9 @@
     <row r="17" spans="1:13" ht="16.5" thickBot="1">
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
-      <c r="G17" s="50"/>
+      <c r="G17" s="48"/>
       <c r="H17" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I17" s="5">
         <v>0</v>
@@ -30288,9 +30288,9 @@
     <row r="18" spans="1:13" ht="16.5" thickBot="1">
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
-      <c r="G18" s="50"/>
+      <c r="G18" s="48"/>
       <c r="H18" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I18" s="5">
         <v>150</v>
@@ -30298,27 +30298,27 @@
     </row>
     <row r="19" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
       <c r="A19" s="55" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B19" s="56"/>
       <c r="C19" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="G19" s="50"/>
+      <c r="G19" s="48"/>
       <c r="H19" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I19" s="5">
         <v>300</v>
       </c>
-      <c r="K19" s="49" t="s">
+      <c r="K19" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="L19" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="L19" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="M19" s="5">
         <v>200</v>
@@ -30333,16 +30333,16 @@
       <c r="D20" s="17">
         <v>0</v>
       </c>
-      <c r="G20" s="50"/>
+      <c r="G20" s="48"/>
       <c r="H20" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I20" s="5">
         <v>550</v>
       </c>
-      <c r="K20" s="50"/>
+      <c r="K20" s="48"/>
       <c r="L20" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M20" s="5">
         <v>0</v>
@@ -30357,16 +30357,16 @@
       <c r="D21" s="17">
         <v>0</v>
       </c>
-      <c r="G21" s="50"/>
+      <c r="G21" s="48"/>
       <c r="H21" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I21" s="5">
         <v>0</v>
       </c>
-      <c r="K21" s="50"/>
+      <c r="K21" s="48"/>
       <c r="L21" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M21" s="5">
         <v>0</v>
@@ -30381,17 +30381,17 @@
       <c r="D22" s="17">
         <v>0</v>
       </c>
-      <c r="G22" s="50"/>
+      <c r="G22" s="48"/>
       <c r="H22" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" s="5">
+        <v>0</v>
+      </c>
+      <c r="K22" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="I22" s="5">
-        <v>0</v>
-      </c>
-      <c r="K22" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="L22" s="52"/>
+      <c r="L22" s="50"/>
       <c r="M22" s="7">
         <f>SUM(M19:M21)</f>
         <v>200</v>
@@ -30401,16 +30401,16 @@
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" s="12">
         <f>SUM(D20:D22)</f>
         <v>0</v>
       </c>
-      <c r="G23" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="H23" s="52"/>
+      <c r="G23" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" s="50"/>
       <c r="I23" s="7">
         <f>SUM(I12:I22)</f>
         <v>2380</v>
@@ -30426,20 +30426,20 @@
     </row>
     <row r="26" spans="1:13" ht="16.5" customHeight="1" thickBot="1">
       <c r="A26" s="55" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B26" s="61"/>
       <c r="C26" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="G26" s="49" t="s">
+      <c r="G26" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="H26" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>20</v>
       </c>
       <c r="I26" s="5">
         <v>0</v>
@@ -30457,9 +30457,9 @@
       <c r="D27" s="17">
         <v>0</v>
       </c>
-      <c r="G27" s="50"/>
+      <c r="G27" s="48"/>
       <c r="H27" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I27" s="5">
         <v>0</v>
@@ -30477,9 +30477,9 @@
       <c r="D28" s="17">
         <v>0</v>
       </c>
-      <c r="G28" s="50"/>
+      <c r="G28" s="48"/>
       <c r="H28" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I28" s="5">
         <v>0</v>
@@ -30497,10 +30497,10 @@
       <c r="D29" s="17">
         <v>0</v>
       </c>
-      <c r="G29" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="H29" s="52"/>
+      <c r="G29" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="H29" s="50"/>
       <c r="I29" s="7">
         <f>SUM(I26:I28)</f>
         <v>0</v>
@@ -30513,7 +30513,7 @@
       <c r="A30" s="1"/>
       <c r="B30" s="2"/>
       <c r="C30" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" s="12">
         <f>SUM(D26:D29)</f>
@@ -30525,7 +30525,7 @@
     </row>
     <row r="32" spans="1:13">
       <c r="G32" s="15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H32" s="16">
         <f>MAX(I12:I22)</f>
@@ -30538,7 +30538,7 @@
     </row>
     <row r="33" spans="7:10">
       <c r="G33" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H33" s="16">
         <f>MAX(M12:M14)</f>
@@ -30551,7 +30551,7 @@
     </row>
     <row r="34" spans="7:10">
       <c r="G34" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H34" s="16">
         <f>MAX(I26:I28)</f>
@@ -30564,7 +30564,7 @@
     </row>
     <row r="35" spans="7:10">
       <c r="G35" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H35" s="16">
         <f>MAX(M19:M21)</f>
@@ -30631,17 +30631,12 @@
       <c r="J51" s="9"/>
     </row>
     <row r="52" spans="8:10" ht="15.75">
-      <c r="H52" s="47"/>
-      <c r="I52" s="48"/>
+      <c r="H52" s="51"/>
+      <c r="I52" s="52"/>
       <c r="J52" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="K12:K14"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K19:K21"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="A4:B4"/>
     <mergeCell ref="H52:I52"/>
     <mergeCell ref="G26:G28"/>
     <mergeCell ref="G29:H29"/>
@@ -30651,6 +30646,11 @@
     <mergeCell ref="A26:B29"/>
     <mergeCell ref="G12:G22"/>
     <mergeCell ref="G23:H23"/>
+    <mergeCell ref="K12:K14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K19:K21"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="A4:B4"/>
   </mergeCells>
   <conditionalFormatting sqref="C4">
     <cfRule type="cellIs" dxfId="168" priority="1" operator="greaterThan">
@@ -30675,8 +30675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M52"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -30698,10 +30698,10 @@
     <row r="1" spans="1:13" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:13" ht="18.75">
       <c r="A2" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="36" t="s">
         <v>28</v>
-      </c>
-      <c r="B2" s="36" t="s">
-        <v>29</v>
       </c>
       <c r="C2" s="38">
         <f>D16+D23+D30</f>
@@ -30712,7 +30712,7 @@
     <row r="3" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
       <c r="A3" s="28"/>
       <c r="B3" s="39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" s="37">
         <f>I23+I29+M22+M29+M15</f>
@@ -30720,10 +30720,10 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="19.5" thickBot="1">
-      <c r="A4" s="51" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="52"/>
+      <c r="A4" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="50"/>
       <c r="C4" s="40">
         <f>C2-C3</f>
         <v>0</v>
@@ -30739,25 +30739,25 @@
       </c>
       <c r="B12" s="56"/>
       <c r="C12" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" s="49" t="s">
+      <c r="G12" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="I12" s="5">
         <v>0</v>
       </c>
-      <c r="K12" s="49" t="s">
+      <c r="K12" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="M12" s="5">
         <v>0</v>
@@ -30772,16 +30772,16 @@
       <c r="D13" s="17">
         <v>0</v>
       </c>
-      <c r="G13" s="50"/>
+      <c r="G13" s="48"/>
       <c r="H13" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I13" s="5">
         <v>0</v>
       </c>
-      <c r="K13" s="50"/>
+      <c r="K13" s="48"/>
       <c r="L13" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M13" s="5">
         <v>0</v>
@@ -30796,16 +30796,16 @@
       <c r="D14" s="17">
         <v>0</v>
       </c>
-      <c r="G14" s="50"/>
+      <c r="G14" s="48"/>
       <c r="H14" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I14" s="5">
         <v>0</v>
       </c>
-      <c r="K14" s="50"/>
+      <c r="K14" s="48"/>
       <c r="L14" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M14" s="5">
         <v>0</v>
@@ -30820,17 +30820,17 @@
       <c r="D15" s="17">
         <v>0</v>
       </c>
-      <c r="G15" s="50"/>
+      <c r="G15" s="48"/>
       <c r="H15" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I15" s="5">
         <v>0</v>
       </c>
-      <c r="K15" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="L15" s="52"/>
+      <c r="K15" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="L15" s="50"/>
       <c r="M15" s="7">
         <f>SUM(M12:M14)</f>
         <v>0</v>
@@ -30840,15 +30840,15 @@
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" s="12">
         <f>SUM(D13:D15)</f>
         <v>0</v>
       </c>
-      <c r="G16" s="50"/>
+      <c r="G16" s="48"/>
       <c r="H16" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I16" s="5">
         <v>0</v>
@@ -30857,9 +30857,9 @@
     <row r="17" spans="1:13" ht="16.5" thickBot="1">
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
-      <c r="G17" s="50"/>
+      <c r="G17" s="48"/>
       <c r="H17" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I17" s="5">
         <v>0</v>
@@ -30868,9 +30868,9 @@
     <row r="18" spans="1:13" ht="16.5" thickBot="1">
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
-      <c r="G18" s="50"/>
+      <c r="G18" s="48"/>
       <c r="H18" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I18" s="5">
         <v>0</v>
@@ -30878,27 +30878,27 @@
     </row>
     <row r="19" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
       <c r="A19" s="55" t="s">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="B19" s="56"/>
       <c r="C19" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="G19" s="50"/>
+      <c r="G19" s="48"/>
       <c r="H19" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I19" s="5">
         <v>0</v>
       </c>
-      <c r="K19" s="49" t="s">
+      <c r="K19" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="L19" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="L19" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="M19" s="5">
         <v>0</v>
@@ -30913,16 +30913,16 @@
       <c r="D20" s="17">
         <v>0</v>
       </c>
-      <c r="G20" s="50"/>
+      <c r="G20" s="48"/>
       <c r="H20" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I20" s="5">
         <v>0</v>
       </c>
-      <c r="K20" s="50"/>
+      <c r="K20" s="48"/>
       <c r="L20" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M20" s="5">
         <v>0</v>
@@ -30937,16 +30937,16 @@
       <c r="D21" s="17">
         <v>0</v>
       </c>
-      <c r="G21" s="50"/>
+      <c r="G21" s="48"/>
       <c r="H21" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I21" s="5">
         <v>0</v>
       </c>
-      <c r="K21" s="50"/>
+      <c r="K21" s="48"/>
       <c r="L21" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M21" s="5">
         <v>0</v>
@@ -30961,17 +30961,17 @@
       <c r="D22" s="17">
         <v>0</v>
       </c>
-      <c r="G22" s="50"/>
+      <c r="G22" s="48"/>
       <c r="H22" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" s="5">
+        <v>0</v>
+      </c>
+      <c r="K22" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="I22" s="5">
-        <v>0</v>
-      </c>
-      <c r="K22" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="L22" s="52"/>
+      <c r="L22" s="50"/>
       <c r="M22" s="7">
         <f>SUM(M19:M21)</f>
         <v>0</v>
@@ -30981,16 +30981,16 @@
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" s="12">
         <f>SUM(D20:D22)</f>
         <v>0</v>
       </c>
-      <c r="G23" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="H23" s="52"/>
+      <c r="G23" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" s="50"/>
       <c r="I23" s="7">
         <f>SUM(I12:I22)</f>
         <v>0</v>
@@ -31006,20 +31006,20 @@
     </row>
     <row r="26" spans="1:13" ht="16.5" customHeight="1" thickBot="1">
       <c r="A26" s="55" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B26" s="61"/>
       <c r="C26" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="G26" s="49" t="s">
+      <c r="G26" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="H26" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>20</v>
       </c>
       <c r="I26" s="5">
         <v>0</v>
@@ -31037,9 +31037,9 @@
       <c r="D27" s="17">
         <v>0</v>
       </c>
-      <c r="G27" s="50"/>
+      <c r="G27" s="48"/>
       <c r="H27" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I27" s="5">
         <v>0</v>
@@ -31057,9 +31057,9 @@
       <c r="D28" s="17">
         <v>0</v>
       </c>
-      <c r="G28" s="50"/>
+      <c r="G28" s="48"/>
       <c r="H28" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I28" s="5">
         <v>0</v>
@@ -31077,10 +31077,10 @@
       <c r="D29" s="17">
         <v>0</v>
       </c>
-      <c r="G29" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="H29" s="52"/>
+      <c r="G29" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="H29" s="50"/>
       <c r="I29" s="7">
         <f>SUM(I26:I28)</f>
         <v>0</v>
@@ -31093,7 +31093,7 @@
       <c r="A30" s="1"/>
       <c r="B30" s="2"/>
       <c r="C30" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" s="12">
         <f>SUM(D26:D29)</f>
@@ -31105,7 +31105,7 @@
     </row>
     <row r="32" spans="1:13">
       <c r="G32" s="15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H32" s="16">
         <f>MAX(I12:I22)</f>
@@ -31118,7 +31118,7 @@
     </row>
     <row r="33" spans="7:10">
       <c r="G33" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H33" s="16">
         <f>MAX(M12:M14)</f>
@@ -31131,7 +31131,7 @@
     </row>
     <row r="34" spans="7:10">
       <c r="G34" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H34" s="16">
         <f>MAX(I26:I28)</f>
@@ -31144,7 +31144,7 @@
     </row>
     <row r="35" spans="7:10">
       <c r="G35" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H35" s="16">
         <f>MAX(M19:M21)</f>
@@ -31211,8 +31211,8 @@
       <c r="J51" s="9"/>
     </row>
     <row r="52" spans="8:10" ht="15.75">
-      <c r="H52" s="47"/>
-      <c r="I52" s="48"/>
+      <c r="H52" s="51"/>
+      <c r="I52" s="52"/>
       <c r="J52" s="10"/>
     </row>
   </sheetData>
@@ -31256,7 +31256,7 @@
   <dimension ref="A1:M52"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A10" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -31278,10 +31278,10 @@
     <row r="1" spans="1:13" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:13" ht="18.75">
       <c r="A2" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="36" t="s">
         <v>28</v>
-      </c>
-      <c r="B2" s="36" t="s">
-        <v>29</v>
       </c>
       <c r="C2" s="38">
         <f>D16+D23+D30</f>
@@ -31292,7 +31292,7 @@
     <row r="3" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
       <c r="A3" s="28"/>
       <c r="B3" s="39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" s="37">
         <f>I23+I29+M22+M29+M15</f>
@@ -31300,10 +31300,10 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="19.5" thickBot="1">
-      <c r="A4" s="51" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="52"/>
+      <c r="A4" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="50"/>
       <c r="C4" s="40">
         <f>C2-C3</f>
         <v>0</v>
@@ -31319,25 +31319,25 @@
       </c>
       <c r="B12" s="56"/>
       <c r="C12" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" s="49" t="s">
+      <c r="G12" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="I12" s="5">
         <v>0</v>
       </c>
-      <c r="K12" s="49" t="s">
+      <c r="K12" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="M12" s="5">
         <v>0</v>
@@ -31352,16 +31352,16 @@
       <c r="D13" s="17">
         <v>0</v>
       </c>
-      <c r="G13" s="50"/>
+      <c r="G13" s="48"/>
       <c r="H13" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I13" s="5">
         <v>0</v>
       </c>
-      <c r="K13" s="50"/>
+      <c r="K13" s="48"/>
       <c r="L13" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M13" s="5">
         <v>0</v>
@@ -31376,16 +31376,16 @@
       <c r="D14" s="17">
         <v>0</v>
       </c>
-      <c r="G14" s="50"/>
+      <c r="G14" s="48"/>
       <c r="H14" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I14" s="5">
         <v>0</v>
       </c>
-      <c r="K14" s="50"/>
+      <c r="K14" s="48"/>
       <c r="L14" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M14" s="5">
         <v>0</v>
@@ -31400,17 +31400,17 @@
       <c r="D15" s="17">
         <v>0</v>
       </c>
-      <c r="G15" s="50"/>
+      <c r="G15" s="48"/>
       <c r="H15" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I15" s="5">
         <v>0</v>
       </c>
-      <c r="K15" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="L15" s="52"/>
+      <c r="K15" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="L15" s="50"/>
       <c r="M15" s="7">
         <f>SUM(M12:M14)</f>
         <v>0</v>
@@ -31420,15 +31420,15 @@
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" s="12">
         <f>SUM(D13:D15)</f>
         <v>0</v>
       </c>
-      <c r="G16" s="50"/>
+      <c r="G16" s="48"/>
       <c r="H16" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I16" s="5">
         <v>0</v>
@@ -31437,9 +31437,9 @@
     <row r="17" spans="1:13" ht="16.5" thickBot="1">
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
-      <c r="G17" s="50"/>
+      <c r="G17" s="48"/>
       <c r="H17" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I17" s="5">
         <v>0</v>
@@ -31448,9 +31448,9 @@
     <row r="18" spans="1:13" ht="16.5" thickBot="1">
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
-      <c r="G18" s="50"/>
+      <c r="G18" s="48"/>
       <c r="H18" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I18" s="5">
         <v>0</v>
@@ -31458,27 +31458,27 @@
     </row>
     <row r="19" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
       <c r="A19" s="55" t="s">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="B19" s="56"/>
       <c r="C19" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="G19" s="50"/>
+      <c r="G19" s="48"/>
       <c r="H19" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I19" s="5">
         <v>0</v>
       </c>
-      <c r="K19" s="49" t="s">
+      <c r="K19" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="L19" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="L19" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="M19" s="5">
         <v>0</v>
@@ -31493,16 +31493,16 @@
       <c r="D20" s="17">
         <v>0</v>
       </c>
-      <c r="G20" s="50"/>
+      <c r="G20" s="48"/>
       <c r="H20" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I20" s="5">
         <v>0</v>
       </c>
-      <c r="K20" s="50"/>
+      <c r="K20" s="48"/>
       <c r="L20" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M20" s="5">
         <v>0</v>
@@ -31517,16 +31517,16 @@
       <c r="D21" s="17">
         <v>0</v>
       </c>
-      <c r="G21" s="50"/>
+      <c r="G21" s="48"/>
       <c r="H21" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I21" s="5">
         <v>0</v>
       </c>
-      <c r="K21" s="50"/>
+      <c r="K21" s="48"/>
       <c r="L21" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M21" s="5">
         <v>0</v>
@@ -31541,17 +31541,17 @@
       <c r="D22" s="17">
         <v>0</v>
       </c>
-      <c r="G22" s="50"/>
+      <c r="G22" s="48"/>
       <c r="H22" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" s="5">
+        <v>0</v>
+      </c>
+      <c r="K22" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="I22" s="5">
-        <v>0</v>
-      </c>
-      <c r="K22" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="L22" s="52"/>
+      <c r="L22" s="50"/>
       <c r="M22" s="7">
         <f>SUM(M19:M21)</f>
         <v>0</v>
@@ -31561,16 +31561,16 @@
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" s="12">
         <f>SUM(D20:D22)</f>
         <v>0</v>
       </c>
-      <c r="G23" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="H23" s="52"/>
+      <c r="G23" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" s="50"/>
       <c r="I23" s="7">
         <f>SUM(I12:I22)</f>
         <v>0</v>
@@ -31586,20 +31586,20 @@
     </row>
     <row r="26" spans="1:13" ht="16.5" customHeight="1" thickBot="1">
       <c r="A26" s="55" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B26" s="61"/>
       <c r="C26" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="G26" s="49" t="s">
+      <c r="G26" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="H26" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>20</v>
       </c>
       <c r="I26" s="5">
         <v>0</v>
@@ -31617,9 +31617,9 @@
       <c r="D27" s="17">
         <v>0</v>
       </c>
-      <c r="G27" s="50"/>
+      <c r="G27" s="48"/>
       <c r="H27" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I27" s="5">
         <v>0</v>
@@ -31637,9 +31637,9 @@
       <c r="D28" s="17">
         <v>0</v>
       </c>
-      <c r="G28" s="50"/>
+      <c r="G28" s="48"/>
       <c r="H28" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I28" s="5">
         <v>0</v>
@@ -31657,10 +31657,10 @@
       <c r="D29" s="17">
         <v>0</v>
       </c>
-      <c r="G29" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="H29" s="52"/>
+      <c r="G29" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="H29" s="50"/>
       <c r="I29" s="7">
         <f>SUM(I26:I28)</f>
         <v>0</v>
@@ -31673,7 +31673,7 @@
       <c r="A30" s="1"/>
       <c r="B30" s="2"/>
       <c r="C30" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" s="12">
         <f>SUM(D26:D29)</f>
@@ -31685,7 +31685,7 @@
     </row>
     <row r="32" spans="1:13">
       <c r="G32" s="15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H32" s="16">
         <f>MAX(I12:I22)</f>
@@ -31698,7 +31698,7 @@
     </row>
     <row r="33" spans="7:10">
       <c r="G33" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H33" s="16">
         <f>MAX(M12:M14)</f>
@@ -31711,7 +31711,7 @@
     </row>
     <row r="34" spans="7:10">
       <c r="G34" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H34" s="16">
         <f>MAX(I26:I28)</f>
@@ -31724,7 +31724,7 @@
     </row>
     <row r="35" spans="7:10">
       <c r="G35" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H35" s="16">
         <f>MAX(M19:M21)</f>
@@ -31791,8 +31791,8 @@
       <c r="J51" s="9"/>
     </row>
     <row r="52" spans="8:10" ht="15.75">
-      <c r="H52" s="47"/>
-      <c r="I52" s="48"/>
+      <c r="H52" s="51"/>
+      <c r="I52" s="52"/>
       <c r="J52" s="10"/>
     </row>
   </sheetData>
@@ -31835,8 +31835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:M52"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView showGridLines="0" topLeftCell="A11" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -31858,10 +31858,10 @@
     <row r="1" spans="1:13" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:13" ht="18.75">
       <c r="A2" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="36" t="s">
         <v>28</v>
-      </c>
-      <c r="B2" s="36" t="s">
-        <v>29</v>
       </c>
       <c r="C2" s="38">
         <f>D16+D23+D30</f>
@@ -31872,7 +31872,7 @@
     <row r="3" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
       <c r="A3" s="28"/>
       <c r="B3" s="39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" s="37">
         <f>I23+I29+M22+M29+M15</f>
@@ -31880,10 +31880,10 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="19.5" thickBot="1">
-      <c r="A4" s="51" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="52"/>
+      <c r="A4" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="50"/>
       <c r="C4" s="40">
         <f>C2-C3</f>
         <v>0</v>
@@ -31899,25 +31899,25 @@
       </c>
       <c r="B12" s="56"/>
       <c r="C12" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" s="49" t="s">
+      <c r="G12" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="I12" s="5">
         <v>0</v>
       </c>
-      <c r="K12" s="49" t="s">
+      <c r="K12" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="M12" s="5">
         <v>0</v>
@@ -31932,16 +31932,16 @@
       <c r="D13" s="17">
         <v>0</v>
       </c>
-      <c r="G13" s="50"/>
+      <c r="G13" s="48"/>
       <c r="H13" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I13" s="5">
         <v>0</v>
       </c>
-      <c r="K13" s="50"/>
+      <c r="K13" s="48"/>
       <c r="L13" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M13" s="5">
         <v>0</v>
@@ -31956,16 +31956,16 @@
       <c r="D14" s="17">
         <v>0</v>
       </c>
-      <c r="G14" s="50"/>
+      <c r="G14" s="48"/>
       <c r="H14" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I14" s="5">
         <v>0</v>
       </c>
-      <c r="K14" s="50"/>
+      <c r="K14" s="48"/>
       <c r="L14" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M14" s="5">
         <v>0</v>
@@ -31980,17 +31980,17 @@
       <c r="D15" s="17">
         <v>0</v>
       </c>
-      <c r="G15" s="50"/>
+      <c r="G15" s="48"/>
       <c r="H15" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I15" s="5">
         <v>0</v>
       </c>
-      <c r="K15" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="L15" s="52"/>
+      <c r="K15" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="L15" s="50"/>
       <c r="M15" s="7">
         <f>SUM(M12:M14)</f>
         <v>0</v>
@@ -32000,15 +32000,15 @@
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" s="12">
         <f>SUM(D13:D15)</f>
         <v>0</v>
       </c>
-      <c r="G16" s="50"/>
+      <c r="G16" s="48"/>
       <c r="H16" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I16" s="5">
         <v>0</v>
@@ -32017,9 +32017,9 @@
     <row r="17" spans="1:13" ht="16.5" thickBot="1">
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
-      <c r="G17" s="50"/>
+      <c r="G17" s="48"/>
       <c r="H17" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I17" s="5">
         <v>0</v>
@@ -32028,9 +32028,9 @@
     <row r="18" spans="1:13" ht="16.5" thickBot="1">
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
-      <c r="G18" s="50"/>
+      <c r="G18" s="48"/>
       <c r="H18" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I18" s="5">
         <v>0</v>
@@ -32038,27 +32038,27 @@
     </row>
     <row r="19" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
       <c r="A19" s="55" t="s">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="B19" s="56"/>
       <c r="C19" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="G19" s="50"/>
+      <c r="G19" s="48"/>
       <c r="H19" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I19" s="5">
         <v>0</v>
       </c>
-      <c r="K19" s="49" t="s">
+      <c r="K19" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="L19" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="L19" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="M19" s="5">
         <v>0</v>
@@ -32073,16 +32073,16 @@
       <c r="D20" s="17">
         <v>0</v>
       </c>
-      <c r="G20" s="50"/>
+      <c r="G20" s="48"/>
       <c r="H20" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I20" s="5">
         <v>0</v>
       </c>
-      <c r="K20" s="50"/>
+      <c r="K20" s="48"/>
       <c r="L20" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M20" s="5">
         <v>0</v>
@@ -32097,16 +32097,16 @@
       <c r="D21" s="17">
         <v>0</v>
       </c>
-      <c r="G21" s="50"/>
+      <c r="G21" s="48"/>
       <c r="H21" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I21" s="5">
         <v>0</v>
       </c>
-      <c r="K21" s="50"/>
+      <c r="K21" s="48"/>
       <c r="L21" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M21" s="5">
         <v>0</v>
@@ -32121,17 +32121,17 @@
       <c r="D22" s="17">
         <v>0</v>
       </c>
-      <c r="G22" s="50"/>
+      <c r="G22" s="48"/>
       <c r="H22" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" s="5">
+        <v>0</v>
+      </c>
+      <c r="K22" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="I22" s="5">
-        <v>0</v>
-      </c>
-      <c r="K22" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="L22" s="52"/>
+      <c r="L22" s="50"/>
       <c r="M22" s="7">
         <f>SUM(M19:M21)</f>
         <v>0</v>
@@ -32141,16 +32141,16 @@
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" s="12">
         <f>SUM(D20:D22)</f>
         <v>0</v>
       </c>
-      <c r="G23" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="H23" s="52"/>
+      <c r="G23" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" s="50"/>
       <c r="I23" s="7">
         <f>SUM(I12:I22)</f>
         <v>0</v>
@@ -32166,20 +32166,20 @@
     </row>
     <row r="26" spans="1:13" ht="16.5" customHeight="1" thickBot="1">
       <c r="A26" s="55" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B26" s="61"/>
       <c r="C26" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="G26" s="49" t="s">
+      <c r="G26" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="H26" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>20</v>
       </c>
       <c r="I26" s="5">
         <v>0</v>
@@ -32197,9 +32197,9 @@
       <c r="D27" s="17">
         <v>0</v>
       </c>
-      <c r="G27" s="50"/>
+      <c r="G27" s="48"/>
       <c r="H27" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I27" s="5">
         <v>0</v>
@@ -32217,9 +32217,9 @@
       <c r="D28" s="17">
         <v>0</v>
       </c>
-      <c r="G28" s="50"/>
+      <c r="G28" s="48"/>
       <c r="H28" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I28" s="5">
         <v>0</v>
@@ -32237,10 +32237,10 @@
       <c r="D29" s="17">
         <v>0</v>
       </c>
-      <c r="G29" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="H29" s="52"/>
+      <c r="G29" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="H29" s="50"/>
       <c r="I29" s="7">
         <f>SUM(I26:I28)</f>
         <v>0</v>
@@ -32253,7 +32253,7 @@
       <c r="A30" s="1"/>
       <c r="B30" s="2"/>
       <c r="C30" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" s="12">
         <f>SUM(D26:D29)</f>
@@ -32265,7 +32265,7 @@
     </row>
     <row r="32" spans="1:13">
       <c r="G32" s="15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H32" s="16">
         <f>MAX(I12:I22)</f>
@@ -32278,7 +32278,7 @@
     </row>
     <row r="33" spans="7:10">
       <c r="G33" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H33" s="16">
         <f>MAX(M12:M14)</f>
@@ -32291,7 +32291,7 @@
     </row>
     <row r="34" spans="7:10">
       <c r="G34" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H34" s="16">
         <f>MAX(I26:I28)</f>
@@ -32304,7 +32304,7 @@
     </row>
     <row r="35" spans="7:10">
       <c r="G35" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H35" s="16">
         <f>MAX(M19:M21)</f>
@@ -32371,8 +32371,8 @@
       <c r="J51" s="9"/>
     </row>
     <row r="52" spans="8:10" ht="15.75">
-      <c r="H52" s="47"/>
-      <c r="I52" s="48"/>
+      <c r="H52" s="51"/>
+      <c r="I52" s="52"/>
       <c r="J52" s="10"/>
     </row>
   </sheetData>
@@ -32416,7 +32416,7 @@
   <dimension ref="A1:M52"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A12" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19:M21"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -32438,10 +32438,10 @@
     <row r="1" spans="1:13" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:13" ht="18.75">
       <c r="A2" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="36" t="s">
         <v>28</v>
-      </c>
-      <c r="B2" s="36" t="s">
-        <v>29</v>
       </c>
       <c r="C2" s="38">
         <f>D16+D23+D30</f>
@@ -32452,7 +32452,7 @@
     <row r="3" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
       <c r="A3" s="28"/>
       <c r="B3" s="39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" s="37">
         <f>I23+I29+M22+M29+M15</f>
@@ -32460,10 +32460,10 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="19.5" thickBot="1">
-      <c r="A4" s="51" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="52"/>
+      <c r="A4" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="50"/>
       <c r="C4" s="40">
         <f>C2-C3</f>
         <v>1400</v>
@@ -32479,25 +32479,25 @@
       </c>
       <c r="B12" s="56"/>
       <c r="C12" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" s="49" t="s">
+      <c r="G12" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="I12" s="5">
         <v>0</v>
       </c>
-      <c r="K12" s="49" t="s">
+      <c r="K12" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="M12" s="5">
         <v>0</v>
@@ -32512,16 +32512,16 @@
       <c r="D13" s="17">
         <v>1400</v>
       </c>
-      <c r="G13" s="50"/>
+      <c r="G13" s="48"/>
       <c r="H13" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I13" s="5">
         <v>0</v>
       </c>
-      <c r="K13" s="50"/>
+      <c r="K13" s="48"/>
       <c r="L13" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M13" s="5">
         <v>0</v>
@@ -32536,16 +32536,16 @@
       <c r="D14" s="17">
         <v>0</v>
       </c>
-      <c r="G14" s="50"/>
+      <c r="G14" s="48"/>
       <c r="H14" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I14" s="5">
         <v>0</v>
       </c>
-      <c r="K14" s="50"/>
+      <c r="K14" s="48"/>
       <c r="L14" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M14" s="5">
         <v>0</v>
@@ -32560,17 +32560,17 @@
       <c r="D15" s="17">
         <v>0</v>
       </c>
-      <c r="G15" s="50"/>
+      <c r="G15" s="48"/>
       <c r="H15" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I15" s="5">
         <v>0</v>
       </c>
-      <c r="K15" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="L15" s="52"/>
+      <c r="K15" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="L15" s="50"/>
       <c r="M15" s="7">
         <f>SUM(M12:M14)</f>
         <v>0</v>
@@ -32580,15 +32580,15 @@
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" s="12">
         <f>SUM(D13:D15)</f>
         <v>1400</v>
       </c>
-      <c r="G16" s="50"/>
+      <c r="G16" s="48"/>
       <c r="H16" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I16" s="5">
         <v>0</v>
@@ -32597,9 +32597,9 @@
     <row r="17" spans="1:13" ht="16.5" thickBot="1">
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
-      <c r="G17" s="50"/>
+      <c r="G17" s="48"/>
       <c r="H17" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I17" s="5">
         <v>0</v>
@@ -32608,9 +32608,9 @@
     <row r="18" spans="1:13" ht="16.5" thickBot="1">
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
-      <c r="G18" s="50"/>
+      <c r="G18" s="48"/>
       <c r="H18" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I18" s="5">
         <v>0</v>
@@ -32618,27 +32618,27 @@
     </row>
     <row r="19" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
       <c r="A19" s="55" t="s">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="B19" s="56"/>
       <c r="C19" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="G19" s="50"/>
+      <c r="G19" s="48"/>
       <c r="H19" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I19" s="5">
         <v>0</v>
       </c>
-      <c r="K19" s="49" t="s">
+      <c r="K19" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="L19" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="L19" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="M19" s="5">
         <v>0</v>
@@ -32653,16 +32653,16 @@
       <c r="D20" s="17">
         <v>0</v>
       </c>
-      <c r="G20" s="50"/>
+      <c r="G20" s="48"/>
       <c r="H20" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I20" s="5">
         <v>0</v>
       </c>
-      <c r="K20" s="50"/>
+      <c r="K20" s="48"/>
       <c r="L20" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M20" s="5">
         <v>0</v>
@@ -32677,16 +32677,16 @@
       <c r="D21" s="17">
         <v>0</v>
       </c>
-      <c r="G21" s="50"/>
+      <c r="G21" s="48"/>
       <c r="H21" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I21" s="5">
         <v>0</v>
       </c>
-      <c r="K21" s="50"/>
+      <c r="K21" s="48"/>
       <c r="L21" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M21" s="5">
         <v>0</v>
@@ -32701,17 +32701,17 @@
       <c r="D22" s="17">
         <v>0</v>
       </c>
-      <c r="G22" s="50"/>
+      <c r="G22" s="48"/>
       <c r="H22" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" s="5">
+        <v>0</v>
+      </c>
+      <c r="K22" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="I22" s="5">
-        <v>0</v>
-      </c>
-      <c r="K22" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="L22" s="52"/>
+      <c r="L22" s="50"/>
       <c r="M22" s="7">
         <f>SUM(M19:M21)</f>
         <v>0</v>
@@ -32721,16 +32721,16 @@
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" s="12">
         <f>SUM(D20:D22)</f>
         <v>0</v>
       </c>
-      <c r="G23" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="H23" s="52"/>
+      <c r="G23" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" s="50"/>
       <c r="I23" s="7">
         <f>SUM(I12:I22)</f>
         <v>0</v>
@@ -32746,20 +32746,20 @@
     </row>
     <row r="26" spans="1:13" ht="16.5" customHeight="1" thickBot="1">
       <c r="A26" s="55" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B26" s="61"/>
       <c r="C26" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="G26" s="49" t="s">
+      <c r="G26" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="H26" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>20</v>
       </c>
       <c r="I26" s="5">
         <v>0</v>
@@ -32777,9 +32777,9 @@
       <c r="D27" s="17">
         <v>0</v>
       </c>
-      <c r="G27" s="50"/>
+      <c r="G27" s="48"/>
       <c r="H27" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I27" s="5">
         <v>0</v>
@@ -32797,9 +32797,9 @@
       <c r="D28" s="17">
         <v>0</v>
       </c>
-      <c r="G28" s="50"/>
+      <c r="G28" s="48"/>
       <c r="H28" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I28" s="5">
         <v>0</v>
@@ -32817,10 +32817,10 @@
       <c r="D29" s="17">
         <v>0</v>
       </c>
-      <c r="G29" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="H29" s="52"/>
+      <c r="G29" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="H29" s="50"/>
       <c r="I29" s="7">
         <f>SUM(I26:I28)</f>
         <v>0</v>
@@ -32833,7 +32833,7 @@
       <c r="A30" s="1"/>
       <c r="B30" s="2"/>
       <c r="C30" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" s="12">
         <f>SUM(D26:D29)</f>
@@ -32845,7 +32845,7 @@
     </row>
     <row r="32" spans="1:13">
       <c r="G32" s="15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H32" s="16">
         <f>MAX(I12:I22)</f>
@@ -32858,7 +32858,7 @@
     </row>
     <row r="33" spans="7:10">
       <c r="G33" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H33" s="16">
         <f>MAX(M12:M14)</f>
@@ -32871,7 +32871,7 @@
     </row>
     <row r="34" spans="7:10">
       <c r="G34" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H34" s="16">
         <f>MAX(I26:I28)</f>
@@ -32884,7 +32884,7 @@
     </row>
     <row r="35" spans="7:10">
       <c r="G35" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H35" s="16">
         <f>MAX(M19:M21)</f>
@@ -32951,8 +32951,8 @@
       <c r="J51" s="9"/>
     </row>
     <row r="52" spans="8:10" ht="15.75">
-      <c r="H52" s="47"/>
-      <c r="I52" s="48"/>
+      <c r="H52" s="51"/>
+      <c r="I52" s="52"/>
       <c r="J52" s="10"/>
     </row>
   </sheetData>
@@ -32995,8 +32995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:M52"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -33018,10 +33018,10 @@
     <row r="1" spans="1:13" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:13" ht="18.75">
       <c r="A2" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="36" t="s">
         <v>28</v>
-      </c>
-      <c r="B2" s="36" t="s">
-        <v>29</v>
       </c>
       <c r="C2" s="38">
         <f>D16+D23+D30</f>
@@ -33032,21 +33032,21 @@
     <row r="3" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
       <c r="A3" s="28"/>
       <c r="B3" s="39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" s="37">
         <f>I23+I29+M22+M29+M15</f>
-        <v>2060</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="19.5" thickBot="1">
-      <c r="A4" s="51" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="52"/>
+      <c r="A4" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="50"/>
       <c r="C4" s="40">
         <f>C2-C3</f>
-        <v>2440</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="197.25" customHeight="1"/>
@@ -33059,28 +33059,28 @@
       </c>
       <c r="B12" s="56"/>
       <c r="C12" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" s="49" t="s">
+      <c r="G12" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="I12" s="5">
-        <v>500</v>
-      </c>
-      <c r="K12" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="K12" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="L12" s="4" t="s">
-        <v>22</v>
-      </c>
       <c r="M12" s="5">
-        <v>300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="16.5" thickBot="1">
@@ -33092,19 +33092,19 @@
       <c r="D13" s="17">
         <v>2000</v>
       </c>
-      <c r="G13" s="50"/>
+      <c r="G13" s="48"/>
       <c r="H13" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I13" s="5">
-        <v>520</v>
-      </c>
-      <c r="K13" s="50"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="48"/>
       <c r="L13" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M13" s="5">
-        <v>500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="16.5" thickBot="1">
@@ -33116,16 +33116,16 @@
       <c r="D14" s="17">
         <v>1000</v>
       </c>
-      <c r="G14" s="50"/>
+      <c r="G14" s="48"/>
       <c r="H14" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I14" s="5">
-        <v>120</v>
-      </c>
-      <c r="K14" s="50"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="48"/>
       <c r="L14" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M14" s="5">
         <v>0</v>
@@ -33140,35 +33140,35 @@
       <c r="D15" s="17">
         <v>1500</v>
       </c>
-      <c r="G15" s="50"/>
+      <c r="G15" s="48"/>
       <c r="H15" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I15" s="5">
         <v>0</v>
       </c>
-      <c r="K15" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="L15" s="52"/>
+      <c r="K15" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="L15" s="50"/>
       <c r="M15" s="7">
         <f>SUM(M12:M14)</f>
-        <v>800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="16.5" thickBot="1">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" s="12">
         <f>SUM(D13:D15)</f>
         <v>4500</v>
       </c>
-      <c r="G16" s="50"/>
+      <c r="G16" s="48"/>
       <c r="H16" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I16" s="5">
         <v>0</v>
@@ -33177,9 +33177,9 @@
     <row r="17" spans="1:13" ht="16.5" thickBot="1">
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
-      <c r="G17" s="50"/>
+      <c r="G17" s="48"/>
       <c r="H17" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I17" s="5">
         <v>0</v>
@@ -33188,9 +33188,9 @@
     <row r="18" spans="1:13" ht="16.5" thickBot="1">
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
-      <c r="G18" s="50"/>
+      <c r="G18" s="48"/>
       <c r="H18" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I18" s="5">
         <v>0</v>
@@ -33198,30 +33198,30 @@
     </row>
     <row r="19" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
       <c r="A19" s="55" t="s">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="B19" s="56"/>
       <c r="C19" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="G19" s="50"/>
+      <c r="G19" s="48"/>
       <c r="H19" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I19" s="5">
         <v>0</v>
       </c>
-      <c r="K19" s="49" t="s">
+      <c r="K19" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="L19" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="L19" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="M19" s="5">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
@@ -33233,19 +33233,19 @@
       <c r="D20" s="17">
         <v>0</v>
       </c>
-      <c r="G20" s="50"/>
+      <c r="G20" s="48"/>
       <c r="H20" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I20" s="5">
         <v>0</v>
       </c>
-      <c r="K20" s="50"/>
+      <c r="K20" s="48"/>
       <c r="L20" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M20" s="5">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="16.5" customHeight="1" thickBot="1">
@@ -33257,16 +33257,16 @@
       <c r="D21" s="17">
         <v>0</v>
       </c>
-      <c r="G21" s="50"/>
+      <c r="G21" s="48"/>
       <c r="H21" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I21" s="5">
         <v>0</v>
       </c>
-      <c r="K21" s="50"/>
+      <c r="K21" s="48"/>
       <c r="L21" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M21" s="5">
         <v>0</v>
@@ -33281,39 +33281,39 @@
       <c r="D22" s="17">
         <v>0</v>
       </c>
-      <c r="G22" s="50"/>
+      <c r="G22" s="48"/>
       <c r="H22" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" s="5">
+        <v>0</v>
+      </c>
+      <c r="K22" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="I22" s="5">
-        <v>0</v>
-      </c>
-      <c r="K22" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="L22" s="52"/>
+      <c r="L22" s="50"/>
       <c r="M22" s="7">
         <f>SUM(M19:M21)</f>
-        <v>120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="16.5" thickBot="1">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" s="12">
         <f>SUM(D20:D22)</f>
         <v>0</v>
       </c>
-      <c r="G23" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="H23" s="52"/>
+      <c r="G23" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" s="50"/>
       <c r="I23" s="7">
         <f>SUM(I12:I22)</f>
-        <v>1140</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="15.75">
@@ -33326,20 +33326,20 @@
     </row>
     <row r="26" spans="1:13" ht="16.5" customHeight="1" thickBot="1">
       <c r="A26" s="55" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B26" s="61"/>
       <c r="C26" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="G26" s="49" t="s">
+      <c r="G26" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="H26" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>20</v>
       </c>
       <c r="I26" s="5">
         <v>0</v>
@@ -33357,9 +33357,9 @@
       <c r="D27" s="17">
         <v>0</v>
       </c>
-      <c r="G27" s="50"/>
+      <c r="G27" s="48"/>
       <c r="H27" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I27" s="5">
         <v>0</v>
@@ -33377,9 +33377,9 @@
       <c r="D28" s="17">
         <v>0</v>
       </c>
-      <c r="G28" s="50"/>
+      <c r="G28" s="48"/>
       <c r="H28" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I28" s="5">
         <v>0</v>
@@ -33397,10 +33397,10 @@
       <c r="D29" s="17">
         <v>0</v>
       </c>
-      <c r="G29" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="H29" s="52"/>
+      <c r="G29" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="H29" s="50"/>
       <c r="I29" s="7">
         <f>SUM(I26:I28)</f>
         <v>0</v>
@@ -33413,7 +33413,7 @@
       <c r="A30" s="1"/>
       <c r="B30" s="2"/>
       <c r="C30" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" s="12">
         <f>SUM(D26:D29)</f>
@@ -33425,33 +33425,33 @@
     </row>
     <row r="32" spans="1:13">
       <c r="G32" s="15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H32" s="16">
         <f>MAX(I12:I22)</f>
-        <v>520</v>
+        <v>0</v>
       </c>
       <c r="I32" s="15" t="str">
         <f>INDEX(H12:I22,MATCH(H32,I12:I22,0),1)</f>
-        <v>Condomínio</v>
+        <v>Aluguel</v>
       </c>
     </row>
     <row r="33" spans="7:10">
       <c r="G33" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H33" s="16">
         <f>MAX(M12:M14)</f>
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="I33" s="15" t="str">
         <f>INDEX(L12:M14,MATCH(H33,M12:M14,0),1)</f>
-        <v>Manutenção</v>
+        <v>IPVA</v>
       </c>
     </row>
     <row r="34" spans="7:10">
       <c r="G34" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H34" s="16">
         <f>MAX(I26:I28)</f>
@@ -33464,15 +33464,15 @@
     </row>
     <row r="35" spans="7:10">
       <c r="G35" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H35" s="16">
         <f>MAX(M19:M21)</f>
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="I35" s="15" t="str">
         <f>INDEX(L19:M21,MATCH(H35,M19:M21,0),1)</f>
-        <v>Lanches</v>
+        <v>Cinema</v>
       </c>
     </row>
     <row r="41" spans="7:10" ht="15.75">
@@ -33531,8 +33531,8 @@
       <c r="J51" s="9"/>
     </row>
     <row r="52" spans="8:10" ht="15.75">
-      <c r="H52" s="47"/>
-      <c r="I52" s="48"/>
+      <c r="H52" s="51"/>
+      <c r="I52" s="52"/>
       <c r="J52" s="10"/>
     </row>
   </sheetData>
@@ -33576,7 +33576,7 @@
   <dimension ref="A1:M52"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A8" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19:M21"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -33598,10 +33598,10 @@
     <row r="1" spans="1:13" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:13" ht="18.75">
       <c r="A2" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="36" t="s">
         <v>28</v>
-      </c>
-      <c r="B2" s="36" t="s">
-        <v>29</v>
       </c>
       <c r="C2" s="38">
         <f>D16+D23+D30</f>
@@ -33612,7 +33612,7 @@
     <row r="3" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
       <c r="A3" s="28"/>
       <c r="B3" s="39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" s="37">
         <f>I23+I29+M22+M29+M15</f>
@@ -33620,10 +33620,10 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="19.5" thickBot="1">
-      <c r="A4" s="51" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="52"/>
+      <c r="A4" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="50"/>
       <c r="C4" s="40">
         <f>C2-C3</f>
         <v>0</v>
@@ -33639,25 +33639,25 @@
       </c>
       <c r="B12" s="56"/>
       <c r="C12" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" s="49" t="s">
+      <c r="G12" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="I12" s="5">
         <v>0</v>
       </c>
-      <c r="K12" s="49" t="s">
+      <c r="K12" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="M12" s="5">
         <v>0</v>
@@ -33672,16 +33672,16 @@
       <c r="D13" s="17">
         <v>0</v>
       </c>
-      <c r="G13" s="50"/>
+      <c r="G13" s="48"/>
       <c r="H13" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I13" s="5">
         <v>0</v>
       </c>
-      <c r="K13" s="50"/>
+      <c r="K13" s="48"/>
       <c r="L13" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M13" s="5">
         <v>0</v>
@@ -33696,16 +33696,16 @@
       <c r="D14" s="17">
         <v>0</v>
       </c>
-      <c r="G14" s="50"/>
+      <c r="G14" s="48"/>
       <c r="H14" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I14" s="5">
         <v>0</v>
       </c>
-      <c r="K14" s="50"/>
+      <c r="K14" s="48"/>
       <c r="L14" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M14" s="5">
         <v>0</v>
@@ -33720,17 +33720,17 @@
       <c r="D15" s="17">
         <v>0</v>
       </c>
-      <c r="G15" s="50"/>
+      <c r="G15" s="48"/>
       <c r="H15" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I15" s="5">
         <v>0</v>
       </c>
-      <c r="K15" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="L15" s="52"/>
+      <c r="K15" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="L15" s="50"/>
       <c r="M15" s="7">
         <f>SUM(M12:M14)</f>
         <v>0</v>
@@ -33740,15 +33740,15 @@
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" s="12">
         <f>SUM(D13:D15)</f>
         <v>0</v>
       </c>
-      <c r="G16" s="50"/>
+      <c r="G16" s="48"/>
       <c r="H16" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I16" s="5">
         <v>0</v>
@@ -33757,9 +33757,9 @@
     <row r="17" spans="1:13" ht="16.5" thickBot="1">
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
-      <c r="G17" s="50"/>
+      <c r="G17" s="48"/>
       <c r="H17" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I17" s="5">
         <v>0</v>
@@ -33768,9 +33768,9 @@
     <row r="18" spans="1:13" ht="16.5" thickBot="1">
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
-      <c r="G18" s="50"/>
+      <c r="G18" s="48"/>
       <c r="H18" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I18" s="5">
         <v>0</v>
@@ -33778,27 +33778,27 @@
     </row>
     <row r="19" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
       <c r="A19" s="55" t="s">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="B19" s="56"/>
       <c r="C19" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="G19" s="50"/>
+      <c r="G19" s="48"/>
       <c r="H19" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I19" s="5">
         <v>0</v>
       </c>
-      <c r="K19" s="49" t="s">
+      <c r="K19" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="L19" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="L19" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="M19" s="5">
         <v>0</v>
@@ -33813,16 +33813,16 @@
       <c r="D20" s="17">
         <v>0</v>
       </c>
-      <c r="G20" s="50"/>
+      <c r="G20" s="48"/>
       <c r="H20" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I20" s="5">
         <v>0</v>
       </c>
-      <c r="K20" s="50"/>
+      <c r="K20" s="48"/>
       <c r="L20" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M20" s="5">
         <v>0</v>
@@ -33837,16 +33837,16 @@
       <c r="D21" s="17">
         <v>0</v>
       </c>
-      <c r="G21" s="50"/>
+      <c r="G21" s="48"/>
       <c r="H21" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I21" s="5">
         <v>0</v>
       </c>
-      <c r="K21" s="50"/>
+      <c r="K21" s="48"/>
       <c r="L21" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M21" s="5">
         <v>0</v>
@@ -33861,17 +33861,17 @@
       <c r="D22" s="17">
         <v>0</v>
       </c>
-      <c r="G22" s="50"/>
+      <c r="G22" s="48"/>
       <c r="H22" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" s="5">
+        <v>0</v>
+      </c>
+      <c r="K22" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="I22" s="5">
-        <v>0</v>
-      </c>
-      <c r="K22" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="L22" s="52"/>
+      <c r="L22" s="50"/>
       <c r="M22" s="7">
         <f>SUM(M19:M21)</f>
         <v>0</v>
@@ -33881,16 +33881,16 @@
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" s="12">
         <f>SUM(D20:D22)</f>
         <v>0</v>
       </c>
-      <c r="G23" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="H23" s="52"/>
+      <c r="G23" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" s="50"/>
       <c r="I23" s="7">
         <f>SUM(I12:I22)</f>
         <v>0</v>
@@ -33906,20 +33906,20 @@
     </row>
     <row r="26" spans="1:13" ht="16.5" customHeight="1" thickBot="1">
       <c r="A26" s="55" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B26" s="61"/>
       <c r="C26" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="G26" s="49" t="s">
+      <c r="G26" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="H26" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>20</v>
       </c>
       <c r="I26" s="5">
         <v>0</v>
@@ -33937,9 +33937,9 @@
       <c r="D27" s="17">
         <v>0</v>
       </c>
-      <c r="G27" s="50"/>
+      <c r="G27" s="48"/>
       <c r="H27" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I27" s="5">
         <v>0</v>
@@ -33957,9 +33957,9 @@
       <c r="D28" s="17">
         <v>0</v>
       </c>
-      <c r="G28" s="50"/>
+      <c r="G28" s="48"/>
       <c r="H28" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I28" s="5">
         <v>0</v>
@@ -33977,10 +33977,10 @@
       <c r="D29" s="17">
         <v>0</v>
       </c>
-      <c r="G29" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="H29" s="52"/>
+      <c r="G29" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="H29" s="50"/>
       <c r="I29" s="7">
         <f>SUM(I26:I28)</f>
         <v>0</v>
@@ -33993,7 +33993,7 @@
       <c r="A30" s="1"/>
       <c r="B30" s="2"/>
       <c r="C30" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" s="12">
         <f>SUM(D26:D29)</f>
@@ -34005,7 +34005,7 @@
     </row>
     <row r="32" spans="1:13">
       <c r="G32" s="15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H32" s="16">
         <f>MAX(I12:I22)</f>
@@ -34018,7 +34018,7 @@
     </row>
     <row r="33" spans="7:10">
       <c r="G33" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H33" s="16">
         <f>MAX(M12:M14)</f>
@@ -34031,7 +34031,7 @@
     </row>
     <row r="34" spans="7:10">
       <c r="G34" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H34" s="16">
         <f>MAX(I26:I28)</f>
@@ -34044,7 +34044,7 @@
     </row>
     <row r="35" spans="7:10">
       <c r="G35" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H35" s="16">
         <f>MAX(M19:M21)</f>
@@ -34111,8 +34111,8 @@
       <c r="J51" s="9"/>
     </row>
     <row r="52" spans="8:10" ht="15.75">
-      <c r="H52" s="47"/>
-      <c r="I52" s="48"/>
+      <c r="H52" s="51"/>
+      <c r="I52" s="52"/>
       <c r="J52" s="10"/>
     </row>
   </sheetData>
@@ -34155,8 +34155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:M52"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A5" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13:D15"/>
+    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -34178,10 +34178,10 @@
     <row r="1" spans="1:13" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:13" ht="18.75">
       <c r="A2" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="36" t="s">
         <v>28</v>
-      </c>
-      <c r="B2" s="36" t="s">
-        <v>29</v>
       </c>
       <c r="C2" s="38">
         <f>D16+D23+D30</f>
@@ -34192,7 +34192,7 @@
     <row r="3" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
       <c r="A3" s="28"/>
       <c r="B3" s="39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" s="37">
         <f>I23+I29+M22+M29+M15</f>
@@ -34200,10 +34200,10 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="19.5" thickBot="1">
-      <c r="A4" s="51" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="52"/>
+      <c r="A4" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="50"/>
       <c r="C4" s="40">
         <f>C2-C3</f>
         <v>0</v>
@@ -34219,25 +34219,25 @@
       </c>
       <c r="B12" s="56"/>
       <c r="C12" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" s="49" t="s">
+      <c r="G12" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="I12" s="5">
         <v>0</v>
       </c>
-      <c r="K12" s="49" t="s">
+      <c r="K12" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="M12" s="5">
         <v>0</v>
@@ -34252,16 +34252,16 @@
       <c r="D13" s="17">
         <v>0</v>
       </c>
-      <c r="G13" s="50"/>
+      <c r="G13" s="48"/>
       <c r="H13" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I13" s="5">
         <v>0</v>
       </c>
-      <c r="K13" s="50"/>
+      <c r="K13" s="48"/>
       <c r="L13" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M13" s="5">
         <v>0</v>
@@ -34276,16 +34276,16 @@
       <c r="D14" s="17">
         <v>0</v>
       </c>
-      <c r="G14" s="50"/>
+      <c r="G14" s="48"/>
       <c r="H14" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I14" s="5">
         <v>0</v>
       </c>
-      <c r="K14" s="50"/>
+      <c r="K14" s="48"/>
       <c r="L14" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M14" s="5">
         <v>0</v>
@@ -34300,17 +34300,17 @@
       <c r="D15" s="17">
         <v>0</v>
       </c>
-      <c r="G15" s="50"/>
+      <c r="G15" s="48"/>
       <c r="H15" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I15" s="5">
         <v>0</v>
       </c>
-      <c r="K15" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="L15" s="52"/>
+      <c r="K15" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="L15" s="50"/>
       <c r="M15" s="7">
         <f>SUM(M12:M14)</f>
         <v>0</v>
@@ -34320,15 +34320,15 @@
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" s="12">
         <f>SUM(D13:D15)</f>
         <v>0</v>
       </c>
-      <c r="G16" s="50"/>
+      <c r="G16" s="48"/>
       <c r="H16" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I16" s="5">
         <v>0</v>
@@ -34337,9 +34337,9 @@
     <row r="17" spans="1:13" ht="16.5" thickBot="1">
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
-      <c r="G17" s="50"/>
+      <c r="G17" s="48"/>
       <c r="H17" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I17" s="5">
         <v>0</v>
@@ -34348,9 +34348,9 @@
     <row r="18" spans="1:13" ht="16.5" thickBot="1">
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
-      <c r="G18" s="50"/>
+      <c r="G18" s="48"/>
       <c r="H18" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I18" s="5">
         <v>0</v>
@@ -34358,27 +34358,27 @@
     </row>
     <row r="19" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
       <c r="A19" s="55" t="s">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="B19" s="56"/>
       <c r="C19" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="G19" s="50"/>
+      <c r="G19" s="48"/>
       <c r="H19" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I19" s="5">
         <v>0</v>
       </c>
-      <c r="K19" s="49" t="s">
+      <c r="K19" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="L19" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="L19" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="M19" s="5">
         <v>0</v>
@@ -34393,16 +34393,16 @@
       <c r="D20" s="17">
         <v>0</v>
       </c>
-      <c r="G20" s="50"/>
+      <c r="G20" s="48"/>
       <c r="H20" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I20" s="5">
         <v>0</v>
       </c>
-      <c r="K20" s="50"/>
+      <c r="K20" s="48"/>
       <c r="L20" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M20" s="5">
         <v>0</v>
@@ -34417,16 +34417,16 @@
       <c r="D21" s="17">
         <v>0</v>
       </c>
-      <c r="G21" s="50"/>
+      <c r="G21" s="48"/>
       <c r="H21" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I21" s="5">
         <v>0</v>
       </c>
-      <c r="K21" s="50"/>
+      <c r="K21" s="48"/>
       <c r="L21" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M21" s="5">
         <v>0</v>
@@ -34441,17 +34441,17 @@
       <c r="D22" s="17">
         <v>0</v>
       </c>
-      <c r="G22" s="50"/>
+      <c r="G22" s="48"/>
       <c r="H22" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" s="5">
+        <v>0</v>
+      </c>
+      <c r="K22" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="I22" s="5">
-        <v>0</v>
-      </c>
-      <c r="K22" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="L22" s="52"/>
+      <c r="L22" s="50"/>
       <c r="M22" s="7">
         <f>SUM(M19:M21)</f>
         <v>0</v>
@@ -34461,16 +34461,16 @@
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" s="12">
         <f>SUM(D20:D22)</f>
         <v>0</v>
       </c>
-      <c r="G23" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="H23" s="52"/>
+      <c r="G23" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" s="50"/>
       <c r="I23" s="7">
         <f>SUM(I12:I22)</f>
         <v>0</v>
@@ -34486,20 +34486,20 @@
     </row>
     <row r="26" spans="1:13" ht="16.5" customHeight="1" thickBot="1">
       <c r="A26" s="55" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B26" s="61"/>
       <c r="C26" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="G26" s="49" t="s">
+      <c r="G26" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="H26" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>20</v>
       </c>
       <c r="I26" s="5">
         <v>0</v>
@@ -34517,9 +34517,9 @@
       <c r="D27" s="17">
         <v>0</v>
       </c>
-      <c r="G27" s="50"/>
+      <c r="G27" s="48"/>
       <c r="H27" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I27" s="5">
         <v>0</v>
@@ -34537,9 +34537,9 @@
       <c r="D28" s="17">
         <v>0</v>
       </c>
-      <c r="G28" s="50"/>
+      <c r="G28" s="48"/>
       <c r="H28" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I28" s="5">
         <v>0</v>
@@ -34557,10 +34557,10 @@
       <c r="D29" s="17">
         <v>0</v>
       </c>
-      <c r="G29" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="H29" s="52"/>
+      <c r="G29" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="H29" s="50"/>
       <c r="I29" s="7">
         <f>SUM(I26:I28)</f>
         <v>0</v>
@@ -34573,7 +34573,7 @@
       <c r="A30" s="1"/>
       <c r="B30" s="2"/>
       <c r="C30" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" s="12">
         <f>SUM(D26:D29)</f>
@@ -34585,7 +34585,7 @@
     </row>
     <row r="32" spans="1:13">
       <c r="G32" s="15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H32" s="16">
         <f>MAX(I12:I22)</f>
@@ -34598,7 +34598,7 @@
     </row>
     <row r="33" spans="7:10">
       <c r="G33" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H33" s="16">
         <f>MAX(M12:M14)</f>
@@ -34611,7 +34611,7 @@
     </row>
     <row r="34" spans="7:10">
       <c r="G34" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H34" s="16">
         <f>MAX(I26:I28)</f>
@@ -34624,7 +34624,7 @@
     </row>
     <row r="35" spans="7:10">
       <c r="G35" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H35" s="16">
         <f>MAX(M19:M21)</f>
@@ -34691,8 +34691,8 @@
       <c r="J51" s="9"/>
     </row>
     <row r="52" spans="8:10" ht="15.75">
-      <c r="H52" s="47"/>
-      <c r="I52" s="48"/>
+      <c r="H52" s="51"/>
+      <c r="I52" s="52"/>
       <c r="J52" s="10"/>
     </row>
   </sheetData>

--- a/Planilha Controle(Instagram)/Planilha controle(final).xlsx
+++ b/Planilha Controle(Instagram)/Planilha controle(final).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T-Gamer\Documents\Desenvolvimento 2022\Excel Estudos\Planilha Controle(Instagram)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C96B1ABE-6E57-497F-AE6C-23C478E7BF6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{334F32D5-77EA-4C95-B6B9-BF6FFBF93E1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Menu" sheetId="16" r:id="rId1"/>
@@ -851,6 +851,12 @@
     <xf numFmtId="44" fontId="0" fillId="10" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -859,12 +865,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -26670,7 +26670,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y30"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A6" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
       <selection activeCell="Y26" sqref="Y26"/>
     </sheetView>
   </sheetViews>
@@ -27547,10 +27547,10 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="19.5" thickBot="1">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="50"/>
+      <c r="B4" s="52"/>
       <c r="C4" s="40">
         <f>C2-C3</f>
         <v>0</v>
@@ -27571,7 +27571,7 @@
       <c r="D12" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="47" t="s">
+      <c r="G12" s="49" t="s">
         <v>6</v>
       </c>
       <c r="H12" s="4" t="s">
@@ -27580,7 +27580,7 @@
       <c r="I12" s="5">
         <v>0</v>
       </c>
-      <c r="K12" s="47" t="s">
+      <c r="K12" s="49" t="s">
         <v>20</v>
       </c>
       <c r="L12" s="4" t="s">
@@ -27599,14 +27599,14 @@
       <c r="D13" s="17">
         <v>0</v>
       </c>
-      <c r="G13" s="48"/>
+      <c r="G13" s="50"/>
       <c r="H13" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I13" s="5">
         <v>0</v>
       </c>
-      <c r="K13" s="48"/>
+      <c r="K13" s="50"/>
       <c r="L13" s="3" t="s">
         <v>49</v>
       </c>
@@ -27623,14 +27623,14 @@
       <c r="D14" s="17">
         <v>0</v>
       </c>
-      <c r="G14" s="48"/>
+      <c r="G14" s="50"/>
       <c r="H14" s="3" t="s">
         <v>9</v>
       </c>
       <c r="I14" s="5">
         <v>0</v>
       </c>
-      <c r="K14" s="48"/>
+      <c r="K14" s="50"/>
       <c r="L14" s="6" t="s">
         <v>16</v>
       </c>
@@ -27647,17 +27647,17 @@
       <c r="D15" s="17">
         <v>0</v>
       </c>
-      <c r="G15" s="48"/>
+      <c r="G15" s="50"/>
       <c r="H15" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I15" s="5">
         <v>0</v>
       </c>
-      <c r="K15" s="49" t="s">
+      <c r="K15" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="L15" s="50"/>
+      <c r="L15" s="52"/>
       <c r="M15" s="7">
         <f>SUM(M12:M14)</f>
         <v>0</v>
@@ -27673,7 +27673,7 @@
         <f>SUM(D13:D15)</f>
         <v>0</v>
       </c>
-      <c r="G16" s="48"/>
+      <c r="G16" s="50"/>
       <c r="H16" s="3" t="s">
         <v>11</v>
       </c>
@@ -27684,7 +27684,7 @@
     <row r="17" spans="1:13" ht="16.5" thickBot="1">
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
-      <c r="G17" s="48"/>
+      <c r="G17" s="50"/>
       <c r="H17" s="3" t="s">
         <v>12</v>
       </c>
@@ -27695,7 +27695,7 @@
     <row r="18" spans="1:13" ht="16.5" thickBot="1">
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
-      <c r="G18" s="48"/>
+      <c r="G18" s="50"/>
       <c r="H18" s="3" t="s">
         <v>13</v>
       </c>
@@ -27714,14 +27714,14 @@
       <c r="D19" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="G19" s="48"/>
+      <c r="G19" s="50"/>
       <c r="H19" s="3" t="s">
         <v>14</v>
       </c>
       <c r="I19" s="5">
         <v>0</v>
       </c>
-      <c r="K19" s="47" t="s">
+      <c r="K19" s="49" t="s">
         <v>22</v>
       </c>
       <c r="L19" s="4" t="s">
@@ -27740,14 +27740,14 @@
       <c r="D20" s="17">
         <v>0</v>
       </c>
-      <c r="G20" s="48"/>
+      <c r="G20" s="50"/>
       <c r="H20" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I20" s="5">
         <v>0</v>
       </c>
-      <c r="K20" s="48"/>
+      <c r="K20" s="50"/>
       <c r="L20" s="3" t="s">
         <v>24</v>
       </c>
@@ -27764,14 +27764,14 @@
       <c r="D21" s="17">
         <v>0</v>
       </c>
-      <c r="G21" s="48"/>
+      <c r="G21" s="50"/>
       <c r="H21" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I21" s="5">
         <v>0</v>
       </c>
-      <c r="K21" s="48"/>
+      <c r="K21" s="50"/>
       <c r="L21" s="6" t="s">
         <v>25</v>
       </c>
@@ -27788,17 +27788,17 @@
       <c r="D22" s="17">
         <v>0</v>
       </c>
-      <c r="G22" s="48"/>
+      <c r="G22" s="50"/>
       <c r="H22" s="6" t="s">
         <v>16</v>
       </c>
       <c r="I22" s="5">
         <v>0</v>
       </c>
-      <c r="K22" s="49" t="s">
+      <c r="K22" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="L22" s="50"/>
+      <c r="L22" s="52"/>
       <c r="M22" s="7">
         <f>SUM(M19:M21)</f>
         <v>0</v>
@@ -27814,10 +27814,10 @@
         <f>SUM(D20:D22)</f>
         <v>0</v>
       </c>
-      <c r="G23" s="49" t="s">
+      <c r="G23" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="H23" s="50"/>
+      <c r="H23" s="52"/>
       <c r="I23" s="7">
         <f>SUM(I12:I22)</f>
         <v>0</v>
@@ -27842,7 +27842,7 @@
       <c r="D26" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="G26" s="47" t="s">
+      <c r="G26" s="49" t="s">
         <v>18</v>
       </c>
       <c r="H26" s="4" t="s">
@@ -27864,7 +27864,7 @@
       <c r="D27" s="17">
         <v>0</v>
       </c>
-      <c r="G27" s="48"/>
+      <c r="G27" s="50"/>
       <c r="H27" s="3" t="s">
         <v>50</v>
       </c>
@@ -27884,7 +27884,7 @@
       <c r="D28" s="17">
         <v>0</v>
       </c>
-      <c r="G28" s="48"/>
+      <c r="G28" s="50"/>
       <c r="H28" s="6" t="s">
         <v>16</v>
       </c>
@@ -27904,10 +27904,10 @@
       <c r="D29" s="17">
         <v>0</v>
       </c>
-      <c r="G29" s="49" t="s">
+      <c r="G29" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="H29" s="50"/>
+      <c r="H29" s="52"/>
       <c r="I29" s="7">
         <f>SUM(I26:I28)</f>
         <v>0</v>
@@ -28038,8 +28038,8 @@
       <c r="J51" s="9"/>
     </row>
     <row r="52" spans="8:10" ht="15.75">
-      <c r="H52" s="51"/>
-      <c r="I52" s="52"/>
+      <c r="H52" s="47"/>
+      <c r="I52" s="48"/>
       <c r="J52" s="10"/>
     </row>
   </sheetData>
@@ -28127,10 +28127,10 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="19.5" thickBot="1">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="50"/>
+      <c r="B4" s="52"/>
       <c r="C4" s="40">
         <f>C2-C3</f>
         <v>0</v>
@@ -28151,7 +28151,7 @@
       <c r="D12" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="47" t="s">
+      <c r="G12" s="49" t="s">
         <v>6</v>
       </c>
       <c r="H12" s="4" t="s">
@@ -28160,7 +28160,7 @@
       <c r="I12" s="5">
         <v>0</v>
       </c>
-      <c r="K12" s="47" t="s">
+      <c r="K12" s="49" t="s">
         <v>20</v>
       </c>
       <c r="L12" s="4" t="s">
@@ -28179,14 +28179,14 @@
       <c r="D13" s="17">
         <v>0</v>
       </c>
-      <c r="G13" s="48"/>
+      <c r="G13" s="50"/>
       <c r="H13" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I13" s="5">
         <v>0</v>
       </c>
-      <c r="K13" s="48"/>
+      <c r="K13" s="50"/>
       <c r="L13" s="3" t="s">
         <v>49</v>
       </c>
@@ -28203,14 +28203,14 @@
       <c r="D14" s="17">
         <v>0</v>
       </c>
-      <c r="G14" s="48"/>
+      <c r="G14" s="50"/>
       <c r="H14" s="3" t="s">
         <v>9</v>
       </c>
       <c r="I14" s="5">
         <v>0</v>
       </c>
-      <c r="K14" s="48"/>
+      <c r="K14" s="50"/>
       <c r="L14" s="6" t="s">
         <v>16</v>
       </c>
@@ -28227,17 +28227,17 @@
       <c r="D15" s="17">
         <v>0</v>
       </c>
-      <c r="G15" s="48"/>
+      <c r="G15" s="50"/>
       <c r="H15" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I15" s="5">
         <v>0</v>
       </c>
-      <c r="K15" s="49" t="s">
+      <c r="K15" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="L15" s="50"/>
+      <c r="L15" s="52"/>
       <c r="M15" s="7">
         <f>SUM(M12:M14)</f>
         <v>0</v>
@@ -28253,7 +28253,7 @@
         <f>SUM(D13:D15)</f>
         <v>0</v>
       </c>
-      <c r="G16" s="48"/>
+      <c r="G16" s="50"/>
       <c r="H16" s="3" t="s">
         <v>11</v>
       </c>
@@ -28264,7 +28264,7 @@
     <row r="17" spans="1:13" ht="16.5" thickBot="1">
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
-      <c r="G17" s="48"/>
+      <c r="G17" s="50"/>
       <c r="H17" s="3" t="s">
         <v>12</v>
       </c>
@@ -28275,7 +28275,7 @@
     <row r="18" spans="1:13" ht="16.5" thickBot="1">
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
-      <c r="G18" s="48"/>
+      <c r="G18" s="50"/>
       <c r="H18" s="3" t="s">
         <v>13</v>
       </c>
@@ -28294,14 +28294,14 @@
       <c r="D19" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="G19" s="48"/>
+      <c r="G19" s="50"/>
       <c r="H19" s="3" t="s">
         <v>14</v>
       </c>
       <c r="I19" s="5">
         <v>0</v>
       </c>
-      <c r="K19" s="47" t="s">
+      <c r="K19" s="49" t="s">
         <v>22</v>
       </c>
       <c r="L19" s="4" t="s">
@@ -28320,14 +28320,14 @@
       <c r="D20" s="17">
         <v>0</v>
       </c>
-      <c r="G20" s="48"/>
+      <c r="G20" s="50"/>
       <c r="H20" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I20" s="5">
         <v>0</v>
       </c>
-      <c r="K20" s="48"/>
+      <c r="K20" s="50"/>
       <c r="L20" s="3" t="s">
         <v>24</v>
       </c>
@@ -28344,14 +28344,14 @@
       <c r="D21" s="17">
         <v>0</v>
       </c>
-      <c r="G21" s="48"/>
+      <c r="G21" s="50"/>
       <c r="H21" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I21" s="5">
         <v>0</v>
       </c>
-      <c r="K21" s="48"/>
+      <c r="K21" s="50"/>
       <c r="L21" s="6" t="s">
         <v>25</v>
       </c>
@@ -28368,17 +28368,17 @@
       <c r="D22" s="17">
         <v>0</v>
       </c>
-      <c r="G22" s="48"/>
+      <c r="G22" s="50"/>
       <c r="H22" s="6" t="s">
         <v>16</v>
       </c>
       <c r="I22" s="5">
         <v>0</v>
       </c>
-      <c r="K22" s="49" t="s">
+      <c r="K22" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="L22" s="50"/>
+      <c r="L22" s="52"/>
       <c r="M22" s="7">
         <f>SUM(M19:M21)</f>
         <v>0</v>
@@ -28394,10 +28394,10 @@
         <f>SUM(D20:D22)</f>
         <v>0</v>
       </c>
-      <c r="G23" s="49" t="s">
+      <c r="G23" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="H23" s="50"/>
+      <c r="H23" s="52"/>
       <c r="I23" s="7">
         <f>SUM(I12:I22)</f>
         <v>0</v>
@@ -28422,7 +28422,7 @@
       <c r="D26" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="G26" s="47" t="s">
+      <c r="G26" s="49" t="s">
         <v>18</v>
       </c>
       <c r="H26" s="4" t="s">
@@ -28444,7 +28444,7 @@
       <c r="D27" s="17">
         <v>0</v>
       </c>
-      <c r="G27" s="48"/>
+      <c r="G27" s="50"/>
       <c r="H27" s="3" t="s">
         <v>50</v>
       </c>
@@ -28464,7 +28464,7 @@
       <c r="D28" s="17">
         <v>0</v>
       </c>
-      <c r="G28" s="48"/>
+      <c r="G28" s="50"/>
       <c r="H28" s="6" t="s">
         <v>16</v>
       </c>
@@ -28484,10 +28484,10 @@
       <c r="D29" s="17">
         <v>0</v>
       </c>
-      <c r="G29" s="49" t="s">
+      <c r="G29" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="H29" s="50"/>
+      <c r="H29" s="52"/>
       <c r="I29" s="7">
         <f>SUM(I26:I28)</f>
         <v>0</v>
@@ -28618,8 +28618,8 @@
       <c r="J51" s="9"/>
     </row>
     <row r="52" spans="8:10" ht="15.75">
-      <c r="H52" s="51"/>
-      <c r="I52" s="52"/>
+      <c r="H52" s="47"/>
+      <c r="I52" s="48"/>
       <c r="J52" s="10"/>
     </row>
   </sheetData>
@@ -28707,10 +28707,10 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="19.5" thickBot="1">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="50"/>
+      <c r="B4" s="52"/>
       <c r="C4" s="40">
         <f>C2-C3</f>
         <v>0</v>
@@ -28731,7 +28731,7 @@
       <c r="D12" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="47" t="s">
+      <c r="G12" s="49" t="s">
         <v>6</v>
       </c>
       <c r="H12" s="4" t="s">
@@ -28740,7 +28740,7 @@
       <c r="I12" s="5">
         <v>0</v>
       </c>
-      <c r="K12" s="47" t="s">
+      <c r="K12" s="49" t="s">
         <v>20</v>
       </c>
       <c r="L12" s="4" t="s">
@@ -28759,14 +28759,14 @@
       <c r="D13" s="17">
         <v>0</v>
       </c>
-      <c r="G13" s="48"/>
+      <c r="G13" s="50"/>
       <c r="H13" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I13" s="5">
         <v>0</v>
       </c>
-      <c r="K13" s="48"/>
+      <c r="K13" s="50"/>
       <c r="L13" s="3" t="s">
         <v>49</v>
       </c>
@@ -28783,14 +28783,14 @@
       <c r="D14" s="17">
         <v>0</v>
       </c>
-      <c r="G14" s="48"/>
+      <c r="G14" s="50"/>
       <c r="H14" s="3" t="s">
         <v>9</v>
       </c>
       <c r="I14" s="5">
         <v>0</v>
       </c>
-      <c r="K14" s="48"/>
+      <c r="K14" s="50"/>
       <c r="L14" s="6" t="s">
         <v>16</v>
       </c>
@@ -28807,17 +28807,17 @@
       <c r="D15" s="17">
         <v>0</v>
       </c>
-      <c r="G15" s="48"/>
+      <c r="G15" s="50"/>
       <c r="H15" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I15" s="5">
         <v>0</v>
       </c>
-      <c r="K15" s="49" t="s">
+      <c r="K15" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="L15" s="50"/>
+      <c r="L15" s="52"/>
       <c r="M15" s="7">
         <f>SUM(M12:M14)</f>
         <v>0</v>
@@ -28833,7 +28833,7 @@
         <f>SUM(D13:D15)</f>
         <v>0</v>
       </c>
-      <c r="G16" s="48"/>
+      <c r="G16" s="50"/>
       <c r="H16" s="3" t="s">
         <v>11</v>
       </c>
@@ -28844,7 +28844,7 @@
     <row r="17" spans="1:13" ht="16.5" thickBot="1">
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
-      <c r="G17" s="48"/>
+      <c r="G17" s="50"/>
       <c r="H17" s="3" t="s">
         <v>12</v>
       </c>
@@ -28855,7 +28855,7 @@
     <row r="18" spans="1:13" ht="16.5" thickBot="1">
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
-      <c r="G18" s="48"/>
+      <c r="G18" s="50"/>
       <c r="H18" s="3" t="s">
         <v>13</v>
       </c>
@@ -28874,14 +28874,14 @@
       <c r="D19" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="G19" s="48"/>
+      <c r="G19" s="50"/>
       <c r="H19" s="3" t="s">
         <v>14</v>
       </c>
       <c r="I19" s="5">
         <v>0</v>
       </c>
-      <c r="K19" s="47" t="s">
+      <c r="K19" s="49" t="s">
         <v>22</v>
       </c>
       <c r="L19" s="4" t="s">
@@ -28900,14 +28900,14 @@
       <c r="D20" s="17">
         <v>0</v>
       </c>
-      <c r="G20" s="48"/>
+      <c r="G20" s="50"/>
       <c r="H20" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I20" s="5">
         <v>0</v>
       </c>
-      <c r="K20" s="48"/>
+      <c r="K20" s="50"/>
       <c r="L20" s="3" t="s">
         <v>24</v>
       </c>
@@ -28924,14 +28924,14 @@
       <c r="D21" s="17">
         <v>0</v>
       </c>
-      <c r="G21" s="48"/>
+      <c r="G21" s="50"/>
       <c r="H21" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I21" s="5">
         <v>0</v>
       </c>
-      <c r="K21" s="48"/>
+      <c r="K21" s="50"/>
       <c r="L21" s="6" t="s">
         <v>25</v>
       </c>
@@ -28948,17 +28948,17 @@
       <c r="D22" s="17">
         <v>0</v>
       </c>
-      <c r="G22" s="48"/>
+      <c r="G22" s="50"/>
       <c r="H22" s="6" t="s">
         <v>16</v>
       </c>
       <c r="I22" s="5">
         <v>0</v>
       </c>
-      <c r="K22" s="49" t="s">
+      <c r="K22" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="L22" s="50"/>
+      <c r="L22" s="52"/>
       <c r="M22" s="7">
         <f>SUM(M19:M21)</f>
         <v>0</v>
@@ -28974,10 +28974,10 @@
         <f>SUM(D20:D22)</f>
         <v>0</v>
       </c>
-      <c r="G23" s="49" t="s">
+      <c r="G23" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="H23" s="50"/>
+      <c r="H23" s="52"/>
       <c r="I23" s="7">
         <f>SUM(I12:I22)</f>
         <v>0</v>
@@ -29002,7 +29002,7 @@
       <c r="D26" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="G26" s="47" t="s">
+      <c r="G26" s="49" t="s">
         <v>18</v>
       </c>
       <c r="H26" s="4" t="s">
@@ -29024,7 +29024,7 @@
       <c r="D27" s="17">
         <v>0</v>
       </c>
-      <c r="G27" s="48"/>
+      <c r="G27" s="50"/>
       <c r="H27" s="3" t="s">
         <v>50</v>
       </c>
@@ -29044,7 +29044,7 @@
       <c r="D28" s="17">
         <v>0</v>
       </c>
-      <c r="G28" s="48"/>
+      <c r="G28" s="50"/>
       <c r="H28" s="6" t="s">
         <v>16</v>
       </c>
@@ -29064,10 +29064,10 @@
       <c r="D29" s="17">
         <v>0</v>
       </c>
-      <c r="G29" s="49" t="s">
+      <c r="G29" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="H29" s="50"/>
+      <c r="H29" s="52"/>
       <c r="I29" s="7">
         <f>SUM(I26:I28)</f>
         <v>0</v>
@@ -29198,8 +29198,8 @@
       <c r="J51" s="9"/>
     </row>
     <row r="52" spans="8:10" ht="15.75">
-      <c r="H52" s="51"/>
-      <c r="I52" s="52"/>
+      <c r="H52" s="47"/>
+      <c r="I52" s="48"/>
       <c r="J52" s="10"/>
     </row>
   </sheetData>
@@ -29242,8 +29242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:M52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -29287,10 +29287,10 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="19.5" thickBot="1">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="50"/>
+      <c r="B4" s="52"/>
       <c r="C4" s="40">
         <f>C2-C3</f>
         <v>0</v>
@@ -29311,7 +29311,7 @@
       <c r="D12" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="47" t="s">
+      <c r="G12" s="49" t="s">
         <v>6</v>
       </c>
       <c r="H12" s="4" t="s">
@@ -29320,7 +29320,7 @@
       <c r="I12" s="5">
         <v>0</v>
       </c>
-      <c r="K12" s="47" t="s">
+      <c r="K12" s="49" t="s">
         <v>20</v>
       </c>
       <c r="L12" s="4" t="s">
@@ -29339,14 +29339,14 @@
       <c r="D13" s="17">
         <v>0</v>
       </c>
-      <c r="G13" s="48"/>
+      <c r="G13" s="50"/>
       <c r="H13" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I13" s="5">
         <v>0</v>
       </c>
-      <c r="K13" s="48"/>
+      <c r="K13" s="50"/>
       <c r="L13" s="3" t="s">
         <v>49</v>
       </c>
@@ -29363,14 +29363,14 @@
       <c r="D14" s="17">
         <v>0</v>
       </c>
-      <c r="G14" s="48"/>
+      <c r="G14" s="50"/>
       <c r="H14" s="3" t="s">
         <v>9</v>
       </c>
       <c r="I14" s="5">
         <v>0</v>
       </c>
-      <c r="K14" s="48"/>
+      <c r="K14" s="50"/>
       <c r="L14" s="6" t="s">
         <v>16</v>
       </c>
@@ -29387,17 +29387,17 @@
       <c r="D15" s="17">
         <v>0</v>
       </c>
-      <c r="G15" s="48"/>
+      <c r="G15" s="50"/>
       <c r="H15" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I15" s="5">
         <v>0</v>
       </c>
-      <c r="K15" s="49" t="s">
+      <c r="K15" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="L15" s="50"/>
+      <c r="L15" s="52"/>
       <c r="M15" s="7">
         <f>SUM(M12:M14)</f>
         <v>0</v>
@@ -29413,7 +29413,7 @@
         <f>SUM(D13:D15)</f>
         <v>0</v>
       </c>
-      <c r="G16" s="48"/>
+      <c r="G16" s="50"/>
       <c r="H16" s="3" t="s">
         <v>11</v>
       </c>
@@ -29424,7 +29424,7 @@
     <row r="17" spans="1:13" ht="16.5" thickBot="1">
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
-      <c r="G17" s="48"/>
+      <c r="G17" s="50"/>
       <c r="H17" s="3" t="s">
         <v>12</v>
       </c>
@@ -29435,7 +29435,7 @@
     <row r="18" spans="1:13" ht="16.5" thickBot="1">
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
-      <c r="G18" s="48"/>
+      <c r="G18" s="50"/>
       <c r="H18" s="3" t="s">
         <v>13</v>
       </c>
@@ -29454,14 +29454,14 @@
       <c r="D19" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="G19" s="48"/>
+      <c r="G19" s="50"/>
       <c r="H19" s="3" t="s">
         <v>14</v>
       </c>
       <c r="I19" s="5">
         <v>0</v>
       </c>
-      <c r="K19" s="47" t="s">
+      <c r="K19" s="49" t="s">
         <v>22</v>
       </c>
       <c r="L19" s="4" t="s">
@@ -29480,14 +29480,14 @@
       <c r="D20" s="17">
         <v>0</v>
       </c>
-      <c r="G20" s="48"/>
+      <c r="G20" s="50"/>
       <c r="H20" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I20" s="5">
         <v>0</v>
       </c>
-      <c r="K20" s="48"/>
+      <c r="K20" s="50"/>
       <c r="L20" s="3" t="s">
         <v>24</v>
       </c>
@@ -29504,14 +29504,14 @@
       <c r="D21" s="17">
         <v>0</v>
       </c>
-      <c r="G21" s="48"/>
+      <c r="G21" s="50"/>
       <c r="H21" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I21" s="5">
         <v>0</v>
       </c>
-      <c r="K21" s="48"/>
+      <c r="K21" s="50"/>
       <c r="L21" s="6" t="s">
         <v>25</v>
       </c>
@@ -29528,17 +29528,17 @@
       <c r="D22" s="17">
         <v>0</v>
       </c>
-      <c r="G22" s="48"/>
+      <c r="G22" s="50"/>
       <c r="H22" s="6" t="s">
         <v>16</v>
       </c>
       <c r="I22" s="5">
         <v>0</v>
       </c>
-      <c r="K22" s="49" t="s">
+      <c r="K22" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="L22" s="50"/>
+      <c r="L22" s="52"/>
       <c r="M22" s="7">
         <f>SUM(M19:M21)</f>
         <v>0</v>
@@ -29554,10 +29554,10 @@
         <f>SUM(D20:D22)</f>
         <v>0</v>
       </c>
-      <c r="G23" s="49" t="s">
+      <c r="G23" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="H23" s="50"/>
+      <c r="H23" s="52"/>
       <c r="I23" s="7">
         <f>SUM(I12:I22)</f>
         <v>0</v>
@@ -29582,7 +29582,7 @@
       <c r="D26" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="G26" s="47" t="s">
+      <c r="G26" s="49" t="s">
         <v>18</v>
       </c>
       <c r="H26" s="4" t="s">
@@ -29604,7 +29604,7 @@
       <c r="D27" s="17">
         <v>0</v>
       </c>
-      <c r="G27" s="48"/>
+      <c r="G27" s="50"/>
       <c r="H27" s="3" t="s">
         <v>50</v>
       </c>
@@ -29624,7 +29624,7 @@
       <c r="D28" s="17">
         <v>0</v>
       </c>
-      <c r="G28" s="48"/>
+      <c r="G28" s="50"/>
       <c r="H28" s="6" t="s">
         <v>16</v>
       </c>
@@ -29644,10 +29644,10 @@
       <c r="D29" s="17">
         <v>0</v>
       </c>
-      <c r="G29" s="49" t="s">
+      <c r="G29" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="H29" s="50"/>
+      <c r="H29" s="52"/>
       <c r="I29" s="7">
         <f>SUM(I26:I28)</f>
         <v>0</v>
@@ -29778,8 +29778,8 @@
       <c r="J51" s="9"/>
     </row>
     <row r="52" spans="8:10" ht="15.75">
-      <c r="H52" s="51"/>
-      <c r="I52" s="52"/>
+      <c r="H52" s="47"/>
+      <c r="I52" s="48"/>
       <c r="J52" s="10"/>
     </row>
   </sheetData>
@@ -30140,10 +30140,10 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="19.5" thickBot="1">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="50"/>
+      <c r="B4" s="52"/>
       <c r="C4" s="40">
         <f>C2-C3</f>
         <v>2150</v>
@@ -30164,7 +30164,7 @@
       <c r="D12" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="47" t="s">
+      <c r="G12" s="49" t="s">
         <v>6</v>
       </c>
       <c r="H12" s="4" t="s">
@@ -30173,7 +30173,7 @@
       <c r="I12" s="5">
         <v>500</v>
       </c>
-      <c r="K12" s="47" t="s">
+      <c r="K12" s="49" t="s">
         <v>20</v>
       </c>
       <c r="L12" s="4" t="s">
@@ -30192,14 +30192,14 @@
       <c r="D13" s="17">
         <v>3000</v>
       </c>
-      <c r="G13" s="48"/>
+      <c r="G13" s="50"/>
       <c r="H13" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I13" s="5">
         <v>450</v>
       </c>
-      <c r="K13" s="48"/>
+      <c r="K13" s="50"/>
       <c r="L13" s="3" t="s">
         <v>49</v>
       </c>
@@ -30216,14 +30216,14 @@
       <c r="D14" s="17">
         <v>2000</v>
       </c>
-      <c r="G14" s="48"/>
+      <c r="G14" s="50"/>
       <c r="H14" s="3" t="s">
         <v>9</v>
       </c>
       <c r="I14" s="5">
         <v>160</v>
       </c>
-      <c r="K14" s="48"/>
+      <c r="K14" s="50"/>
       <c r="L14" s="6" t="s">
         <v>16</v>
       </c>
@@ -30240,17 +30240,17 @@
       <c r="D15" s="17">
         <v>0</v>
       </c>
-      <c r="G15" s="48"/>
+      <c r="G15" s="50"/>
       <c r="H15" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I15" s="5">
         <v>160</v>
       </c>
-      <c r="K15" s="49" t="s">
+      <c r="K15" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="L15" s="50"/>
+      <c r="L15" s="52"/>
       <c r="M15" s="7">
         <f>SUM(M12:M14)</f>
         <v>270</v>
@@ -30266,7 +30266,7 @@
         <f>SUM(D13:D15)</f>
         <v>5000</v>
       </c>
-      <c r="G16" s="48"/>
+      <c r="G16" s="50"/>
       <c r="H16" s="3" t="s">
         <v>11</v>
       </c>
@@ -30277,7 +30277,7 @@
     <row r="17" spans="1:13" ht="16.5" thickBot="1">
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
-      <c r="G17" s="48"/>
+      <c r="G17" s="50"/>
       <c r="H17" s="3" t="s">
         <v>12</v>
       </c>
@@ -30288,7 +30288,7 @@
     <row r="18" spans="1:13" ht="16.5" thickBot="1">
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
-      <c r="G18" s="48"/>
+      <c r="G18" s="50"/>
       <c r="H18" s="3" t="s">
         <v>13</v>
       </c>
@@ -30307,14 +30307,14 @@
       <c r="D19" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="G19" s="48"/>
+      <c r="G19" s="50"/>
       <c r="H19" s="3" t="s">
         <v>14</v>
       </c>
       <c r="I19" s="5">
         <v>300</v>
       </c>
-      <c r="K19" s="47" t="s">
+      <c r="K19" s="49" t="s">
         <v>22</v>
       </c>
       <c r="L19" s="4" t="s">
@@ -30333,14 +30333,14 @@
       <c r="D20" s="17">
         <v>0</v>
       </c>
-      <c r="G20" s="48"/>
+      <c r="G20" s="50"/>
       <c r="H20" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I20" s="5">
         <v>550</v>
       </c>
-      <c r="K20" s="48"/>
+      <c r="K20" s="50"/>
       <c r="L20" s="3" t="s">
         <v>24</v>
       </c>
@@ -30357,14 +30357,14 @@
       <c r="D21" s="17">
         <v>0</v>
       </c>
-      <c r="G21" s="48"/>
+      <c r="G21" s="50"/>
       <c r="H21" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I21" s="5">
         <v>0</v>
       </c>
-      <c r="K21" s="48"/>
+      <c r="K21" s="50"/>
       <c r="L21" s="6" t="s">
         <v>25</v>
       </c>
@@ -30381,17 +30381,17 @@
       <c r="D22" s="17">
         <v>0</v>
       </c>
-      <c r="G22" s="48"/>
+      <c r="G22" s="50"/>
       <c r="H22" s="6" t="s">
         <v>16</v>
       </c>
       <c r="I22" s="5">
         <v>0</v>
       </c>
-      <c r="K22" s="49" t="s">
+      <c r="K22" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="L22" s="50"/>
+      <c r="L22" s="52"/>
       <c r="M22" s="7">
         <f>SUM(M19:M21)</f>
         <v>200</v>
@@ -30407,10 +30407,10 @@
         <f>SUM(D20:D22)</f>
         <v>0</v>
       </c>
-      <c r="G23" s="49" t="s">
+      <c r="G23" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="H23" s="50"/>
+      <c r="H23" s="52"/>
       <c r="I23" s="7">
         <f>SUM(I12:I22)</f>
         <v>2380</v>
@@ -30435,7 +30435,7 @@
       <c r="D26" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="G26" s="47" t="s">
+      <c r="G26" s="49" t="s">
         <v>18</v>
       </c>
       <c r="H26" s="4" t="s">
@@ -30457,7 +30457,7 @@
       <c r="D27" s="17">
         <v>0</v>
       </c>
-      <c r="G27" s="48"/>
+      <c r="G27" s="50"/>
       <c r="H27" s="3" t="s">
         <v>50</v>
       </c>
@@ -30477,7 +30477,7 @@
       <c r="D28" s="17">
         <v>0</v>
       </c>
-      <c r="G28" s="48"/>
+      <c r="G28" s="50"/>
       <c r="H28" s="6" t="s">
         <v>16</v>
       </c>
@@ -30497,10 +30497,10 @@
       <c r="D29" s="17">
         <v>0</v>
       </c>
-      <c r="G29" s="49" t="s">
+      <c r="G29" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="H29" s="50"/>
+      <c r="H29" s="52"/>
       <c r="I29" s="7">
         <f>SUM(I26:I28)</f>
         <v>0</v>
@@ -30631,12 +30631,17 @@
       <c r="J51" s="9"/>
     </row>
     <row r="52" spans="8:10" ht="15.75">
-      <c r="H52" s="51"/>
-      <c r="I52" s="52"/>
+      <c r="H52" s="47"/>
+      <c r="I52" s="48"/>
       <c r="J52" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="K12:K14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K19:K21"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="A4:B4"/>
     <mergeCell ref="H52:I52"/>
     <mergeCell ref="G26:G28"/>
     <mergeCell ref="G29:H29"/>
@@ -30646,11 +30651,6 @@
     <mergeCell ref="A26:B29"/>
     <mergeCell ref="G12:G22"/>
     <mergeCell ref="G23:H23"/>
-    <mergeCell ref="K12:K14"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K19:K21"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="A4:B4"/>
   </mergeCells>
   <conditionalFormatting sqref="C4">
     <cfRule type="cellIs" dxfId="168" priority="1" operator="greaterThan">
@@ -30720,10 +30720,10 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="19.5" thickBot="1">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="50"/>
+      <c r="B4" s="52"/>
       <c r="C4" s="40">
         <f>C2-C3</f>
         <v>0</v>
@@ -30744,7 +30744,7 @@
       <c r="D12" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="47" t="s">
+      <c r="G12" s="49" t="s">
         <v>6</v>
       </c>
       <c r="H12" s="4" t="s">
@@ -30753,7 +30753,7 @@
       <c r="I12" s="5">
         <v>0</v>
       </c>
-      <c r="K12" s="47" t="s">
+      <c r="K12" s="49" t="s">
         <v>20</v>
       </c>
       <c r="L12" s="4" t="s">
@@ -30772,14 +30772,14 @@
       <c r="D13" s="17">
         <v>0</v>
       </c>
-      <c r="G13" s="48"/>
+      <c r="G13" s="50"/>
       <c r="H13" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I13" s="5">
         <v>0</v>
       </c>
-      <c r="K13" s="48"/>
+      <c r="K13" s="50"/>
       <c r="L13" s="3" t="s">
         <v>49</v>
       </c>
@@ -30796,14 +30796,14 @@
       <c r="D14" s="17">
         <v>0</v>
       </c>
-      <c r="G14" s="48"/>
+      <c r="G14" s="50"/>
       <c r="H14" s="3" t="s">
         <v>9</v>
       </c>
       <c r="I14" s="5">
         <v>0</v>
       </c>
-      <c r="K14" s="48"/>
+      <c r="K14" s="50"/>
       <c r="L14" s="6" t="s">
         <v>16</v>
       </c>
@@ -30820,17 +30820,17 @@
       <c r="D15" s="17">
         <v>0</v>
       </c>
-      <c r="G15" s="48"/>
+      <c r="G15" s="50"/>
       <c r="H15" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I15" s="5">
         <v>0</v>
       </c>
-      <c r="K15" s="49" t="s">
+      <c r="K15" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="L15" s="50"/>
+      <c r="L15" s="52"/>
       <c r="M15" s="7">
         <f>SUM(M12:M14)</f>
         <v>0</v>
@@ -30846,7 +30846,7 @@
         <f>SUM(D13:D15)</f>
         <v>0</v>
       </c>
-      <c r="G16" s="48"/>
+      <c r="G16" s="50"/>
       <c r="H16" s="3" t="s">
         <v>11</v>
       </c>
@@ -30857,7 +30857,7 @@
     <row r="17" spans="1:13" ht="16.5" thickBot="1">
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
-      <c r="G17" s="48"/>
+      <c r="G17" s="50"/>
       <c r="H17" s="3" t="s">
         <v>12</v>
       </c>
@@ -30868,7 +30868,7 @@
     <row r="18" spans="1:13" ht="16.5" thickBot="1">
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
-      <c r="G18" s="48"/>
+      <c r="G18" s="50"/>
       <c r="H18" s="3" t="s">
         <v>13</v>
       </c>
@@ -30887,14 +30887,14 @@
       <c r="D19" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="G19" s="48"/>
+      <c r="G19" s="50"/>
       <c r="H19" s="3" t="s">
         <v>14</v>
       </c>
       <c r="I19" s="5">
         <v>0</v>
       </c>
-      <c r="K19" s="47" t="s">
+      <c r="K19" s="49" t="s">
         <v>22</v>
       </c>
       <c r="L19" s="4" t="s">
@@ -30913,14 +30913,14 @@
       <c r="D20" s="17">
         <v>0</v>
       </c>
-      <c r="G20" s="48"/>
+      <c r="G20" s="50"/>
       <c r="H20" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I20" s="5">
         <v>0</v>
       </c>
-      <c r="K20" s="48"/>
+      <c r="K20" s="50"/>
       <c r="L20" s="3" t="s">
         <v>24</v>
       </c>
@@ -30937,14 +30937,14 @@
       <c r="D21" s="17">
         <v>0</v>
       </c>
-      <c r="G21" s="48"/>
+      <c r="G21" s="50"/>
       <c r="H21" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I21" s="5">
         <v>0</v>
       </c>
-      <c r="K21" s="48"/>
+      <c r="K21" s="50"/>
       <c r="L21" s="6" t="s">
         <v>25</v>
       </c>
@@ -30961,17 +30961,17 @@
       <c r="D22" s="17">
         <v>0</v>
       </c>
-      <c r="G22" s="48"/>
+      <c r="G22" s="50"/>
       <c r="H22" s="6" t="s">
         <v>16</v>
       </c>
       <c r="I22" s="5">
         <v>0</v>
       </c>
-      <c r="K22" s="49" t="s">
+      <c r="K22" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="L22" s="50"/>
+      <c r="L22" s="52"/>
       <c r="M22" s="7">
         <f>SUM(M19:M21)</f>
         <v>0</v>
@@ -30987,10 +30987,10 @@
         <f>SUM(D20:D22)</f>
         <v>0</v>
       </c>
-      <c r="G23" s="49" t="s">
+      <c r="G23" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="H23" s="50"/>
+      <c r="H23" s="52"/>
       <c r="I23" s="7">
         <f>SUM(I12:I22)</f>
         <v>0</v>
@@ -31015,7 +31015,7 @@
       <c r="D26" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="G26" s="47" t="s">
+      <c r="G26" s="49" t="s">
         <v>18</v>
       </c>
       <c r="H26" s="4" t="s">
@@ -31037,7 +31037,7 @@
       <c r="D27" s="17">
         <v>0</v>
       </c>
-      <c r="G27" s="48"/>
+      <c r="G27" s="50"/>
       <c r="H27" s="3" t="s">
         <v>50</v>
       </c>
@@ -31057,7 +31057,7 @@
       <c r="D28" s="17">
         <v>0</v>
       </c>
-      <c r="G28" s="48"/>
+      <c r="G28" s="50"/>
       <c r="H28" s="6" t="s">
         <v>16</v>
       </c>
@@ -31077,10 +31077,10 @@
       <c r="D29" s="17">
         <v>0</v>
       </c>
-      <c r="G29" s="49" t="s">
+      <c r="G29" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="H29" s="50"/>
+      <c r="H29" s="52"/>
       <c r="I29" s="7">
         <f>SUM(I26:I28)</f>
         <v>0</v>
@@ -31211,8 +31211,8 @@
       <c r="J51" s="9"/>
     </row>
     <row r="52" spans="8:10" ht="15.75">
-      <c r="H52" s="51"/>
-      <c r="I52" s="52"/>
+      <c r="H52" s="47"/>
+      <c r="I52" s="48"/>
       <c r="J52" s="10"/>
     </row>
   </sheetData>
@@ -31300,10 +31300,10 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="19.5" thickBot="1">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="50"/>
+      <c r="B4" s="52"/>
       <c r="C4" s="40">
         <f>C2-C3</f>
         <v>0</v>
@@ -31324,7 +31324,7 @@
       <c r="D12" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="47" t="s">
+      <c r="G12" s="49" t="s">
         <v>6</v>
       </c>
       <c r="H12" s="4" t="s">
@@ -31333,7 +31333,7 @@
       <c r="I12" s="5">
         <v>0</v>
       </c>
-      <c r="K12" s="47" t="s">
+      <c r="K12" s="49" t="s">
         <v>20</v>
       </c>
       <c r="L12" s="4" t="s">
@@ -31352,14 +31352,14 @@
       <c r="D13" s="17">
         <v>0</v>
       </c>
-      <c r="G13" s="48"/>
+      <c r="G13" s="50"/>
       <c r="H13" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I13" s="5">
         <v>0</v>
       </c>
-      <c r="K13" s="48"/>
+      <c r="K13" s="50"/>
       <c r="L13" s="3" t="s">
         <v>49</v>
       </c>
@@ -31376,14 +31376,14 @@
       <c r="D14" s="17">
         <v>0</v>
       </c>
-      <c r="G14" s="48"/>
+      <c r="G14" s="50"/>
       <c r="H14" s="3" t="s">
         <v>9</v>
       </c>
       <c r="I14" s="5">
         <v>0</v>
       </c>
-      <c r="K14" s="48"/>
+      <c r="K14" s="50"/>
       <c r="L14" s="6" t="s">
         <v>16</v>
       </c>
@@ -31400,17 +31400,17 @@
       <c r="D15" s="17">
         <v>0</v>
       </c>
-      <c r="G15" s="48"/>
+      <c r="G15" s="50"/>
       <c r="H15" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I15" s="5">
         <v>0</v>
       </c>
-      <c r="K15" s="49" t="s">
+      <c r="K15" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="L15" s="50"/>
+      <c r="L15" s="52"/>
       <c r="M15" s="7">
         <f>SUM(M12:M14)</f>
         <v>0</v>
@@ -31426,7 +31426,7 @@
         <f>SUM(D13:D15)</f>
         <v>0</v>
       </c>
-      <c r="G16" s="48"/>
+      <c r="G16" s="50"/>
       <c r="H16" s="3" t="s">
         <v>11</v>
       </c>
@@ -31437,7 +31437,7 @@
     <row r="17" spans="1:13" ht="16.5" thickBot="1">
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
-      <c r="G17" s="48"/>
+      <c r="G17" s="50"/>
       <c r="H17" s="3" t="s">
         <v>12</v>
       </c>
@@ -31448,7 +31448,7 @@
     <row r="18" spans="1:13" ht="16.5" thickBot="1">
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
-      <c r="G18" s="48"/>
+      <c r="G18" s="50"/>
       <c r="H18" s="3" t="s">
         <v>13</v>
       </c>
@@ -31467,14 +31467,14 @@
       <c r="D19" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="G19" s="48"/>
+      <c r="G19" s="50"/>
       <c r="H19" s="3" t="s">
         <v>14</v>
       </c>
       <c r="I19" s="5">
         <v>0</v>
       </c>
-      <c r="K19" s="47" t="s">
+      <c r="K19" s="49" t="s">
         <v>22</v>
       </c>
       <c r="L19" s="4" t="s">
@@ -31493,14 +31493,14 @@
       <c r="D20" s="17">
         <v>0</v>
       </c>
-      <c r="G20" s="48"/>
+      <c r="G20" s="50"/>
       <c r="H20" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I20" s="5">
         <v>0</v>
       </c>
-      <c r="K20" s="48"/>
+      <c r="K20" s="50"/>
       <c r="L20" s="3" t="s">
         <v>24</v>
       </c>
@@ -31517,14 +31517,14 @@
       <c r="D21" s="17">
         <v>0</v>
       </c>
-      <c r="G21" s="48"/>
+      <c r="G21" s="50"/>
       <c r="H21" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I21" s="5">
         <v>0</v>
       </c>
-      <c r="K21" s="48"/>
+      <c r="K21" s="50"/>
       <c r="L21" s="6" t="s">
         <v>25</v>
       </c>
@@ -31541,17 +31541,17 @@
       <c r="D22" s="17">
         <v>0</v>
       </c>
-      <c r="G22" s="48"/>
+      <c r="G22" s="50"/>
       <c r="H22" s="6" t="s">
         <v>16</v>
       </c>
       <c r="I22" s="5">
         <v>0</v>
       </c>
-      <c r="K22" s="49" t="s">
+      <c r="K22" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="L22" s="50"/>
+      <c r="L22" s="52"/>
       <c r="M22" s="7">
         <f>SUM(M19:M21)</f>
         <v>0</v>
@@ -31567,10 +31567,10 @@
         <f>SUM(D20:D22)</f>
         <v>0</v>
       </c>
-      <c r="G23" s="49" t="s">
+      <c r="G23" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="H23" s="50"/>
+      <c r="H23" s="52"/>
       <c r="I23" s="7">
         <f>SUM(I12:I22)</f>
         <v>0</v>
@@ -31595,7 +31595,7 @@
       <c r="D26" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="G26" s="47" t="s">
+      <c r="G26" s="49" t="s">
         <v>18</v>
       </c>
       <c r="H26" s="4" t="s">
@@ -31617,7 +31617,7 @@
       <c r="D27" s="17">
         <v>0</v>
       </c>
-      <c r="G27" s="48"/>
+      <c r="G27" s="50"/>
       <c r="H27" s="3" t="s">
         <v>50</v>
       </c>
@@ -31637,7 +31637,7 @@
       <c r="D28" s="17">
         <v>0</v>
       </c>
-      <c r="G28" s="48"/>
+      <c r="G28" s="50"/>
       <c r="H28" s="6" t="s">
         <v>16</v>
       </c>
@@ -31657,10 +31657,10 @@
       <c r="D29" s="17">
         <v>0</v>
       </c>
-      <c r="G29" s="49" t="s">
+      <c r="G29" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="H29" s="50"/>
+      <c r="H29" s="52"/>
       <c r="I29" s="7">
         <f>SUM(I26:I28)</f>
         <v>0</v>
@@ -31791,8 +31791,8 @@
       <c r="J51" s="9"/>
     </row>
     <row r="52" spans="8:10" ht="15.75">
-      <c r="H52" s="51"/>
-      <c r="I52" s="52"/>
+      <c r="H52" s="47"/>
+      <c r="I52" s="48"/>
       <c r="J52" s="10"/>
     </row>
   </sheetData>
@@ -31880,10 +31880,10 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="19.5" thickBot="1">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="50"/>
+      <c r="B4" s="52"/>
       <c r="C4" s="40">
         <f>C2-C3</f>
         <v>0</v>
@@ -31904,7 +31904,7 @@
       <c r="D12" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="47" t="s">
+      <c r="G12" s="49" t="s">
         <v>6</v>
       </c>
       <c r="H12" s="4" t="s">
@@ -31913,7 +31913,7 @@
       <c r="I12" s="5">
         <v>0</v>
       </c>
-      <c r="K12" s="47" t="s">
+      <c r="K12" s="49" t="s">
         <v>20</v>
       </c>
       <c r="L12" s="4" t="s">
@@ -31932,14 +31932,14 @@
       <c r="D13" s="17">
         <v>0</v>
       </c>
-      <c r="G13" s="48"/>
+      <c r="G13" s="50"/>
       <c r="H13" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I13" s="5">
         <v>0</v>
       </c>
-      <c r="K13" s="48"/>
+      <c r="K13" s="50"/>
       <c r="L13" s="3" t="s">
         <v>49</v>
       </c>
@@ -31956,14 +31956,14 @@
       <c r="D14" s="17">
         <v>0</v>
       </c>
-      <c r="G14" s="48"/>
+      <c r="G14" s="50"/>
       <c r="H14" s="3" t="s">
         <v>9</v>
       </c>
       <c r="I14" s="5">
         <v>0</v>
       </c>
-      <c r="K14" s="48"/>
+      <c r="K14" s="50"/>
       <c r="L14" s="6" t="s">
         <v>16</v>
       </c>
@@ -31980,17 +31980,17 @@
       <c r="D15" s="17">
         <v>0</v>
       </c>
-      <c r="G15" s="48"/>
+      <c r="G15" s="50"/>
       <c r="H15" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I15" s="5">
         <v>0</v>
       </c>
-      <c r="K15" s="49" t="s">
+      <c r="K15" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="L15" s="50"/>
+      <c r="L15" s="52"/>
       <c r="M15" s="7">
         <f>SUM(M12:M14)</f>
         <v>0</v>
@@ -32006,7 +32006,7 @@
         <f>SUM(D13:D15)</f>
         <v>0</v>
       </c>
-      <c r="G16" s="48"/>
+      <c r="G16" s="50"/>
       <c r="H16" s="3" t="s">
         <v>11</v>
       </c>
@@ -32017,7 +32017,7 @@
     <row r="17" spans="1:13" ht="16.5" thickBot="1">
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
-      <c r="G17" s="48"/>
+      <c r="G17" s="50"/>
       <c r="H17" s="3" t="s">
         <v>12</v>
       </c>
@@ -32028,7 +32028,7 @@
     <row r="18" spans="1:13" ht="16.5" thickBot="1">
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
-      <c r="G18" s="48"/>
+      <c r="G18" s="50"/>
       <c r="H18" s="3" t="s">
         <v>13</v>
       </c>
@@ -32047,14 +32047,14 @@
       <c r="D19" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="G19" s="48"/>
+      <c r="G19" s="50"/>
       <c r="H19" s="3" t="s">
         <v>14</v>
       </c>
       <c r="I19" s="5">
         <v>0</v>
       </c>
-      <c r="K19" s="47" t="s">
+      <c r="K19" s="49" t="s">
         <v>22</v>
       </c>
       <c r="L19" s="4" t="s">
@@ -32073,14 +32073,14 @@
       <c r="D20" s="17">
         <v>0</v>
       </c>
-      <c r="G20" s="48"/>
+      <c r="G20" s="50"/>
       <c r="H20" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I20" s="5">
         <v>0</v>
       </c>
-      <c r="K20" s="48"/>
+      <c r="K20" s="50"/>
       <c r="L20" s="3" t="s">
         <v>24</v>
       </c>
@@ -32097,14 +32097,14 @@
       <c r="D21" s="17">
         <v>0</v>
       </c>
-      <c r="G21" s="48"/>
+      <c r="G21" s="50"/>
       <c r="H21" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I21" s="5">
         <v>0</v>
       </c>
-      <c r="K21" s="48"/>
+      <c r="K21" s="50"/>
       <c r="L21" s="6" t="s">
         <v>25</v>
       </c>
@@ -32121,17 +32121,17 @@
       <c r="D22" s="17">
         <v>0</v>
       </c>
-      <c r="G22" s="48"/>
+      <c r="G22" s="50"/>
       <c r="H22" s="6" t="s">
         <v>16</v>
       </c>
       <c r="I22" s="5">
         <v>0</v>
       </c>
-      <c r="K22" s="49" t="s">
+      <c r="K22" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="L22" s="50"/>
+      <c r="L22" s="52"/>
       <c r="M22" s="7">
         <f>SUM(M19:M21)</f>
         <v>0</v>
@@ -32147,10 +32147,10 @@
         <f>SUM(D20:D22)</f>
         <v>0</v>
       </c>
-      <c r="G23" s="49" t="s">
+      <c r="G23" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="H23" s="50"/>
+      <c r="H23" s="52"/>
       <c r="I23" s="7">
         <f>SUM(I12:I22)</f>
         <v>0</v>
@@ -32175,7 +32175,7 @@
       <c r="D26" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="G26" s="47" t="s">
+      <c r="G26" s="49" t="s">
         <v>18</v>
       </c>
       <c r="H26" s="4" t="s">
@@ -32197,7 +32197,7 @@
       <c r="D27" s="17">
         <v>0</v>
       </c>
-      <c r="G27" s="48"/>
+      <c r="G27" s="50"/>
       <c r="H27" s="3" t="s">
         <v>50</v>
       </c>
@@ -32217,7 +32217,7 @@
       <c r="D28" s="17">
         <v>0</v>
       </c>
-      <c r="G28" s="48"/>
+      <c r="G28" s="50"/>
       <c r="H28" s="6" t="s">
         <v>16</v>
       </c>
@@ -32237,10 +32237,10 @@
       <c r="D29" s="17">
         <v>0</v>
       </c>
-      <c r="G29" s="49" t="s">
+      <c r="G29" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="H29" s="50"/>
+      <c r="H29" s="52"/>
       <c r="I29" s="7">
         <f>SUM(I26:I28)</f>
         <v>0</v>
@@ -32371,8 +32371,8 @@
       <c r="J51" s="9"/>
     </row>
     <row r="52" spans="8:10" ht="15.75">
-      <c r="H52" s="51"/>
-      <c r="I52" s="52"/>
+      <c r="H52" s="47"/>
+      <c r="I52" s="48"/>
       <c r="J52" s="10"/>
     </row>
   </sheetData>
@@ -32460,10 +32460,10 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="19.5" thickBot="1">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="50"/>
+      <c r="B4" s="52"/>
       <c r="C4" s="40">
         <f>C2-C3</f>
         <v>1400</v>
@@ -32484,7 +32484,7 @@
       <c r="D12" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="47" t="s">
+      <c r="G12" s="49" t="s">
         <v>6</v>
       </c>
       <c r="H12" s="4" t="s">
@@ -32493,7 +32493,7 @@
       <c r="I12" s="5">
         <v>0</v>
       </c>
-      <c r="K12" s="47" t="s">
+      <c r="K12" s="49" t="s">
         <v>20</v>
       </c>
       <c r="L12" s="4" t="s">
@@ -32512,14 +32512,14 @@
       <c r="D13" s="17">
         <v>1400</v>
       </c>
-      <c r="G13" s="48"/>
+      <c r="G13" s="50"/>
       <c r="H13" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I13" s="5">
         <v>0</v>
       </c>
-      <c r="K13" s="48"/>
+      <c r="K13" s="50"/>
       <c r="L13" s="3" t="s">
         <v>49</v>
       </c>
@@ -32536,14 +32536,14 @@
       <c r="D14" s="17">
         <v>0</v>
       </c>
-      <c r="G14" s="48"/>
+      <c r="G14" s="50"/>
       <c r="H14" s="3" t="s">
         <v>9</v>
       </c>
       <c r="I14" s="5">
         <v>0</v>
       </c>
-      <c r="K14" s="48"/>
+      <c r="K14" s="50"/>
       <c r="L14" s="6" t="s">
         <v>16</v>
       </c>
@@ -32560,17 +32560,17 @@
       <c r="D15" s="17">
         <v>0</v>
       </c>
-      <c r="G15" s="48"/>
+      <c r="G15" s="50"/>
       <c r="H15" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I15" s="5">
         <v>0</v>
       </c>
-      <c r="K15" s="49" t="s">
+      <c r="K15" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="L15" s="50"/>
+      <c r="L15" s="52"/>
       <c r="M15" s="7">
         <f>SUM(M12:M14)</f>
         <v>0</v>
@@ -32586,7 +32586,7 @@
         <f>SUM(D13:D15)</f>
         <v>1400</v>
       </c>
-      <c r="G16" s="48"/>
+      <c r="G16" s="50"/>
       <c r="H16" s="3" t="s">
         <v>11</v>
       </c>
@@ -32597,7 +32597,7 @@
     <row r="17" spans="1:13" ht="16.5" thickBot="1">
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
-      <c r="G17" s="48"/>
+      <c r="G17" s="50"/>
       <c r="H17" s="3" t="s">
         <v>12</v>
       </c>
@@ -32608,7 +32608,7 @@
     <row r="18" spans="1:13" ht="16.5" thickBot="1">
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
-      <c r="G18" s="48"/>
+      <c r="G18" s="50"/>
       <c r="H18" s="3" t="s">
         <v>13</v>
       </c>
@@ -32627,14 +32627,14 @@
       <c r="D19" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="G19" s="48"/>
+      <c r="G19" s="50"/>
       <c r="H19" s="3" t="s">
         <v>14</v>
       </c>
       <c r="I19" s="5">
         <v>0</v>
       </c>
-      <c r="K19" s="47" t="s">
+      <c r="K19" s="49" t="s">
         <v>22</v>
       </c>
       <c r="L19" s="4" t="s">
@@ -32653,14 +32653,14 @@
       <c r="D20" s="17">
         <v>0</v>
       </c>
-      <c r="G20" s="48"/>
+      <c r="G20" s="50"/>
       <c r="H20" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I20" s="5">
         <v>0</v>
       </c>
-      <c r="K20" s="48"/>
+      <c r="K20" s="50"/>
       <c r="L20" s="3" t="s">
         <v>24</v>
       </c>
@@ -32677,14 +32677,14 @@
       <c r="D21" s="17">
         <v>0</v>
       </c>
-      <c r="G21" s="48"/>
+      <c r="G21" s="50"/>
       <c r="H21" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I21" s="5">
         <v>0</v>
       </c>
-      <c r="K21" s="48"/>
+      <c r="K21" s="50"/>
       <c r="L21" s="6" t="s">
         <v>25</v>
       </c>
@@ -32701,17 +32701,17 @@
       <c r="D22" s="17">
         <v>0</v>
       </c>
-      <c r="G22" s="48"/>
+      <c r="G22" s="50"/>
       <c r="H22" s="6" t="s">
         <v>16</v>
       </c>
       <c r="I22" s="5">
         <v>0</v>
       </c>
-      <c r="K22" s="49" t="s">
+      <c r="K22" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="L22" s="50"/>
+      <c r="L22" s="52"/>
       <c r="M22" s="7">
         <f>SUM(M19:M21)</f>
         <v>0</v>
@@ -32727,10 +32727,10 @@
         <f>SUM(D20:D22)</f>
         <v>0</v>
       </c>
-      <c r="G23" s="49" t="s">
+      <c r="G23" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="H23" s="50"/>
+      <c r="H23" s="52"/>
       <c r="I23" s="7">
         <f>SUM(I12:I22)</f>
         <v>0</v>
@@ -32755,7 +32755,7 @@
       <c r="D26" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="G26" s="47" t="s">
+      <c r="G26" s="49" t="s">
         <v>18</v>
       </c>
       <c r="H26" s="4" t="s">
@@ -32777,7 +32777,7 @@
       <c r="D27" s="17">
         <v>0</v>
       </c>
-      <c r="G27" s="48"/>
+      <c r="G27" s="50"/>
       <c r="H27" s="3" t="s">
         <v>50</v>
       </c>
@@ -32797,7 +32797,7 @@
       <c r="D28" s="17">
         <v>0</v>
       </c>
-      <c r="G28" s="48"/>
+      <c r="G28" s="50"/>
       <c r="H28" s="6" t="s">
         <v>16</v>
       </c>
@@ -32817,10 +32817,10 @@
       <c r="D29" s="17">
         <v>0</v>
       </c>
-      <c r="G29" s="49" t="s">
+      <c r="G29" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="H29" s="50"/>
+      <c r="H29" s="52"/>
       <c r="I29" s="7">
         <f>SUM(I26:I28)</f>
         <v>0</v>
@@ -32951,8 +32951,8 @@
       <c r="J51" s="9"/>
     </row>
     <row r="52" spans="8:10" ht="15.75">
-      <c r="H52" s="51"/>
-      <c r="I52" s="52"/>
+      <c r="H52" s="47"/>
+      <c r="I52" s="48"/>
       <c r="J52" s="10"/>
     </row>
   </sheetData>
@@ -33040,10 +33040,10 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="19.5" thickBot="1">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="50"/>
+      <c r="B4" s="52"/>
       <c r="C4" s="40">
         <f>C2-C3</f>
         <v>4500</v>
@@ -33064,7 +33064,7 @@
       <c r="D12" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="47" t="s">
+      <c r="G12" s="49" t="s">
         <v>6</v>
       </c>
       <c r="H12" s="4" t="s">
@@ -33073,7 +33073,7 @@
       <c r="I12" s="5">
         <v>0</v>
       </c>
-      <c r="K12" s="47" t="s">
+      <c r="K12" s="49" t="s">
         <v>20</v>
       </c>
       <c r="L12" s="4" t="s">
@@ -33092,14 +33092,14 @@
       <c r="D13" s="17">
         <v>2000</v>
       </c>
-      <c r="G13" s="48"/>
+      <c r="G13" s="50"/>
       <c r="H13" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I13" s="5">
         <v>0</v>
       </c>
-      <c r="K13" s="48"/>
+      <c r="K13" s="50"/>
       <c r="L13" s="3" t="s">
         <v>49</v>
       </c>
@@ -33116,14 +33116,14 @@
       <c r="D14" s="17">
         <v>1000</v>
       </c>
-      <c r="G14" s="48"/>
+      <c r="G14" s="50"/>
       <c r="H14" s="3" t="s">
         <v>9</v>
       </c>
       <c r="I14" s="5">
         <v>0</v>
       </c>
-      <c r="K14" s="48"/>
+      <c r="K14" s="50"/>
       <c r="L14" s="6" t="s">
         <v>16</v>
       </c>
@@ -33140,17 +33140,17 @@
       <c r="D15" s="17">
         <v>1500</v>
       </c>
-      <c r="G15" s="48"/>
+      <c r="G15" s="50"/>
       <c r="H15" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I15" s="5">
         <v>0</v>
       </c>
-      <c r="K15" s="49" t="s">
+      <c r="K15" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="L15" s="50"/>
+      <c r="L15" s="52"/>
       <c r="M15" s="7">
         <f>SUM(M12:M14)</f>
         <v>0</v>
@@ -33166,7 +33166,7 @@
         <f>SUM(D13:D15)</f>
         <v>4500</v>
       </c>
-      <c r="G16" s="48"/>
+      <c r="G16" s="50"/>
       <c r="H16" s="3" t="s">
         <v>11</v>
       </c>
@@ -33177,7 +33177,7 @@
     <row r="17" spans="1:13" ht="16.5" thickBot="1">
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
-      <c r="G17" s="48"/>
+      <c r="G17" s="50"/>
       <c r="H17" s="3" t="s">
         <v>12</v>
       </c>
@@ -33188,7 +33188,7 @@
     <row r="18" spans="1:13" ht="16.5" thickBot="1">
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
-      <c r="G18" s="48"/>
+      <c r="G18" s="50"/>
       <c r="H18" s="3" t="s">
         <v>13</v>
       </c>
@@ -33207,14 +33207,14 @@
       <c r="D19" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="G19" s="48"/>
+      <c r="G19" s="50"/>
       <c r="H19" s="3" t="s">
         <v>14</v>
       </c>
       <c r="I19" s="5">
         <v>0</v>
       </c>
-      <c r="K19" s="47" t="s">
+      <c r="K19" s="49" t="s">
         <v>22</v>
       </c>
       <c r="L19" s="4" t="s">
@@ -33233,14 +33233,14 @@
       <c r="D20" s="17">
         <v>0</v>
       </c>
-      <c r="G20" s="48"/>
+      <c r="G20" s="50"/>
       <c r="H20" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I20" s="5">
         <v>0</v>
       </c>
-      <c r="K20" s="48"/>
+      <c r="K20" s="50"/>
       <c r="L20" s="3" t="s">
         <v>24</v>
       </c>
@@ -33257,14 +33257,14 @@
       <c r="D21" s="17">
         <v>0</v>
       </c>
-      <c r="G21" s="48"/>
+      <c r="G21" s="50"/>
       <c r="H21" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I21" s="5">
         <v>0</v>
       </c>
-      <c r="K21" s="48"/>
+      <c r="K21" s="50"/>
       <c r="L21" s="6" t="s">
         <v>25</v>
       </c>
@@ -33281,17 +33281,17 @@
       <c r="D22" s="17">
         <v>0</v>
       </c>
-      <c r="G22" s="48"/>
+      <c r="G22" s="50"/>
       <c r="H22" s="6" t="s">
         <v>16</v>
       </c>
       <c r="I22" s="5">
         <v>0</v>
       </c>
-      <c r="K22" s="49" t="s">
+      <c r="K22" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="L22" s="50"/>
+      <c r="L22" s="52"/>
       <c r="M22" s="7">
         <f>SUM(M19:M21)</f>
         <v>0</v>
@@ -33307,10 +33307,10 @@
         <f>SUM(D20:D22)</f>
         <v>0</v>
       </c>
-      <c r="G23" s="49" t="s">
+      <c r="G23" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="H23" s="50"/>
+      <c r="H23" s="52"/>
       <c r="I23" s="7">
         <f>SUM(I12:I22)</f>
         <v>0</v>
@@ -33335,7 +33335,7 @@
       <c r="D26" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="G26" s="47" t="s">
+      <c r="G26" s="49" t="s">
         <v>18</v>
       </c>
       <c r="H26" s="4" t="s">
@@ -33357,7 +33357,7 @@
       <c r="D27" s="17">
         <v>0</v>
       </c>
-      <c r="G27" s="48"/>
+      <c r="G27" s="50"/>
       <c r="H27" s="3" t="s">
         <v>50</v>
       </c>
@@ -33377,7 +33377,7 @@
       <c r="D28" s="17">
         <v>0</v>
       </c>
-      <c r="G28" s="48"/>
+      <c r="G28" s="50"/>
       <c r="H28" s="6" t="s">
         <v>16</v>
       </c>
@@ -33397,10 +33397,10 @@
       <c r="D29" s="17">
         <v>0</v>
       </c>
-      <c r="G29" s="49" t="s">
+      <c r="G29" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="H29" s="50"/>
+      <c r="H29" s="52"/>
       <c r="I29" s="7">
         <f>SUM(I26:I28)</f>
         <v>0</v>
@@ -33531,8 +33531,8 @@
       <c r="J51" s="9"/>
     </row>
     <row r="52" spans="8:10" ht="15.75">
-      <c r="H52" s="51"/>
-      <c r="I52" s="52"/>
+      <c r="H52" s="47"/>
+      <c r="I52" s="48"/>
       <c r="J52" s="10"/>
     </row>
   </sheetData>
@@ -33620,10 +33620,10 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="19.5" thickBot="1">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="50"/>
+      <c r="B4" s="52"/>
       <c r="C4" s="40">
         <f>C2-C3</f>
         <v>0</v>
@@ -33644,7 +33644,7 @@
       <c r="D12" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="47" t="s">
+      <c r="G12" s="49" t="s">
         <v>6</v>
       </c>
       <c r="H12" s="4" t="s">
@@ -33653,7 +33653,7 @@
       <c r="I12" s="5">
         <v>0</v>
       </c>
-      <c r="K12" s="47" t="s">
+      <c r="K12" s="49" t="s">
         <v>20</v>
       </c>
       <c r="L12" s="4" t="s">
@@ -33672,14 +33672,14 @@
       <c r="D13" s="17">
         <v>0</v>
       </c>
-      <c r="G13" s="48"/>
+      <c r="G13" s="50"/>
       <c r="H13" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I13" s="5">
         <v>0</v>
       </c>
-      <c r="K13" s="48"/>
+      <c r="K13" s="50"/>
       <c r="L13" s="3" t="s">
         <v>49</v>
       </c>
@@ -33696,14 +33696,14 @@
       <c r="D14" s="17">
         <v>0</v>
       </c>
-      <c r="G14" s="48"/>
+      <c r="G14" s="50"/>
       <c r="H14" s="3" t="s">
         <v>9</v>
       </c>
       <c r="I14" s="5">
         <v>0</v>
       </c>
-      <c r="K14" s="48"/>
+      <c r="K14" s="50"/>
       <c r="L14" s="6" t="s">
         <v>16</v>
       </c>
@@ -33720,17 +33720,17 @@
       <c r="D15" s="17">
         <v>0</v>
       </c>
-      <c r="G15" s="48"/>
+      <c r="G15" s="50"/>
       <c r="H15" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I15" s="5">
         <v>0</v>
       </c>
-      <c r="K15" s="49" t="s">
+      <c r="K15" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="L15" s="50"/>
+      <c r="L15" s="52"/>
       <c r="M15" s="7">
         <f>SUM(M12:M14)</f>
         <v>0</v>
@@ -33746,7 +33746,7 @@
         <f>SUM(D13:D15)</f>
         <v>0</v>
       </c>
-      <c r="G16" s="48"/>
+      <c r="G16" s="50"/>
       <c r="H16" s="3" t="s">
         <v>11</v>
       </c>
@@ -33757,7 +33757,7 @@
     <row r="17" spans="1:13" ht="16.5" thickBot="1">
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
-      <c r="G17" s="48"/>
+      <c r="G17" s="50"/>
       <c r="H17" s="3" t="s">
         <v>12</v>
       </c>
@@ -33768,7 +33768,7 @@
     <row r="18" spans="1:13" ht="16.5" thickBot="1">
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
-      <c r="G18" s="48"/>
+      <c r="G18" s="50"/>
       <c r="H18" s="3" t="s">
         <v>13</v>
       </c>
@@ -33787,14 +33787,14 @@
       <c r="D19" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="G19" s="48"/>
+      <c r="G19" s="50"/>
       <c r="H19" s="3" t="s">
         <v>14</v>
       </c>
       <c r="I19" s="5">
         <v>0</v>
       </c>
-      <c r="K19" s="47" t="s">
+      <c r="K19" s="49" t="s">
         <v>22</v>
       </c>
       <c r="L19" s="4" t="s">
@@ -33813,14 +33813,14 @@
       <c r="D20" s="17">
         <v>0</v>
       </c>
-      <c r="G20" s="48"/>
+      <c r="G20" s="50"/>
       <c r="H20" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I20" s="5">
         <v>0</v>
       </c>
-      <c r="K20" s="48"/>
+      <c r="K20" s="50"/>
       <c r="L20" s="3" t="s">
         <v>24</v>
       </c>
@@ -33837,14 +33837,14 @@
       <c r="D21" s="17">
         <v>0</v>
       </c>
-      <c r="G21" s="48"/>
+      <c r="G21" s="50"/>
       <c r="H21" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I21" s="5">
         <v>0</v>
       </c>
-      <c r="K21" s="48"/>
+      <c r="K21" s="50"/>
       <c r="L21" s="6" t="s">
         <v>25</v>
       </c>
@@ -33861,17 +33861,17 @@
       <c r="D22" s="17">
         <v>0</v>
       </c>
-      <c r="G22" s="48"/>
+      <c r="G22" s="50"/>
       <c r="H22" s="6" t="s">
         <v>16</v>
       </c>
       <c r="I22" s="5">
         <v>0</v>
       </c>
-      <c r="K22" s="49" t="s">
+      <c r="K22" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="L22" s="50"/>
+      <c r="L22" s="52"/>
       <c r="M22" s="7">
         <f>SUM(M19:M21)</f>
         <v>0</v>
@@ -33887,10 +33887,10 @@
         <f>SUM(D20:D22)</f>
         <v>0</v>
       </c>
-      <c r="G23" s="49" t="s">
+      <c r="G23" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="H23" s="50"/>
+      <c r="H23" s="52"/>
       <c r="I23" s="7">
         <f>SUM(I12:I22)</f>
         <v>0</v>
@@ -33915,7 +33915,7 @@
       <c r="D26" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="G26" s="47" t="s">
+      <c r="G26" s="49" t="s">
         <v>18</v>
       </c>
       <c r="H26" s="4" t="s">
@@ -33937,7 +33937,7 @@
       <c r="D27" s="17">
         <v>0</v>
       </c>
-      <c r="G27" s="48"/>
+      <c r="G27" s="50"/>
       <c r="H27" s="3" t="s">
         <v>50</v>
       </c>
@@ -33957,7 +33957,7 @@
       <c r="D28" s="17">
         <v>0</v>
       </c>
-      <c r="G28" s="48"/>
+      <c r="G28" s="50"/>
       <c r="H28" s="6" t="s">
         <v>16</v>
       </c>
@@ -33977,10 +33977,10 @@
       <c r="D29" s="17">
         <v>0</v>
       </c>
-      <c r="G29" s="49" t="s">
+      <c r="G29" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="H29" s="50"/>
+      <c r="H29" s="52"/>
       <c r="I29" s="7">
         <f>SUM(I26:I28)</f>
         <v>0</v>
@@ -34111,8 +34111,8 @@
       <c r="J51" s="9"/>
     </row>
     <row r="52" spans="8:10" ht="15.75">
-      <c r="H52" s="51"/>
-      <c r="I52" s="52"/>
+      <c r="H52" s="47"/>
+      <c r="I52" s="48"/>
       <c r="J52" s="10"/>
     </row>
   </sheetData>
@@ -34200,10 +34200,10 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="19.5" thickBot="1">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="50"/>
+      <c r="B4" s="52"/>
       <c r="C4" s="40">
         <f>C2-C3</f>
         <v>0</v>
@@ -34224,7 +34224,7 @@
       <c r="D12" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="47" t="s">
+      <c r="G12" s="49" t="s">
         <v>6</v>
       </c>
       <c r="H12" s="4" t="s">
@@ -34233,7 +34233,7 @@
       <c r="I12" s="5">
         <v>0</v>
       </c>
-      <c r="K12" s="47" t="s">
+      <c r="K12" s="49" t="s">
         <v>20</v>
       </c>
       <c r="L12" s="4" t="s">
@@ -34252,14 +34252,14 @@
       <c r="D13" s="17">
         <v>0</v>
       </c>
-      <c r="G13" s="48"/>
+      <c r="G13" s="50"/>
       <c r="H13" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I13" s="5">
         <v>0</v>
       </c>
-      <c r="K13" s="48"/>
+      <c r="K13" s="50"/>
       <c r="L13" s="3" t="s">
         <v>49</v>
       </c>
@@ -34276,14 +34276,14 @@
       <c r="D14" s="17">
         <v>0</v>
       </c>
-      <c r="G14" s="48"/>
+      <c r="G14" s="50"/>
       <c r="H14" s="3" t="s">
         <v>9</v>
       </c>
       <c r="I14" s="5">
         <v>0</v>
       </c>
-      <c r="K14" s="48"/>
+      <c r="K14" s="50"/>
       <c r="L14" s="6" t="s">
         <v>16</v>
       </c>
@@ -34300,17 +34300,17 @@
       <c r="D15" s="17">
         <v>0</v>
       </c>
-      <c r="G15" s="48"/>
+      <c r="G15" s="50"/>
       <c r="H15" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I15" s="5">
         <v>0</v>
       </c>
-      <c r="K15" s="49" t="s">
+      <c r="K15" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="L15" s="50"/>
+      <c r="L15" s="52"/>
       <c r="M15" s="7">
         <f>SUM(M12:M14)</f>
         <v>0</v>
@@ -34326,7 +34326,7 @@
         <f>SUM(D13:D15)</f>
         <v>0</v>
       </c>
-      <c r="G16" s="48"/>
+      <c r="G16" s="50"/>
       <c r="H16" s="3" t="s">
         <v>11</v>
       </c>
@@ -34337,7 +34337,7 @@
     <row r="17" spans="1:13" ht="16.5" thickBot="1">
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
-      <c r="G17" s="48"/>
+      <c r="G17" s="50"/>
       <c r="H17" s="3" t="s">
         <v>12</v>
       </c>
@@ -34348,7 +34348,7 @@
     <row r="18" spans="1:13" ht="16.5" thickBot="1">
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
-      <c r="G18" s="48"/>
+      <c r="G18" s="50"/>
       <c r="H18" s="3" t="s">
         <v>13</v>
       </c>
@@ -34367,14 +34367,14 @@
       <c r="D19" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="G19" s="48"/>
+      <c r="G19" s="50"/>
       <c r="H19" s="3" t="s">
         <v>14</v>
       </c>
       <c r="I19" s="5">
         <v>0</v>
       </c>
-      <c r="K19" s="47" t="s">
+      <c r="K19" s="49" t="s">
         <v>22</v>
       </c>
       <c r="L19" s="4" t="s">
@@ -34393,14 +34393,14 @@
       <c r="D20" s="17">
         <v>0</v>
       </c>
-      <c r="G20" s="48"/>
+      <c r="G20" s="50"/>
       <c r="H20" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I20" s="5">
         <v>0</v>
       </c>
-      <c r="K20" s="48"/>
+      <c r="K20" s="50"/>
       <c r="L20" s="3" t="s">
         <v>24</v>
       </c>
@@ -34417,14 +34417,14 @@
       <c r="D21" s="17">
         <v>0</v>
       </c>
-      <c r="G21" s="48"/>
+      <c r="G21" s="50"/>
       <c r="H21" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I21" s="5">
         <v>0</v>
       </c>
-      <c r="K21" s="48"/>
+      <c r="K21" s="50"/>
       <c r="L21" s="6" t="s">
         <v>25</v>
       </c>
@@ -34441,17 +34441,17 @@
       <c r="D22" s="17">
         <v>0</v>
       </c>
-      <c r="G22" s="48"/>
+      <c r="G22" s="50"/>
       <c r="H22" s="6" t="s">
         <v>16</v>
       </c>
       <c r="I22" s="5">
         <v>0</v>
       </c>
-      <c r="K22" s="49" t="s">
+      <c r="K22" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="L22" s="50"/>
+      <c r="L22" s="52"/>
       <c r="M22" s="7">
         <f>SUM(M19:M21)</f>
         <v>0</v>
@@ -34467,10 +34467,10 @@
         <f>SUM(D20:D22)</f>
         <v>0</v>
       </c>
-      <c r="G23" s="49" t="s">
+      <c r="G23" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="H23" s="50"/>
+      <c r="H23" s="52"/>
       <c r="I23" s="7">
         <f>SUM(I12:I22)</f>
         <v>0</v>
@@ -34495,7 +34495,7 @@
       <c r="D26" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="G26" s="47" t="s">
+      <c r="G26" s="49" t="s">
         <v>18</v>
       </c>
       <c r="H26" s="4" t="s">
@@ -34517,7 +34517,7 @@
       <c r="D27" s="17">
         <v>0</v>
       </c>
-      <c r="G27" s="48"/>
+      <c r="G27" s="50"/>
       <c r="H27" s="3" t="s">
         <v>50</v>
       </c>
@@ -34537,7 +34537,7 @@
       <c r="D28" s="17">
         <v>0</v>
       </c>
-      <c r="G28" s="48"/>
+      <c r="G28" s="50"/>
       <c r="H28" s="6" t="s">
         <v>16</v>
       </c>
@@ -34557,10 +34557,10 @@
       <c r="D29" s="17">
         <v>0</v>
       </c>
-      <c r="G29" s="49" t="s">
+      <c r="G29" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="H29" s="50"/>
+      <c r="H29" s="52"/>
       <c r="I29" s="7">
         <f>SUM(I26:I28)</f>
         <v>0</v>
@@ -34691,8 +34691,8 @@
       <c r="J51" s="9"/>
     </row>
     <row r="52" spans="8:10" ht="15.75">
-      <c r="H52" s="51"/>
-      <c r="I52" s="52"/>
+      <c r="H52" s="47"/>
+      <c r="I52" s="48"/>
       <c r="J52" s="10"/>
     </row>
   </sheetData>

--- a/Planilha Controle(Instagram)/Planilha controle(final).xlsx
+++ b/Planilha Controle(Instagram)/Planilha controle(final).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T-Gamer\Documents\Desenvolvimento 2022\Excel Estudos\Planilha Controle(Instagram)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{334F32D5-77EA-4C95-B6B9-BF6FFBF93E1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1083E2DE-0C44-476F-BB41-9B67F8D0A12E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Menu" sheetId="16" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="55">
   <si>
     <t>Salário</t>
   </si>
@@ -230,6 +230,9 @@
   </si>
   <si>
     <t>Renda Passiva</t>
+  </si>
+  <si>
+    <t>Empregados</t>
   </si>
 </sst>
 </file>
@@ -851,12 +854,6 @@
     <xf numFmtId="44" fontId="0" fillId="10" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -865,6 +862,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4457,7 +4460,7 @@
                 <a:endParaRPr lang="pt-BR"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="b"/>
+            <c:dLblPos val="t"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -4536,16 +4539,16 @@
                 <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>2150</c:v>
+                  <c:v>-750</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>660</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>-30</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1400</c:v>
@@ -4818,7 +4821,7 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Aluguel</c:v>
+                  <c:v>Condomínio</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>IPVA</c:v>
@@ -4839,16 +4842,16 @@
                 <c:formatCode>"R$"\ #,##0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4910,7 +4913,7 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Aluguel</c:v>
+                  <c:v>Condomínio</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>IPVA</c:v>
@@ -8099,10 +8102,10 @@
                 <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2850</c:v>
+                  <c:v>7468</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10900</c:v>
+                  <c:v>14250</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10716,16 +10719,16 @@
                 <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>2150</c:v>
+                  <c:v>-750</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>660</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>-30</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1400</c:v>
@@ -11072,7 +11075,7 @@
                 <c:formatCode>"R$"\ #,##0.00</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>5000</c:v>
+                  <c:v>2100</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2850</c:v>
@@ -11720,10 +11723,10 @@
                 <c:formatCode>"R$"\ #,##0.00</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2550</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1890</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11947,10 +11950,10 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Aluguel</c:v>
+                  <c:v>Supermercado</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>IPVA</c:v>
+                  <c:v>Manutenção</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Remédios</c:v>
@@ -11968,13 +11971,13 @@
                 <c:formatCode>"R$"\ #,##0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -12039,10 +12042,10 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Aluguel</c:v>
+                  <c:v>Supermercado</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>IPVA</c:v>
+                  <c:v>Manutenção</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Remédios</c:v>
@@ -12368,10 +12371,10 @@
                 <c:formatCode>"R$"\ #,##0.00</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1800</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>798</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12616,7 +12619,7 @@
                 <c:formatCode>"R$"\ #,##0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -12625,7 +12628,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13016,10 +13019,10 @@
                 <c:formatCode>"R$"\ #,##0.00</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1900</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16815,9 +16818,9 @@
         <xdr:grpSpPr>
           <a:xfrm>
             <a:off x="6297665" y="1818647"/>
-            <a:ext cx="7756071" cy="2835682"/>
+            <a:ext cx="7756071" cy="3080412"/>
             <a:chOff x="4877284" y="438969"/>
-            <a:chExt cx="7651096" cy="2278317"/>
+            <a:chExt cx="7651096" cy="2474944"/>
           </a:xfrm>
           <a:effectLst>
             <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
@@ -16887,7 +16890,7 @@
           </xdr:nvGraphicFramePr>
           <xdr:xfrm>
             <a:off x="5067036" y="521822"/>
-            <a:ext cx="7292548" cy="2163049"/>
+            <a:ext cx="7292548" cy="2392091"/>
           </xdr:xfrm>
           <a:graphic>
             <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -20505,8 +20508,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2778952" y="1400453"/>
-          <a:ext cx="4537376" cy="2400495"/>
+          <a:off x="2776338" y="1403763"/>
+          <a:ext cx="4545739" cy="2398057"/>
           <a:chOff x="2275548" y="1272226"/>
           <a:chExt cx="4519726" cy="2293841"/>
         </a:xfrm>
@@ -20611,8 +20614,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7546715" y="1405971"/>
-          <a:ext cx="7103139" cy="2984671"/>
+          <a:off x="7555775" y="1409281"/>
+          <a:ext cx="7110631" cy="2989201"/>
           <a:chOff x="7025208" y="1277744"/>
           <a:chExt cx="6675830" cy="2693456"/>
         </a:xfrm>
@@ -26670,7 +26673,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A12" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
       <selection activeCell="Y26" sqref="Y26"/>
     </sheetView>
   </sheetViews>
@@ -27547,10 +27550,10 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="19.5" thickBot="1">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="52"/>
+      <c r="B4" s="50"/>
       <c r="C4" s="40">
         <f>C2-C3</f>
         <v>0</v>
@@ -27571,7 +27574,7 @@
       <c r="D12" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="49" t="s">
+      <c r="G12" s="47" t="s">
         <v>6</v>
       </c>
       <c r="H12" s="4" t="s">
@@ -27580,7 +27583,7 @@
       <c r="I12" s="5">
         <v>0</v>
       </c>
-      <c r="K12" s="49" t="s">
+      <c r="K12" s="47" t="s">
         <v>20</v>
       </c>
       <c r="L12" s="4" t="s">
@@ -27599,14 +27602,14 @@
       <c r="D13" s="17">
         <v>0</v>
       </c>
-      <c r="G13" s="50"/>
+      <c r="G13" s="48"/>
       <c r="H13" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I13" s="5">
         <v>0</v>
       </c>
-      <c r="K13" s="50"/>
+      <c r="K13" s="48"/>
       <c r="L13" s="3" t="s">
         <v>49</v>
       </c>
@@ -27623,14 +27626,14 @@
       <c r="D14" s="17">
         <v>0</v>
       </c>
-      <c r="G14" s="50"/>
+      <c r="G14" s="48"/>
       <c r="H14" s="3" t="s">
         <v>9</v>
       </c>
       <c r="I14" s="5">
         <v>0</v>
       </c>
-      <c r="K14" s="50"/>
+      <c r="K14" s="48"/>
       <c r="L14" s="6" t="s">
         <v>16</v>
       </c>
@@ -27647,17 +27650,17 @@
       <c r="D15" s="17">
         <v>0</v>
       </c>
-      <c r="G15" s="50"/>
+      <c r="G15" s="48"/>
       <c r="H15" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I15" s="5">
         <v>0</v>
       </c>
-      <c r="K15" s="51" t="s">
+      <c r="K15" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="L15" s="52"/>
+      <c r="L15" s="50"/>
       <c r="M15" s="7">
         <f>SUM(M12:M14)</f>
         <v>0</v>
@@ -27673,7 +27676,7 @@
         <f>SUM(D13:D15)</f>
         <v>0</v>
       </c>
-      <c r="G16" s="50"/>
+      <c r="G16" s="48"/>
       <c r="H16" s="3" t="s">
         <v>11</v>
       </c>
@@ -27684,7 +27687,7 @@
     <row r="17" spans="1:13" ht="16.5" thickBot="1">
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
-      <c r="G17" s="50"/>
+      <c r="G17" s="48"/>
       <c r="H17" s="3" t="s">
         <v>12</v>
       </c>
@@ -27695,7 +27698,7 @@
     <row r="18" spans="1:13" ht="16.5" thickBot="1">
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
-      <c r="G18" s="50"/>
+      <c r="G18" s="48"/>
       <c r="H18" s="3" t="s">
         <v>13</v>
       </c>
@@ -27714,14 +27717,14 @@
       <c r="D19" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="G19" s="50"/>
+      <c r="G19" s="48"/>
       <c r="H19" s="3" t="s">
         <v>14</v>
       </c>
       <c r="I19" s="5">
         <v>0</v>
       </c>
-      <c r="K19" s="49" t="s">
+      <c r="K19" s="47" t="s">
         <v>22</v>
       </c>
       <c r="L19" s="4" t="s">
@@ -27740,14 +27743,14 @@
       <c r="D20" s="17">
         <v>0</v>
       </c>
-      <c r="G20" s="50"/>
+      <c r="G20" s="48"/>
       <c r="H20" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I20" s="5">
         <v>0</v>
       </c>
-      <c r="K20" s="50"/>
+      <c r="K20" s="48"/>
       <c r="L20" s="3" t="s">
         <v>24</v>
       </c>
@@ -27764,14 +27767,14 @@
       <c r="D21" s="17">
         <v>0</v>
       </c>
-      <c r="G21" s="50"/>
+      <c r="G21" s="48"/>
       <c r="H21" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I21" s="5">
         <v>0</v>
       </c>
-      <c r="K21" s="50"/>
+      <c r="K21" s="48"/>
       <c r="L21" s="6" t="s">
         <v>25</v>
       </c>
@@ -27788,17 +27791,17 @@
       <c r="D22" s="17">
         <v>0</v>
       </c>
-      <c r="G22" s="50"/>
+      <c r="G22" s="48"/>
       <c r="H22" s="6" t="s">
         <v>16</v>
       </c>
       <c r="I22" s="5">
         <v>0</v>
       </c>
-      <c r="K22" s="51" t="s">
+      <c r="K22" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="L22" s="52"/>
+      <c r="L22" s="50"/>
       <c r="M22" s="7">
         <f>SUM(M19:M21)</f>
         <v>0</v>
@@ -27814,10 +27817,10 @@
         <f>SUM(D20:D22)</f>
         <v>0</v>
       </c>
-      <c r="G23" s="51" t="s">
+      <c r="G23" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="H23" s="52"/>
+      <c r="H23" s="50"/>
       <c r="I23" s="7">
         <f>SUM(I12:I22)</f>
         <v>0</v>
@@ -27842,7 +27845,7 @@
       <c r="D26" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="G26" s="49" t="s">
+      <c r="G26" s="47" t="s">
         <v>18</v>
       </c>
       <c r="H26" s="4" t="s">
@@ -27864,7 +27867,7 @@
       <c r="D27" s="17">
         <v>0</v>
       </c>
-      <c r="G27" s="50"/>
+      <c r="G27" s="48"/>
       <c r="H27" s="3" t="s">
         <v>50</v>
       </c>
@@ -27884,7 +27887,7 @@
       <c r="D28" s="17">
         <v>0</v>
       </c>
-      <c r="G28" s="50"/>
+      <c r="G28" s="48"/>
       <c r="H28" s="6" t="s">
         <v>16</v>
       </c>
@@ -27904,10 +27907,10 @@
       <c r="D29" s="17">
         <v>0</v>
       </c>
-      <c r="G29" s="51" t="s">
+      <c r="G29" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="H29" s="52"/>
+      <c r="H29" s="50"/>
       <c r="I29" s="7">
         <f>SUM(I26:I28)</f>
         <v>0</v>
@@ -28038,8 +28041,8 @@
       <c r="J51" s="9"/>
     </row>
     <row r="52" spans="8:10" ht="15.75">
-      <c r="H52" s="47"/>
-      <c r="I52" s="48"/>
+      <c r="H52" s="51"/>
+      <c r="I52" s="52"/>
       <c r="J52" s="10"/>
     </row>
   </sheetData>
@@ -28127,10 +28130,10 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="19.5" thickBot="1">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="52"/>
+      <c r="B4" s="50"/>
       <c r="C4" s="40">
         <f>C2-C3</f>
         <v>0</v>
@@ -28151,7 +28154,7 @@
       <c r="D12" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="49" t="s">
+      <c r="G12" s="47" t="s">
         <v>6</v>
       </c>
       <c r="H12" s="4" t="s">
@@ -28160,7 +28163,7 @@
       <c r="I12" s="5">
         <v>0</v>
       </c>
-      <c r="K12" s="49" t="s">
+      <c r="K12" s="47" t="s">
         <v>20</v>
       </c>
       <c r="L12" s="4" t="s">
@@ -28179,14 +28182,14 @@
       <c r="D13" s="17">
         <v>0</v>
       </c>
-      <c r="G13" s="50"/>
+      <c r="G13" s="48"/>
       <c r="H13" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I13" s="5">
         <v>0</v>
       </c>
-      <c r="K13" s="50"/>
+      <c r="K13" s="48"/>
       <c r="L13" s="3" t="s">
         <v>49</v>
       </c>
@@ -28203,14 +28206,14 @@
       <c r="D14" s="17">
         <v>0</v>
       </c>
-      <c r="G14" s="50"/>
+      <c r="G14" s="48"/>
       <c r="H14" s="3" t="s">
         <v>9</v>
       </c>
       <c r="I14" s="5">
         <v>0</v>
       </c>
-      <c r="K14" s="50"/>
+      <c r="K14" s="48"/>
       <c r="L14" s="6" t="s">
         <v>16</v>
       </c>
@@ -28227,17 +28230,17 @@
       <c r="D15" s="17">
         <v>0</v>
       </c>
-      <c r="G15" s="50"/>
+      <c r="G15" s="48"/>
       <c r="H15" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I15" s="5">
         <v>0</v>
       </c>
-      <c r="K15" s="51" t="s">
+      <c r="K15" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="L15" s="52"/>
+      <c r="L15" s="50"/>
       <c r="M15" s="7">
         <f>SUM(M12:M14)</f>
         <v>0</v>
@@ -28253,7 +28256,7 @@
         <f>SUM(D13:D15)</f>
         <v>0</v>
       </c>
-      <c r="G16" s="50"/>
+      <c r="G16" s="48"/>
       <c r="H16" s="3" t="s">
         <v>11</v>
       </c>
@@ -28264,7 +28267,7 @@
     <row r="17" spans="1:13" ht="16.5" thickBot="1">
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
-      <c r="G17" s="50"/>
+      <c r="G17" s="48"/>
       <c r="H17" s="3" t="s">
         <v>12</v>
       </c>
@@ -28275,7 +28278,7 @@
     <row r="18" spans="1:13" ht="16.5" thickBot="1">
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
-      <c r="G18" s="50"/>
+      <c r="G18" s="48"/>
       <c r="H18" s="3" t="s">
         <v>13</v>
       </c>
@@ -28294,14 +28297,14 @@
       <c r="D19" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="G19" s="50"/>
+      <c r="G19" s="48"/>
       <c r="H19" s="3" t="s">
         <v>14</v>
       </c>
       <c r="I19" s="5">
         <v>0</v>
       </c>
-      <c r="K19" s="49" t="s">
+      <c r="K19" s="47" t="s">
         <v>22</v>
       </c>
       <c r="L19" s="4" t="s">
@@ -28320,14 +28323,14 @@
       <c r="D20" s="17">
         <v>0</v>
       </c>
-      <c r="G20" s="50"/>
+      <c r="G20" s="48"/>
       <c r="H20" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I20" s="5">
         <v>0</v>
       </c>
-      <c r="K20" s="50"/>
+      <c r="K20" s="48"/>
       <c r="L20" s="3" t="s">
         <v>24</v>
       </c>
@@ -28344,14 +28347,14 @@
       <c r="D21" s="17">
         <v>0</v>
       </c>
-      <c r="G21" s="50"/>
+      <c r="G21" s="48"/>
       <c r="H21" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I21" s="5">
         <v>0</v>
       </c>
-      <c r="K21" s="50"/>
+      <c r="K21" s="48"/>
       <c r="L21" s="6" t="s">
         <v>25</v>
       </c>
@@ -28368,17 +28371,17 @@
       <c r="D22" s="17">
         <v>0</v>
       </c>
-      <c r="G22" s="50"/>
+      <c r="G22" s="48"/>
       <c r="H22" s="6" t="s">
         <v>16</v>
       </c>
       <c r="I22" s="5">
         <v>0</v>
       </c>
-      <c r="K22" s="51" t="s">
+      <c r="K22" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="L22" s="52"/>
+      <c r="L22" s="50"/>
       <c r="M22" s="7">
         <f>SUM(M19:M21)</f>
         <v>0</v>
@@ -28394,10 +28397,10 @@
         <f>SUM(D20:D22)</f>
         <v>0</v>
       </c>
-      <c r="G23" s="51" t="s">
+      <c r="G23" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="H23" s="52"/>
+      <c r="H23" s="50"/>
       <c r="I23" s="7">
         <f>SUM(I12:I22)</f>
         <v>0</v>
@@ -28422,7 +28425,7 @@
       <c r="D26" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="G26" s="49" t="s">
+      <c r="G26" s="47" t="s">
         <v>18</v>
       </c>
       <c r="H26" s="4" t="s">
@@ -28444,7 +28447,7 @@
       <c r="D27" s="17">
         <v>0</v>
       </c>
-      <c r="G27" s="50"/>
+      <c r="G27" s="48"/>
       <c r="H27" s="3" t="s">
         <v>50</v>
       </c>
@@ -28464,7 +28467,7 @@
       <c r="D28" s="17">
         <v>0</v>
       </c>
-      <c r="G28" s="50"/>
+      <c r="G28" s="48"/>
       <c r="H28" s="6" t="s">
         <v>16</v>
       </c>
@@ -28484,10 +28487,10 @@
       <c r="D29" s="17">
         <v>0</v>
       </c>
-      <c r="G29" s="51" t="s">
+      <c r="G29" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="H29" s="52"/>
+      <c r="H29" s="50"/>
       <c r="I29" s="7">
         <f>SUM(I26:I28)</f>
         <v>0</v>
@@ -28618,8 +28621,8 @@
       <c r="J51" s="9"/>
     </row>
     <row r="52" spans="8:10" ht="15.75">
-      <c r="H52" s="47"/>
-      <c r="I52" s="48"/>
+      <c r="H52" s="51"/>
+      <c r="I52" s="52"/>
       <c r="J52" s="10"/>
     </row>
   </sheetData>
@@ -28707,10 +28710,10 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="19.5" thickBot="1">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="52"/>
+      <c r="B4" s="50"/>
       <c r="C4" s="40">
         <f>C2-C3</f>
         <v>0</v>
@@ -28731,7 +28734,7 @@
       <c r="D12" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="49" t="s">
+      <c r="G12" s="47" t="s">
         <v>6</v>
       </c>
       <c r="H12" s="4" t="s">
@@ -28740,7 +28743,7 @@
       <c r="I12" s="5">
         <v>0</v>
       </c>
-      <c r="K12" s="49" t="s">
+      <c r="K12" s="47" t="s">
         <v>20</v>
       </c>
       <c r="L12" s="4" t="s">
@@ -28759,14 +28762,14 @@
       <c r="D13" s="17">
         <v>0</v>
       </c>
-      <c r="G13" s="50"/>
+      <c r="G13" s="48"/>
       <c r="H13" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I13" s="5">
         <v>0</v>
       </c>
-      <c r="K13" s="50"/>
+      <c r="K13" s="48"/>
       <c r="L13" s="3" t="s">
         <v>49</v>
       </c>
@@ -28783,14 +28786,14 @@
       <c r="D14" s="17">
         <v>0</v>
       </c>
-      <c r="G14" s="50"/>
+      <c r="G14" s="48"/>
       <c r="H14" s="3" t="s">
         <v>9</v>
       </c>
       <c r="I14" s="5">
         <v>0</v>
       </c>
-      <c r="K14" s="50"/>
+      <c r="K14" s="48"/>
       <c r="L14" s="6" t="s">
         <v>16</v>
       </c>
@@ -28807,17 +28810,17 @@
       <c r="D15" s="17">
         <v>0</v>
       </c>
-      <c r="G15" s="50"/>
+      <c r="G15" s="48"/>
       <c r="H15" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I15" s="5">
         <v>0</v>
       </c>
-      <c r="K15" s="51" t="s">
+      <c r="K15" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="L15" s="52"/>
+      <c r="L15" s="50"/>
       <c r="M15" s="7">
         <f>SUM(M12:M14)</f>
         <v>0</v>
@@ -28833,7 +28836,7 @@
         <f>SUM(D13:D15)</f>
         <v>0</v>
       </c>
-      <c r="G16" s="50"/>
+      <c r="G16" s="48"/>
       <c r="H16" s="3" t="s">
         <v>11</v>
       </c>
@@ -28844,7 +28847,7 @@
     <row r="17" spans="1:13" ht="16.5" thickBot="1">
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
-      <c r="G17" s="50"/>
+      <c r="G17" s="48"/>
       <c r="H17" s="3" t="s">
         <v>12</v>
       </c>
@@ -28855,7 +28858,7 @@
     <row r="18" spans="1:13" ht="16.5" thickBot="1">
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
-      <c r="G18" s="50"/>
+      <c r="G18" s="48"/>
       <c r="H18" s="3" t="s">
         <v>13</v>
       </c>
@@ -28874,14 +28877,14 @@
       <c r="D19" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="G19" s="50"/>
+      <c r="G19" s="48"/>
       <c r="H19" s="3" t="s">
         <v>14</v>
       </c>
       <c r="I19" s="5">
         <v>0</v>
       </c>
-      <c r="K19" s="49" t="s">
+      <c r="K19" s="47" t="s">
         <v>22</v>
       </c>
       <c r="L19" s="4" t="s">
@@ -28900,14 +28903,14 @@
       <c r="D20" s="17">
         <v>0</v>
       </c>
-      <c r="G20" s="50"/>
+      <c r="G20" s="48"/>
       <c r="H20" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I20" s="5">
         <v>0</v>
       </c>
-      <c r="K20" s="50"/>
+      <c r="K20" s="48"/>
       <c r="L20" s="3" t="s">
         <v>24</v>
       </c>
@@ -28924,14 +28927,14 @@
       <c r="D21" s="17">
         <v>0</v>
       </c>
-      <c r="G21" s="50"/>
+      <c r="G21" s="48"/>
       <c r="H21" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I21" s="5">
         <v>0</v>
       </c>
-      <c r="K21" s="50"/>
+      <c r="K21" s="48"/>
       <c r="L21" s="6" t="s">
         <v>25</v>
       </c>
@@ -28948,17 +28951,17 @@
       <c r="D22" s="17">
         <v>0</v>
       </c>
-      <c r="G22" s="50"/>
+      <c r="G22" s="48"/>
       <c r="H22" s="6" t="s">
         <v>16</v>
       </c>
       <c r="I22" s="5">
         <v>0</v>
       </c>
-      <c r="K22" s="51" t="s">
+      <c r="K22" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="L22" s="52"/>
+      <c r="L22" s="50"/>
       <c r="M22" s="7">
         <f>SUM(M19:M21)</f>
         <v>0</v>
@@ -28974,10 +28977,10 @@
         <f>SUM(D20:D22)</f>
         <v>0</v>
       </c>
-      <c r="G23" s="51" t="s">
+      <c r="G23" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="H23" s="52"/>
+      <c r="H23" s="50"/>
       <c r="I23" s="7">
         <f>SUM(I12:I22)</f>
         <v>0</v>
@@ -29002,7 +29005,7 @@
       <c r="D26" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="G26" s="49" t="s">
+      <c r="G26" s="47" t="s">
         <v>18</v>
       </c>
       <c r="H26" s="4" t="s">
@@ -29024,7 +29027,7 @@
       <c r="D27" s="17">
         <v>0</v>
       </c>
-      <c r="G27" s="50"/>
+      <c r="G27" s="48"/>
       <c r="H27" s="3" t="s">
         <v>50</v>
       </c>
@@ -29044,7 +29047,7 @@
       <c r="D28" s="17">
         <v>0</v>
       </c>
-      <c r="G28" s="50"/>
+      <c r="G28" s="48"/>
       <c r="H28" s="6" t="s">
         <v>16</v>
       </c>
@@ -29064,10 +29067,10 @@
       <c r="D29" s="17">
         <v>0</v>
       </c>
-      <c r="G29" s="51" t="s">
+      <c r="G29" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="H29" s="52"/>
+      <c r="H29" s="50"/>
       <c r="I29" s="7">
         <f>SUM(I26:I28)</f>
         <v>0</v>
@@ -29198,8 +29201,8 @@
       <c r="J51" s="9"/>
     </row>
     <row r="52" spans="8:10" ht="15.75">
-      <c r="H52" s="47"/>
-      <c r="I52" s="48"/>
+      <c r="H52" s="51"/>
+      <c r="I52" s="52"/>
       <c r="J52" s="10"/>
     </row>
   </sheetData>
@@ -29287,10 +29290,10 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="19.5" thickBot="1">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="52"/>
+      <c r="B4" s="50"/>
       <c r="C4" s="40">
         <f>C2-C3</f>
         <v>0</v>
@@ -29311,7 +29314,7 @@
       <c r="D12" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="49" t="s">
+      <c r="G12" s="47" t="s">
         <v>6</v>
       </c>
       <c r="H12" s="4" t="s">
@@ -29320,7 +29323,7 @@
       <c r="I12" s="5">
         <v>0</v>
       </c>
-      <c r="K12" s="49" t="s">
+      <c r="K12" s="47" t="s">
         <v>20</v>
       </c>
       <c r="L12" s="4" t="s">
@@ -29339,14 +29342,14 @@
       <c r="D13" s="17">
         <v>0</v>
       </c>
-      <c r="G13" s="50"/>
+      <c r="G13" s="48"/>
       <c r="H13" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I13" s="5">
         <v>0</v>
       </c>
-      <c r="K13" s="50"/>
+      <c r="K13" s="48"/>
       <c r="L13" s="3" t="s">
         <v>49</v>
       </c>
@@ -29363,14 +29366,14 @@
       <c r="D14" s="17">
         <v>0</v>
       </c>
-      <c r="G14" s="50"/>
+      <c r="G14" s="48"/>
       <c r="H14" s="3" t="s">
         <v>9</v>
       </c>
       <c r="I14" s="5">
         <v>0</v>
       </c>
-      <c r="K14" s="50"/>
+      <c r="K14" s="48"/>
       <c r="L14" s="6" t="s">
         <v>16</v>
       </c>
@@ -29387,17 +29390,17 @@
       <c r="D15" s="17">
         <v>0</v>
       </c>
-      <c r="G15" s="50"/>
+      <c r="G15" s="48"/>
       <c r="H15" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I15" s="5">
         <v>0</v>
       </c>
-      <c r="K15" s="51" t="s">
+      <c r="K15" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="L15" s="52"/>
+      <c r="L15" s="50"/>
       <c r="M15" s="7">
         <f>SUM(M12:M14)</f>
         <v>0</v>
@@ -29413,7 +29416,7 @@
         <f>SUM(D13:D15)</f>
         <v>0</v>
       </c>
-      <c r="G16" s="50"/>
+      <c r="G16" s="48"/>
       <c r="H16" s="3" t="s">
         <v>11</v>
       </c>
@@ -29424,7 +29427,7 @@
     <row r="17" spans="1:13" ht="16.5" thickBot="1">
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
-      <c r="G17" s="50"/>
+      <c r="G17" s="48"/>
       <c r="H17" s="3" t="s">
         <v>12</v>
       </c>
@@ -29435,7 +29438,7 @@
     <row r="18" spans="1:13" ht="16.5" thickBot="1">
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
-      <c r="G18" s="50"/>
+      <c r="G18" s="48"/>
       <c r="H18" s="3" t="s">
         <v>13</v>
       </c>
@@ -29454,14 +29457,14 @@
       <c r="D19" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="G19" s="50"/>
+      <c r="G19" s="48"/>
       <c r="H19" s="3" t="s">
         <v>14</v>
       </c>
       <c r="I19" s="5">
         <v>0</v>
       </c>
-      <c r="K19" s="49" t="s">
+      <c r="K19" s="47" t="s">
         <v>22</v>
       </c>
       <c r="L19" s="4" t="s">
@@ -29480,14 +29483,14 @@
       <c r="D20" s="17">
         <v>0</v>
       </c>
-      <c r="G20" s="50"/>
+      <c r="G20" s="48"/>
       <c r="H20" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I20" s="5">
         <v>0</v>
       </c>
-      <c r="K20" s="50"/>
+      <c r="K20" s="48"/>
       <c r="L20" s="3" t="s">
         <v>24</v>
       </c>
@@ -29504,14 +29507,14 @@
       <c r="D21" s="17">
         <v>0</v>
       </c>
-      <c r="G21" s="50"/>
+      <c r="G21" s="48"/>
       <c r="H21" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I21" s="5">
         <v>0</v>
       </c>
-      <c r="K21" s="50"/>
+      <c r="K21" s="48"/>
       <c r="L21" s="6" t="s">
         <v>25</v>
       </c>
@@ -29528,17 +29531,17 @@
       <c r="D22" s="17">
         <v>0</v>
       </c>
-      <c r="G22" s="50"/>
+      <c r="G22" s="48"/>
       <c r="H22" s="6" t="s">
         <v>16</v>
       </c>
       <c r="I22" s="5">
         <v>0</v>
       </c>
-      <c r="K22" s="51" t="s">
+      <c r="K22" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="L22" s="52"/>
+      <c r="L22" s="50"/>
       <c r="M22" s="7">
         <f>SUM(M19:M21)</f>
         <v>0</v>
@@ -29554,10 +29557,10 @@
         <f>SUM(D20:D22)</f>
         <v>0</v>
       </c>
-      <c r="G23" s="51" t="s">
+      <c r="G23" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="H23" s="52"/>
+      <c r="H23" s="50"/>
       <c r="I23" s="7">
         <f>SUM(I12:I22)</f>
         <v>0</v>
@@ -29582,7 +29585,7 @@
       <c r="D26" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="G26" s="49" t="s">
+      <c r="G26" s="47" t="s">
         <v>18</v>
       </c>
       <c r="H26" s="4" t="s">
@@ -29604,7 +29607,7 @@
       <c r="D27" s="17">
         <v>0</v>
       </c>
-      <c r="G27" s="50"/>
+      <c r="G27" s="48"/>
       <c r="H27" s="3" t="s">
         <v>50</v>
       </c>
@@ -29624,7 +29627,7 @@
       <c r="D28" s="17">
         <v>0</v>
       </c>
-      <c r="G28" s="50"/>
+      <c r="G28" s="48"/>
       <c r="H28" s="6" t="s">
         <v>16</v>
       </c>
@@ -29644,10 +29647,10 @@
       <c r="D29" s="17">
         <v>0</v>
       </c>
-      <c r="G29" s="51" t="s">
+      <c r="G29" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="H29" s="52"/>
+      <c r="H29" s="50"/>
       <c r="I29" s="7">
         <f>SUM(I26:I28)</f>
         <v>0</v>
@@ -29778,8 +29781,8 @@
       <c r="J51" s="9"/>
     </row>
     <row r="52" spans="8:10" ht="15.75">
-      <c r="H52" s="47"/>
-      <c r="I52" s="48"/>
+      <c r="H52" s="51"/>
+      <c r="I52" s="52"/>
       <c r="J52" s="10"/>
     </row>
   </sheetData>
@@ -29850,7 +29853,7 @@
       </c>
       <c r="B2" s="26">
         <f>Janeiro!C4</f>
-        <v>2150</v>
+        <v>-750</v>
       </c>
       <c r="C2" s="42">
         <f>Janeiro!$C$3</f>
@@ -29858,7 +29861,7 @@
       </c>
       <c r="D2" s="45">
         <f>Janeiro!C2</f>
-        <v>5000</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -29867,15 +29870,15 @@
       </c>
       <c r="B3" s="26">
         <f>Fevereiro!$C$4</f>
-        <v>0</v>
+        <v>660</v>
       </c>
       <c r="C3" s="42">
         <f>Fevereiro!$C$3</f>
-        <v>0</v>
+        <v>1890</v>
       </c>
       <c r="D3" s="45">
         <f>Fevereiro!$C$2</f>
-        <v>0</v>
+        <v>2550</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -29884,15 +29887,15 @@
       </c>
       <c r="B4" s="26">
         <f>Março!C4</f>
-        <v>0</v>
+        <v>1002</v>
       </c>
       <c r="C4" s="42">
         <f>Março!$C$3</f>
-        <v>0</v>
+        <v>798</v>
       </c>
       <c r="D4" s="45">
         <f>Março!$C$2</f>
-        <v>0</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -29901,15 +29904,15 @@
       </c>
       <c r="B5" s="26">
         <f>Abril!C4</f>
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="C5" s="42">
         <f>Abril!$C$3</f>
-        <v>0</v>
+        <v>1930</v>
       </c>
       <c r="D5" s="45">
         <f>Abril!$C$2</f>
-        <v>0</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -30053,11 +30056,11 @@
       <c r="B14" s="24"/>
       <c r="C14" s="43">
         <f>SUM(C2:C13)</f>
-        <v>2850</v>
+        <v>7468</v>
       </c>
       <c r="D14" s="46">
         <f>SUM(D2:D13)</f>
-        <v>10900</v>
+        <v>14250</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -30066,7 +30069,7 @@
       </c>
       <c r="B16" s="23">
         <f>C14</f>
-        <v>2850</v>
+        <v>7468</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -30076,7 +30079,7 @@
       </c>
       <c r="B17" s="23">
         <f>D14</f>
-        <v>10900</v>
+        <v>14250</v>
       </c>
     </row>
   </sheetData>
@@ -30095,8 +30098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M52"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -30125,7 +30128,7 @@
       </c>
       <c r="C2" s="38">
         <f>D16+D23+D30</f>
-        <v>5000</v>
+        <v>2100</v>
       </c>
       <c r="F2" s="35"/>
     </row>
@@ -30140,13 +30143,13 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="19.5" thickBot="1">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="52"/>
+      <c r="B4" s="50"/>
       <c r="C4" s="40">
         <f>C2-C3</f>
-        <v>2150</v>
+        <v>-750</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="197.25" customHeight="1"/>
@@ -30164,7 +30167,7 @@
       <c r="D12" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="49" t="s">
+      <c r="G12" s="47" t="s">
         <v>6</v>
       </c>
       <c r="H12" s="4" t="s">
@@ -30173,7 +30176,7 @@
       <c r="I12" s="5">
         <v>500</v>
       </c>
-      <c r="K12" s="49" t="s">
+      <c r="K12" s="47" t="s">
         <v>20</v>
       </c>
       <c r="L12" s="4" t="s">
@@ -30190,16 +30193,16 @@
         <v>1</v>
       </c>
       <c r="D13" s="17">
-        <v>3000</v>
-      </c>
-      <c r="G13" s="50"/>
+        <v>1500</v>
+      </c>
+      <c r="G13" s="48"/>
       <c r="H13" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I13" s="5">
         <v>450</v>
       </c>
-      <c r="K13" s="50"/>
+      <c r="K13" s="48"/>
       <c r="L13" s="3" t="s">
         <v>49</v>
       </c>
@@ -30214,16 +30217,16 @@
         <v>2</v>
       </c>
       <c r="D14" s="17">
-        <v>2000</v>
-      </c>
-      <c r="G14" s="50"/>
+        <v>600</v>
+      </c>
+      <c r="G14" s="48"/>
       <c r="H14" s="3" t="s">
         <v>9</v>
       </c>
       <c r="I14" s="5">
         <v>160</v>
       </c>
-      <c r="K14" s="50"/>
+      <c r="K14" s="48"/>
       <c r="L14" s="6" t="s">
         <v>16</v>
       </c>
@@ -30240,17 +30243,17 @@
       <c r="D15" s="17">
         <v>0</v>
       </c>
-      <c r="G15" s="50"/>
+      <c r="G15" s="48"/>
       <c r="H15" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I15" s="5">
         <v>160</v>
       </c>
-      <c r="K15" s="51" t="s">
+      <c r="K15" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="L15" s="52"/>
+      <c r="L15" s="50"/>
       <c r="M15" s="7">
         <f>SUM(M12:M14)</f>
         <v>270</v>
@@ -30264,9 +30267,9 @@
       </c>
       <c r="D16" s="12">
         <f>SUM(D13:D15)</f>
-        <v>5000</v>
-      </c>
-      <c r="G16" s="50"/>
+        <v>2100</v>
+      </c>
+      <c r="G16" s="48"/>
       <c r="H16" s="3" t="s">
         <v>11</v>
       </c>
@@ -30277,7 +30280,7 @@
     <row r="17" spans="1:13" ht="16.5" thickBot="1">
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
-      <c r="G17" s="50"/>
+      <c r="G17" s="48"/>
       <c r="H17" s="3" t="s">
         <v>12</v>
       </c>
@@ -30288,7 +30291,7 @@
     <row r="18" spans="1:13" ht="16.5" thickBot="1">
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
-      <c r="G18" s="50"/>
+      <c r="G18" s="48"/>
       <c r="H18" s="3" t="s">
         <v>13</v>
       </c>
@@ -30307,14 +30310,14 @@
       <c r="D19" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="G19" s="50"/>
+      <c r="G19" s="48"/>
       <c r="H19" s="3" t="s">
         <v>14</v>
       </c>
       <c r="I19" s="5">
         <v>300</v>
       </c>
-      <c r="K19" s="49" t="s">
+      <c r="K19" s="47" t="s">
         <v>22</v>
       </c>
       <c r="L19" s="4" t="s">
@@ -30333,14 +30336,14 @@
       <c r="D20" s="17">
         <v>0</v>
       </c>
-      <c r="G20" s="50"/>
+      <c r="G20" s="48"/>
       <c r="H20" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I20" s="5">
         <v>550</v>
       </c>
-      <c r="K20" s="50"/>
+      <c r="K20" s="48"/>
       <c r="L20" s="3" t="s">
         <v>24</v>
       </c>
@@ -30357,14 +30360,14 @@
       <c r="D21" s="17">
         <v>0</v>
       </c>
-      <c r="G21" s="50"/>
+      <c r="G21" s="48"/>
       <c r="H21" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I21" s="5">
         <v>0</v>
       </c>
-      <c r="K21" s="50"/>
+      <c r="K21" s="48"/>
       <c r="L21" s="6" t="s">
         <v>25</v>
       </c>
@@ -30381,17 +30384,17 @@
       <c r="D22" s="17">
         <v>0</v>
       </c>
-      <c r="G22" s="50"/>
+      <c r="G22" s="48"/>
       <c r="H22" s="6" t="s">
         <v>16</v>
       </c>
       <c r="I22" s="5">
         <v>0</v>
       </c>
-      <c r="K22" s="51" t="s">
+      <c r="K22" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="L22" s="52"/>
+      <c r="L22" s="50"/>
       <c r="M22" s="7">
         <f>SUM(M19:M21)</f>
         <v>200</v>
@@ -30407,10 +30410,10 @@
         <f>SUM(D20:D22)</f>
         <v>0</v>
       </c>
-      <c r="G23" s="51" t="s">
+      <c r="G23" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="H23" s="52"/>
+      <c r="H23" s="50"/>
       <c r="I23" s="7">
         <f>SUM(I12:I22)</f>
         <v>2380</v>
@@ -30435,7 +30438,7 @@
       <c r="D26" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="G26" s="49" t="s">
+      <c r="G26" s="47" t="s">
         <v>18</v>
       </c>
       <c r="H26" s="4" t="s">
@@ -30457,7 +30460,7 @@
       <c r="D27" s="17">
         <v>0</v>
       </c>
-      <c r="G27" s="50"/>
+      <c r="G27" s="48"/>
       <c r="H27" s="3" t="s">
         <v>50</v>
       </c>
@@ -30477,7 +30480,7 @@
       <c r="D28" s="17">
         <v>0</v>
       </c>
-      <c r="G28" s="50"/>
+      <c r="G28" s="48"/>
       <c r="H28" s="6" t="s">
         <v>16</v>
       </c>
@@ -30497,10 +30500,10 @@
       <c r="D29" s="17">
         <v>0</v>
       </c>
-      <c r="G29" s="51" t="s">
+      <c r="G29" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="H29" s="52"/>
+      <c r="H29" s="50"/>
       <c r="I29" s="7">
         <f>SUM(I26:I28)</f>
         <v>0</v>
@@ -30631,17 +30634,12 @@
       <c r="J51" s="9"/>
     </row>
     <row r="52" spans="8:10" ht="15.75">
-      <c r="H52" s="47"/>
-      <c r="I52" s="48"/>
+      <c r="H52" s="51"/>
+      <c r="I52" s="52"/>
       <c r="J52" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="K12:K14"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K19:K21"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="A4:B4"/>
     <mergeCell ref="H52:I52"/>
     <mergeCell ref="G26:G28"/>
     <mergeCell ref="G29:H29"/>
@@ -30651,6 +30649,11 @@
     <mergeCell ref="A26:B29"/>
     <mergeCell ref="G12:G22"/>
     <mergeCell ref="G23:H23"/>
+    <mergeCell ref="K12:K14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K19:K21"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="A4:B4"/>
   </mergeCells>
   <conditionalFormatting sqref="C4">
     <cfRule type="cellIs" dxfId="168" priority="1" operator="greaterThan">
@@ -30675,8 +30678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M52"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView showGridLines="0" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -30705,7 +30708,7 @@
       </c>
       <c r="C2" s="38">
         <f>D16+D23+D30</f>
-        <v>0</v>
+        <v>2550</v>
       </c>
       <c r="F2" s="35"/>
     </row>
@@ -30716,17 +30719,17 @@
       </c>
       <c r="C3" s="37">
         <f>I23+I29+M22+M29+M15</f>
-        <v>0</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="19.5" thickBot="1">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="52"/>
+      <c r="B4" s="50"/>
       <c r="C4" s="40">
         <f>C2-C3</f>
-        <v>0</v>
+        <v>660</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="197.25" customHeight="1"/>
@@ -30744,24 +30747,22 @@
       <c r="D12" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="49" t="s">
+      <c r="G12" s="47" t="s">
         <v>6</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>7</v>
       </c>
       <c r="I12" s="5">
-        <v>0</v>
-      </c>
-      <c r="K12" s="49" t="s">
+        <v>440</v>
+      </c>
+      <c r="K12" s="47" t="s">
         <v>20</v>
       </c>
       <c r="L12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="M12" s="5">
-        <v>0</v>
-      </c>
+      <c r="M12" s="5"/>
     </row>
     <row r="13" spans="1:13" ht="16.5" thickBot="1">
       <c r="A13" s="57"/>
@@ -30770,16 +30771,16 @@
         <v>1</v>
       </c>
       <c r="D13" s="17">
-        <v>0</v>
-      </c>
-      <c r="G13" s="50"/>
+        <v>1500</v>
+      </c>
+      <c r="G13" s="48"/>
       <c r="H13" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I13" s="5">
-        <v>0</v>
-      </c>
-      <c r="K13" s="50"/>
+        <v>240</v>
+      </c>
+      <c r="K13" s="48"/>
       <c r="L13" s="3" t="s">
         <v>49</v>
       </c>
@@ -30794,16 +30795,16 @@
         <v>2</v>
       </c>
       <c r="D14" s="17">
-        <v>0</v>
-      </c>
-      <c r="G14" s="50"/>
+        <v>300</v>
+      </c>
+      <c r="G14" s="48"/>
       <c r="H14" s="3" t="s">
         <v>9</v>
       </c>
       <c r="I14" s="5">
-        <v>0</v>
-      </c>
-      <c r="K14" s="50"/>
+        <v>140</v>
+      </c>
+      <c r="K14" s="48"/>
       <c r="L14" s="6" t="s">
         <v>16</v>
       </c>
@@ -30818,19 +30819,19 @@
         <v>3</v>
       </c>
       <c r="D15" s="17">
-        <v>0</v>
-      </c>
-      <c r="G15" s="50"/>
+        <v>650</v>
+      </c>
+      <c r="G15" s="48"/>
       <c r="H15" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I15" s="5">
-        <v>0</v>
-      </c>
-      <c r="K15" s="51" t="s">
+        <v>140</v>
+      </c>
+      <c r="K15" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="L15" s="52"/>
+      <c r="L15" s="50"/>
       <c r="M15" s="7">
         <f>SUM(M12:M14)</f>
         <v>0</v>
@@ -30844,9 +30845,9 @@
       </c>
       <c r="D16" s="12">
         <f>SUM(D13:D15)</f>
-        <v>0</v>
-      </c>
-      <c r="G16" s="50"/>
+        <v>2450</v>
+      </c>
+      <c r="G16" s="48"/>
       <c r="H16" s="3" t="s">
         <v>11</v>
       </c>
@@ -30857,7 +30858,7 @@
     <row r="17" spans="1:13" ht="16.5" thickBot="1">
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
-      <c r="G17" s="50"/>
+      <c r="G17" s="48"/>
       <c r="H17" s="3" t="s">
         <v>12</v>
       </c>
@@ -30868,12 +30869,12 @@
     <row r="18" spans="1:13" ht="16.5" thickBot="1">
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
-      <c r="G18" s="50"/>
+      <c r="G18" s="48"/>
       <c r="H18" s="3" t="s">
         <v>13</v>
       </c>
       <c r="I18" s="5">
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
@@ -30887,14 +30888,14 @@
       <c r="D19" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="G19" s="50"/>
+      <c r="G19" s="48"/>
       <c r="H19" s="3" t="s">
         <v>14</v>
       </c>
       <c r="I19" s="5">
         <v>0</v>
       </c>
-      <c r="K19" s="49" t="s">
+      <c r="K19" s="47" t="s">
         <v>22</v>
       </c>
       <c r="L19" s="4" t="s">
@@ -30911,16 +30912,16 @@
         <v>1</v>
       </c>
       <c r="D20" s="17">
-        <v>0</v>
-      </c>
-      <c r="G20" s="50"/>
+        <v>100</v>
+      </c>
+      <c r="G20" s="48"/>
       <c r="H20" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I20" s="5">
-        <v>0</v>
-      </c>
-      <c r="K20" s="50"/>
+        <v>700</v>
+      </c>
+      <c r="K20" s="48"/>
       <c r="L20" s="3" t="s">
         <v>24</v>
       </c>
@@ -30937,14 +30938,14 @@
       <c r="D21" s="17">
         <v>0</v>
       </c>
-      <c r="G21" s="50"/>
+      <c r="G21" s="48"/>
       <c r="H21" s="3" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="I21" s="5">
         <v>0</v>
       </c>
-      <c r="K21" s="50"/>
+      <c r="K21" s="48"/>
       <c r="L21" s="6" t="s">
         <v>25</v>
       </c>
@@ -30961,17 +30962,17 @@
       <c r="D22" s="17">
         <v>0</v>
       </c>
-      <c r="G22" s="50"/>
+      <c r="G22" s="48"/>
       <c r="H22" s="6" t="s">
         <v>16</v>
       </c>
       <c r="I22" s="5">
         <v>0</v>
       </c>
-      <c r="K22" s="51" t="s">
+      <c r="K22" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="L22" s="52"/>
+      <c r="L22" s="50"/>
       <c r="M22" s="7">
         <f>SUM(M19:M21)</f>
         <v>0</v>
@@ -30985,15 +30986,15 @@
       </c>
       <c r="D23" s="12">
         <f>SUM(D20:D22)</f>
-        <v>0</v>
-      </c>
-      <c r="G23" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="G23" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="H23" s="52"/>
+      <c r="H23" s="50"/>
       <c r="I23" s="7">
         <f>SUM(I12:I22)</f>
-        <v>0</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="15.75">
@@ -31015,14 +31016,14 @@
       <c r="D26" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="G26" s="49" t="s">
+      <c r="G26" s="47" t="s">
         <v>18</v>
       </c>
       <c r="H26" s="4" t="s">
         <v>19</v>
       </c>
       <c r="I26" s="5">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="K26" s="31"/>
       <c r="L26" s="29"/>
@@ -31037,7 +31038,7 @@
       <c r="D27" s="17">
         <v>0</v>
       </c>
-      <c r="G27" s="50"/>
+      <c r="G27" s="48"/>
       <c r="H27" s="3" t="s">
         <v>50</v>
       </c>
@@ -31057,7 +31058,7 @@
       <c r="D28" s="17">
         <v>0</v>
       </c>
-      <c r="G28" s="50"/>
+      <c r="G28" s="48"/>
       <c r="H28" s="6" t="s">
         <v>16</v>
       </c>
@@ -31077,13 +31078,13 @@
       <c r="D29" s="17">
         <v>0</v>
       </c>
-      <c r="G29" s="51" t="s">
+      <c r="G29" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="H29" s="52"/>
+      <c r="H29" s="50"/>
       <c r="I29" s="7">
         <f>SUM(I26:I28)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="K29" s="33"/>
       <c r="L29" s="34"/>
@@ -31109,11 +31110,11 @@
       </c>
       <c r="H32" s="16">
         <f>MAX(I12:I22)</f>
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="I32" s="15" t="str">
         <f>INDEX(H12:I22,MATCH(H32,I12:I22,0),1)</f>
-        <v>Aluguel</v>
+        <v>Supermercado</v>
       </c>
     </row>
     <row r="33" spans="7:10">
@@ -31126,7 +31127,7 @@
       </c>
       <c r="I33" s="15" t="str">
         <f>INDEX(L12:M14,MATCH(H33,M12:M14,0),1)</f>
-        <v>IPVA</v>
+        <v>Manutenção</v>
       </c>
     </row>
     <row r="34" spans="7:10">
@@ -31135,7 +31136,7 @@
       </c>
       <c r="H34" s="16">
         <f>MAX(I26:I28)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I34" s="15" t="str">
         <f>INDEX(H26:I28,MATCH(H34,I26:I28,0),1)</f>
@@ -31211,8 +31212,8 @@
       <c r="J51" s="9"/>
     </row>
     <row r="52" spans="8:10" ht="15.75">
-      <c r="H52" s="47"/>
-      <c r="I52" s="48"/>
+      <c r="H52" s="51"/>
+      <c r="I52" s="52"/>
       <c r="J52" s="10"/>
     </row>
   </sheetData>
@@ -31255,8 +31256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M52"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView showGridLines="0" topLeftCell="A11" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -31285,7 +31286,7 @@
       </c>
       <c r="C2" s="38">
         <f>D16+D23+D30</f>
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="F2" s="35"/>
     </row>
@@ -31296,17 +31297,17 @@
       </c>
       <c r="C3" s="37">
         <f>I23+I29+M22+M29+M15</f>
-        <v>0</v>
+        <v>798</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="19.5" thickBot="1">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="52"/>
+      <c r="B4" s="50"/>
       <c r="C4" s="40">
         <f>C2-C3</f>
-        <v>0</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="197.25" customHeight="1"/>
@@ -31324,16 +31325,16 @@
       <c r="D12" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="49" t="s">
+      <c r="G12" s="47" t="s">
         <v>6</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>7</v>
       </c>
       <c r="I12" s="5">
-        <v>0</v>
-      </c>
-      <c r="K12" s="49" t="s">
+        <v>500</v>
+      </c>
+      <c r="K12" s="47" t="s">
         <v>20</v>
       </c>
       <c r="L12" s="4" t="s">
@@ -31350,16 +31351,16 @@
         <v>1</v>
       </c>
       <c r="D13" s="17">
-        <v>0</v>
-      </c>
-      <c r="G13" s="50"/>
+        <v>1500</v>
+      </c>
+      <c r="G13" s="48"/>
       <c r="H13" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I13" s="5">
         <v>0</v>
       </c>
-      <c r="K13" s="50"/>
+      <c r="K13" s="48"/>
       <c r="L13" s="3" t="s">
         <v>49</v>
       </c>
@@ -31374,16 +31375,16 @@
         <v>2</v>
       </c>
       <c r="D14" s="17">
-        <v>0</v>
-      </c>
-      <c r="G14" s="50"/>
+        <v>300</v>
+      </c>
+      <c r="G14" s="48"/>
       <c r="H14" s="3" t="s">
         <v>9</v>
       </c>
       <c r="I14" s="5">
         <v>0</v>
       </c>
-      <c r="K14" s="50"/>
+      <c r="K14" s="48"/>
       <c r="L14" s="6" t="s">
         <v>16</v>
       </c>
@@ -31400,17 +31401,17 @@
       <c r="D15" s="17">
         <v>0</v>
       </c>
-      <c r="G15" s="50"/>
+      <c r="G15" s="48"/>
       <c r="H15" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I15" s="5">
         <v>0</v>
       </c>
-      <c r="K15" s="51" t="s">
+      <c r="K15" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="L15" s="52"/>
+      <c r="L15" s="50"/>
       <c r="M15" s="7">
         <f>SUM(M12:M14)</f>
         <v>0</v>
@@ -31424,20 +31425,20 @@
       </c>
       <c r="D16" s="12">
         <f>SUM(D13:D15)</f>
-        <v>0</v>
-      </c>
-      <c r="G16" s="50"/>
+        <v>1800</v>
+      </c>
+      <c r="G16" s="48"/>
       <c r="H16" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I16" s="5">
-        <v>0</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="16.5" thickBot="1">
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
-      <c r="G17" s="50"/>
+      <c r="G17" s="48"/>
       <c r="H17" s="3" t="s">
         <v>12</v>
       </c>
@@ -31448,12 +31449,12 @@
     <row r="18" spans="1:13" ht="16.5" thickBot="1">
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
-      <c r="G18" s="50"/>
+      <c r="G18" s="48"/>
       <c r="H18" s="3" t="s">
         <v>13</v>
       </c>
       <c r="I18" s="5">
-        <v>0</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
@@ -31467,21 +31468,21 @@
       <c r="D19" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="G19" s="50"/>
+      <c r="G19" s="48"/>
       <c r="H19" s="3" t="s">
         <v>14</v>
       </c>
       <c r="I19" s="5">
         <v>0</v>
       </c>
-      <c r="K19" s="49" t="s">
+      <c r="K19" s="47" t="s">
         <v>22</v>
       </c>
       <c r="L19" s="4" t="s">
         <v>23</v>
       </c>
       <c r="M19" s="5">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
@@ -31493,14 +31494,14 @@
       <c r="D20" s="17">
         <v>0</v>
       </c>
-      <c r="G20" s="50"/>
+      <c r="G20" s="48"/>
       <c r="H20" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I20" s="5">
         <v>0</v>
       </c>
-      <c r="K20" s="50"/>
+      <c r="K20" s="48"/>
       <c r="L20" s="3" t="s">
         <v>24</v>
       </c>
@@ -31517,14 +31518,14 @@
       <c r="D21" s="17">
         <v>0</v>
       </c>
-      <c r="G21" s="50"/>
+      <c r="G21" s="48"/>
       <c r="H21" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I21" s="5">
         <v>0</v>
       </c>
-      <c r="K21" s="50"/>
+      <c r="K21" s="48"/>
       <c r="L21" s="6" t="s">
         <v>25</v>
       </c>
@@ -31541,20 +31542,20 @@
       <c r="D22" s="17">
         <v>0</v>
       </c>
-      <c r="G22" s="50"/>
+      <c r="G22" s="48"/>
       <c r="H22" s="6" t="s">
         <v>16</v>
       </c>
       <c r="I22" s="5">
         <v>0</v>
       </c>
-      <c r="K22" s="51" t="s">
+      <c r="K22" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="L22" s="52"/>
+      <c r="L22" s="50"/>
       <c r="M22" s="7">
         <f>SUM(M19:M21)</f>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="16.5" thickBot="1">
@@ -31567,13 +31568,13 @@
         <f>SUM(D20:D22)</f>
         <v>0</v>
       </c>
-      <c r="G23" s="51" t="s">
+      <c r="G23" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="H23" s="52"/>
+      <c r="H23" s="50"/>
       <c r="I23" s="7">
         <f>SUM(I12:I22)</f>
-        <v>0</v>
+        <v>748</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="15.75">
@@ -31595,7 +31596,7 @@
       <c r="D26" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="G26" s="49" t="s">
+      <c r="G26" s="47" t="s">
         <v>18</v>
       </c>
       <c r="H26" s="4" t="s">
@@ -31617,7 +31618,7 @@
       <c r="D27" s="17">
         <v>0</v>
       </c>
-      <c r="G27" s="50"/>
+      <c r="G27" s="48"/>
       <c r="H27" s="3" t="s">
         <v>50</v>
       </c>
@@ -31637,7 +31638,7 @@
       <c r="D28" s="17">
         <v>0</v>
       </c>
-      <c r="G28" s="50"/>
+      <c r="G28" s="48"/>
       <c r="H28" s="6" t="s">
         <v>16</v>
       </c>
@@ -31657,10 +31658,10 @@
       <c r="D29" s="17">
         <v>0</v>
       </c>
-      <c r="G29" s="51" t="s">
+      <c r="G29" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="H29" s="52"/>
+      <c r="H29" s="50"/>
       <c r="I29" s="7">
         <f>SUM(I26:I28)</f>
         <v>0</v>
@@ -31689,7 +31690,7 @@
       </c>
       <c r="H32" s="16">
         <f>MAX(I12:I22)</f>
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="I32" s="15" t="str">
         <f>INDEX(H12:I22,MATCH(H32,I12:I22,0),1)</f>
@@ -31728,7 +31729,7 @@
       </c>
       <c r="H35" s="16">
         <f>MAX(M19:M21)</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I35" s="15" t="str">
         <f>INDEX(L19:M21,MATCH(H35,M19:M21,0),1)</f>
@@ -31791,8 +31792,8 @@
       <c r="J51" s="9"/>
     </row>
     <row r="52" spans="8:10" ht="15.75">
-      <c r="H52" s="47"/>
-      <c r="I52" s="48"/>
+      <c r="H52" s="51"/>
+      <c r="I52" s="52"/>
       <c r="J52" s="10"/>
     </row>
   </sheetData>
@@ -31835,8 +31836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:M52"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A11" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView showGridLines="0" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -31865,7 +31866,7 @@
       </c>
       <c r="C2" s="38">
         <f>D16+D23+D30</f>
-        <v>0</v>
+        <v>1900</v>
       </c>
       <c r="F2" s="35"/>
     </row>
@@ -31876,17 +31877,17 @@
       </c>
       <c r="C3" s="37">
         <f>I23+I29+M22+M29+M15</f>
-        <v>0</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="19.5" thickBot="1">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="52"/>
+      <c r="B4" s="50"/>
       <c r="C4" s="40">
         <f>C2-C3</f>
-        <v>0</v>
+        <v>-30</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="197.25" customHeight="1"/>
@@ -31904,23 +31905,23 @@
       <c r="D12" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="49" t="s">
+      <c r="G12" s="47" t="s">
         <v>6</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>7</v>
       </c>
       <c r="I12" s="5">
-        <v>0</v>
-      </c>
-      <c r="K12" s="49" t="s">
+        <v>200</v>
+      </c>
+      <c r="K12" s="47" t="s">
         <v>20</v>
       </c>
       <c r="L12" s="4" t="s">
         <v>21</v>
       </c>
       <c r="M12" s="5">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="16.5" thickBot="1">
@@ -31930,16 +31931,16 @@
         <v>1</v>
       </c>
       <c r="D13" s="17">
-        <v>0</v>
-      </c>
-      <c r="G13" s="50"/>
+        <v>1500</v>
+      </c>
+      <c r="G13" s="48"/>
       <c r="H13" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I13" s="5">
-        <v>0</v>
-      </c>
-      <c r="K13" s="50"/>
+        <v>500</v>
+      </c>
+      <c r="K13" s="48"/>
       <c r="L13" s="3" t="s">
         <v>49</v>
       </c>
@@ -31954,16 +31955,16 @@
         <v>2</v>
       </c>
       <c r="D14" s="17">
-        <v>0</v>
-      </c>
-      <c r="G14" s="50"/>
+        <v>400</v>
+      </c>
+      <c r="G14" s="48"/>
       <c r="H14" s="3" t="s">
         <v>9</v>
       </c>
       <c r="I14" s="5">
         <v>0</v>
       </c>
-      <c r="K14" s="50"/>
+      <c r="K14" s="48"/>
       <c r="L14" s="6" t="s">
         <v>16</v>
       </c>
@@ -31980,20 +31981,20 @@
       <c r="D15" s="17">
         <v>0</v>
       </c>
-      <c r="G15" s="50"/>
+      <c r="G15" s="48"/>
       <c r="H15" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I15" s="5">
         <v>0</v>
       </c>
-      <c r="K15" s="51" t="s">
+      <c r="K15" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="L15" s="52"/>
+      <c r="L15" s="50"/>
       <c r="M15" s="7">
         <f>SUM(M12:M14)</f>
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="16.5" thickBot="1">
@@ -32004,20 +32005,20 @@
       </c>
       <c r="D16" s="12">
         <f>SUM(D13:D15)</f>
-        <v>0</v>
-      </c>
-      <c r="G16" s="50"/>
+        <v>1900</v>
+      </c>
+      <c r="G16" s="48"/>
       <c r="H16" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I16" s="5">
-        <v>0</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="16.5" thickBot="1">
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
-      <c r="G17" s="50"/>
+      <c r="G17" s="48"/>
       <c r="H17" s="3" t="s">
         <v>12</v>
       </c>
@@ -32028,12 +32029,12 @@
     <row r="18" spans="1:13" ht="16.5" thickBot="1">
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
-      <c r="G18" s="50"/>
+      <c r="G18" s="48"/>
       <c r="H18" s="3" t="s">
         <v>13</v>
       </c>
       <c r="I18" s="5">
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
@@ -32047,21 +32048,21 @@
       <c r="D19" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="G19" s="50"/>
+      <c r="G19" s="48"/>
       <c r="H19" s="3" t="s">
         <v>14</v>
       </c>
       <c r="I19" s="5">
         <v>0</v>
       </c>
-      <c r="K19" s="49" t="s">
+      <c r="K19" s="47" t="s">
         <v>22</v>
       </c>
       <c r="L19" s="4" t="s">
         <v>23</v>
       </c>
       <c r="M19" s="5">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
@@ -32073,14 +32074,14 @@
       <c r="D20" s="17">
         <v>0</v>
       </c>
-      <c r="G20" s="50"/>
+      <c r="G20" s="48"/>
       <c r="H20" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I20" s="5">
-        <v>0</v>
-      </c>
-      <c r="K20" s="50"/>
+        <v>400</v>
+      </c>
+      <c r="K20" s="48"/>
       <c r="L20" s="3" t="s">
         <v>24</v>
       </c>
@@ -32097,14 +32098,14 @@
       <c r="D21" s="17">
         <v>0</v>
       </c>
-      <c r="G21" s="50"/>
+      <c r="G21" s="48"/>
       <c r="H21" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I21" s="5">
         <v>0</v>
       </c>
-      <c r="K21" s="50"/>
+      <c r="K21" s="48"/>
       <c r="L21" s="6" t="s">
         <v>25</v>
       </c>
@@ -32121,20 +32122,20 @@
       <c r="D22" s="17">
         <v>0</v>
       </c>
-      <c r="G22" s="50"/>
+      <c r="G22" s="48"/>
       <c r="H22" s="6" t="s">
         <v>16</v>
       </c>
       <c r="I22" s="5">
         <v>0</v>
       </c>
-      <c r="K22" s="51" t="s">
+      <c r="K22" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="L22" s="52"/>
+      <c r="L22" s="50"/>
       <c r="M22" s="7">
         <f>SUM(M19:M21)</f>
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="16.5" thickBot="1">
@@ -32147,13 +32148,13 @@
         <f>SUM(D20:D22)</f>
         <v>0</v>
       </c>
-      <c r="G23" s="51" t="s">
+      <c r="G23" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="H23" s="52"/>
+      <c r="H23" s="50"/>
       <c r="I23" s="7">
         <f>SUM(I12:I22)</f>
-        <v>0</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="15.75">
@@ -32175,7 +32176,7 @@
       <c r="D26" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="G26" s="49" t="s">
+      <c r="G26" s="47" t="s">
         <v>18</v>
       </c>
       <c r="H26" s="4" t="s">
@@ -32197,7 +32198,7 @@
       <c r="D27" s="17">
         <v>0</v>
       </c>
-      <c r="G27" s="50"/>
+      <c r="G27" s="48"/>
       <c r="H27" s="3" t="s">
         <v>50</v>
       </c>
@@ -32217,7 +32218,7 @@
       <c r="D28" s="17">
         <v>0</v>
       </c>
-      <c r="G28" s="50"/>
+      <c r="G28" s="48"/>
       <c r="H28" s="6" t="s">
         <v>16</v>
       </c>
@@ -32237,10 +32238,10 @@
       <c r="D29" s="17">
         <v>0</v>
       </c>
-      <c r="G29" s="51" t="s">
+      <c r="G29" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="H29" s="52"/>
+      <c r="H29" s="50"/>
       <c r="I29" s="7">
         <f>SUM(I26:I28)</f>
         <v>0</v>
@@ -32269,11 +32270,11 @@
       </c>
       <c r="H32" s="16">
         <f>MAX(I12:I22)</f>
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="I32" s="15" t="str">
         <f>INDEX(H12:I22,MATCH(H32,I12:I22,0),1)</f>
-        <v>Aluguel</v>
+        <v>Condomínio</v>
       </c>
     </row>
     <row r="33" spans="7:10">
@@ -32282,7 +32283,7 @@
       </c>
       <c r="H33" s="16">
         <f>MAX(M12:M14)</f>
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="I33" s="15" t="str">
         <f>INDEX(L12:M14,MATCH(H33,M12:M14,0),1)</f>
@@ -32308,7 +32309,7 @@
       </c>
       <c r="H35" s="16">
         <f>MAX(M19:M21)</f>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="I35" s="15" t="str">
         <f>INDEX(L19:M21,MATCH(H35,M19:M21,0),1)</f>
@@ -32371,8 +32372,8 @@
       <c r="J51" s="9"/>
     </row>
     <row r="52" spans="8:10" ht="15.75">
-      <c r="H52" s="47"/>
-      <c r="I52" s="48"/>
+      <c r="H52" s="51"/>
+      <c r="I52" s="52"/>
       <c r="J52" s="10"/>
     </row>
   </sheetData>
@@ -32460,10 +32461,10 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="19.5" thickBot="1">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="52"/>
+      <c r="B4" s="50"/>
       <c r="C4" s="40">
         <f>C2-C3</f>
         <v>1400</v>
@@ -32484,7 +32485,7 @@
       <c r="D12" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="49" t="s">
+      <c r="G12" s="47" t="s">
         <v>6</v>
       </c>
       <c r="H12" s="4" t="s">
@@ -32493,7 +32494,7 @@
       <c r="I12" s="5">
         <v>0</v>
       </c>
-      <c r="K12" s="49" t="s">
+      <c r="K12" s="47" t="s">
         <v>20</v>
       </c>
       <c r="L12" s="4" t="s">
@@ -32512,14 +32513,14 @@
       <c r="D13" s="17">
         <v>1400</v>
       </c>
-      <c r="G13" s="50"/>
+      <c r="G13" s="48"/>
       <c r="H13" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I13" s="5">
         <v>0</v>
       </c>
-      <c r="K13" s="50"/>
+      <c r="K13" s="48"/>
       <c r="L13" s="3" t="s">
         <v>49</v>
       </c>
@@ -32536,14 +32537,14 @@
       <c r="D14" s="17">
         <v>0</v>
       </c>
-      <c r="G14" s="50"/>
+      <c r="G14" s="48"/>
       <c r="H14" s="3" t="s">
         <v>9</v>
       </c>
       <c r="I14" s="5">
         <v>0</v>
       </c>
-      <c r="K14" s="50"/>
+      <c r="K14" s="48"/>
       <c r="L14" s="6" t="s">
         <v>16</v>
       </c>
@@ -32560,17 +32561,17 @@
       <c r="D15" s="17">
         <v>0</v>
       </c>
-      <c r="G15" s="50"/>
+      <c r="G15" s="48"/>
       <c r="H15" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I15" s="5">
         <v>0</v>
       </c>
-      <c r="K15" s="51" t="s">
+      <c r="K15" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="L15" s="52"/>
+      <c r="L15" s="50"/>
       <c r="M15" s="7">
         <f>SUM(M12:M14)</f>
         <v>0</v>
@@ -32586,7 +32587,7 @@
         <f>SUM(D13:D15)</f>
         <v>1400</v>
       </c>
-      <c r="G16" s="50"/>
+      <c r="G16" s="48"/>
       <c r="H16" s="3" t="s">
         <v>11</v>
       </c>
@@ -32597,7 +32598,7 @@
     <row r="17" spans="1:13" ht="16.5" thickBot="1">
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
-      <c r="G17" s="50"/>
+      <c r="G17" s="48"/>
       <c r="H17" s="3" t="s">
         <v>12</v>
       </c>
@@ -32608,7 +32609,7 @@
     <row r="18" spans="1:13" ht="16.5" thickBot="1">
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
-      <c r="G18" s="50"/>
+      <c r="G18" s="48"/>
       <c r="H18" s="3" t="s">
         <v>13</v>
       </c>
@@ -32627,14 +32628,14 @@
       <c r="D19" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="G19" s="50"/>
+      <c r="G19" s="48"/>
       <c r="H19" s="3" t="s">
         <v>14</v>
       </c>
       <c r="I19" s="5">
         <v>0</v>
       </c>
-      <c r="K19" s="49" t="s">
+      <c r="K19" s="47" t="s">
         <v>22</v>
       </c>
       <c r="L19" s="4" t="s">
@@ -32653,14 +32654,14 @@
       <c r="D20" s="17">
         <v>0</v>
       </c>
-      <c r="G20" s="50"/>
+      <c r="G20" s="48"/>
       <c r="H20" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I20" s="5">
         <v>0</v>
       </c>
-      <c r="K20" s="50"/>
+      <c r="K20" s="48"/>
       <c r="L20" s="3" t="s">
         <v>24</v>
       </c>
@@ -32677,14 +32678,14 @@
       <c r="D21" s="17">
         <v>0</v>
       </c>
-      <c r="G21" s="50"/>
+      <c r="G21" s="48"/>
       <c r="H21" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I21" s="5">
         <v>0</v>
       </c>
-      <c r="K21" s="50"/>
+      <c r="K21" s="48"/>
       <c r="L21" s="6" t="s">
         <v>25</v>
       </c>
@@ -32701,17 +32702,17 @@
       <c r="D22" s="17">
         <v>0</v>
       </c>
-      <c r="G22" s="50"/>
+      <c r="G22" s="48"/>
       <c r="H22" s="6" t="s">
         <v>16</v>
       </c>
       <c r="I22" s="5">
         <v>0</v>
       </c>
-      <c r="K22" s="51" t="s">
+      <c r="K22" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="L22" s="52"/>
+      <c r="L22" s="50"/>
       <c r="M22" s="7">
         <f>SUM(M19:M21)</f>
         <v>0</v>
@@ -32727,10 +32728,10 @@
         <f>SUM(D20:D22)</f>
         <v>0</v>
       </c>
-      <c r="G23" s="51" t="s">
+      <c r="G23" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="H23" s="52"/>
+      <c r="H23" s="50"/>
       <c r="I23" s="7">
         <f>SUM(I12:I22)</f>
         <v>0</v>
@@ -32755,7 +32756,7 @@
       <c r="D26" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="G26" s="49" t="s">
+      <c r="G26" s="47" t="s">
         <v>18</v>
       </c>
       <c r="H26" s="4" t="s">
@@ -32777,7 +32778,7 @@
       <c r="D27" s="17">
         <v>0</v>
       </c>
-      <c r="G27" s="50"/>
+      <c r="G27" s="48"/>
       <c r="H27" s="3" t="s">
         <v>50</v>
       </c>
@@ -32797,7 +32798,7 @@
       <c r="D28" s="17">
         <v>0</v>
       </c>
-      <c r="G28" s="50"/>
+      <c r="G28" s="48"/>
       <c r="H28" s="6" t="s">
         <v>16</v>
       </c>
@@ -32817,10 +32818,10 @@
       <c r="D29" s="17">
         <v>0</v>
       </c>
-      <c r="G29" s="51" t="s">
+      <c r="G29" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="H29" s="52"/>
+      <c r="H29" s="50"/>
       <c r="I29" s="7">
         <f>SUM(I26:I28)</f>
         <v>0</v>
@@ -32951,8 +32952,8 @@
       <c r="J51" s="9"/>
     </row>
     <row r="52" spans="8:10" ht="15.75">
-      <c r="H52" s="47"/>
-      <c r="I52" s="48"/>
+      <c r="H52" s="51"/>
+      <c r="I52" s="52"/>
       <c r="J52" s="10"/>
     </row>
   </sheetData>
@@ -33040,10 +33041,10 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="19.5" thickBot="1">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="52"/>
+      <c r="B4" s="50"/>
       <c r="C4" s="40">
         <f>C2-C3</f>
         <v>4500</v>
@@ -33064,7 +33065,7 @@
       <c r="D12" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="49" t="s">
+      <c r="G12" s="47" t="s">
         <v>6</v>
       </c>
       <c r="H12" s="4" t="s">
@@ -33073,7 +33074,7 @@
       <c r="I12" s="5">
         <v>0</v>
       </c>
-      <c r="K12" s="49" t="s">
+      <c r="K12" s="47" t="s">
         <v>20</v>
       </c>
       <c r="L12" s="4" t="s">
@@ -33092,14 +33093,14 @@
       <c r="D13" s="17">
         <v>2000</v>
       </c>
-      <c r="G13" s="50"/>
+      <c r="G13" s="48"/>
       <c r="H13" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I13" s="5">
         <v>0</v>
       </c>
-      <c r="K13" s="50"/>
+      <c r="K13" s="48"/>
       <c r="L13" s="3" t="s">
         <v>49</v>
       </c>
@@ -33116,14 +33117,14 @@
       <c r="D14" s="17">
         <v>1000</v>
       </c>
-      <c r="G14" s="50"/>
+      <c r="G14" s="48"/>
       <c r="H14" s="3" t="s">
         <v>9</v>
       </c>
       <c r="I14" s="5">
         <v>0</v>
       </c>
-      <c r="K14" s="50"/>
+      <c r="K14" s="48"/>
       <c r="L14" s="6" t="s">
         <v>16</v>
       </c>
@@ -33140,17 +33141,17 @@
       <c r="D15" s="17">
         <v>1500</v>
       </c>
-      <c r="G15" s="50"/>
+      <c r="G15" s="48"/>
       <c r="H15" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I15" s="5">
         <v>0</v>
       </c>
-      <c r="K15" s="51" t="s">
+      <c r="K15" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="L15" s="52"/>
+      <c r="L15" s="50"/>
       <c r="M15" s="7">
         <f>SUM(M12:M14)</f>
         <v>0</v>
@@ -33166,7 +33167,7 @@
         <f>SUM(D13:D15)</f>
         <v>4500</v>
       </c>
-      <c r="G16" s="50"/>
+      <c r="G16" s="48"/>
       <c r="H16" s="3" t="s">
         <v>11</v>
       </c>
@@ -33177,7 +33178,7 @@
     <row r="17" spans="1:13" ht="16.5" thickBot="1">
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
-      <c r="G17" s="50"/>
+      <c r="G17" s="48"/>
       <c r="H17" s="3" t="s">
         <v>12</v>
       </c>
@@ -33188,7 +33189,7 @@
     <row r="18" spans="1:13" ht="16.5" thickBot="1">
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
-      <c r="G18" s="50"/>
+      <c r="G18" s="48"/>
       <c r="H18" s="3" t="s">
         <v>13</v>
       </c>
@@ -33207,14 +33208,14 @@
       <c r="D19" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="G19" s="50"/>
+      <c r="G19" s="48"/>
       <c r="H19" s="3" t="s">
         <v>14</v>
       </c>
       <c r="I19" s="5">
         <v>0</v>
       </c>
-      <c r="K19" s="49" t="s">
+      <c r="K19" s="47" t="s">
         <v>22</v>
       </c>
       <c r="L19" s="4" t="s">
@@ -33233,14 +33234,14 @@
       <c r="D20" s="17">
         <v>0</v>
       </c>
-      <c r="G20" s="50"/>
+      <c r="G20" s="48"/>
       <c r="H20" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I20" s="5">
         <v>0</v>
       </c>
-      <c r="K20" s="50"/>
+      <c r="K20" s="48"/>
       <c r="L20" s="3" t="s">
         <v>24</v>
       </c>
@@ -33257,14 +33258,14 @@
       <c r="D21" s="17">
         <v>0</v>
       </c>
-      <c r="G21" s="50"/>
+      <c r="G21" s="48"/>
       <c r="H21" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I21" s="5">
         <v>0</v>
       </c>
-      <c r="K21" s="50"/>
+      <c r="K21" s="48"/>
       <c r="L21" s="6" t="s">
         <v>25</v>
       </c>
@@ -33281,17 +33282,17 @@
       <c r="D22" s="17">
         <v>0</v>
       </c>
-      <c r="G22" s="50"/>
+      <c r="G22" s="48"/>
       <c r="H22" s="6" t="s">
         <v>16</v>
       </c>
       <c r="I22" s="5">
         <v>0</v>
       </c>
-      <c r="K22" s="51" t="s">
+      <c r="K22" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="L22" s="52"/>
+      <c r="L22" s="50"/>
       <c r="M22" s="7">
         <f>SUM(M19:M21)</f>
         <v>0</v>
@@ -33307,10 +33308,10 @@
         <f>SUM(D20:D22)</f>
         <v>0</v>
       </c>
-      <c r="G23" s="51" t="s">
+      <c r="G23" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="H23" s="52"/>
+      <c r="H23" s="50"/>
       <c r="I23" s="7">
         <f>SUM(I12:I22)</f>
         <v>0</v>
@@ -33335,7 +33336,7 @@
       <c r="D26" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="G26" s="49" t="s">
+      <c r="G26" s="47" t="s">
         <v>18</v>
       </c>
       <c r="H26" s="4" t="s">
@@ -33357,7 +33358,7 @@
       <c r="D27" s="17">
         <v>0</v>
       </c>
-      <c r="G27" s="50"/>
+      <c r="G27" s="48"/>
       <c r="H27" s="3" t="s">
         <v>50</v>
       </c>
@@ -33377,7 +33378,7 @@
       <c r="D28" s="17">
         <v>0</v>
       </c>
-      <c r="G28" s="50"/>
+      <c r="G28" s="48"/>
       <c r="H28" s="6" t="s">
         <v>16</v>
       </c>
@@ -33397,10 +33398,10 @@
       <c r="D29" s="17">
         <v>0</v>
       </c>
-      <c r="G29" s="51" t="s">
+      <c r="G29" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="H29" s="52"/>
+      <c r="H29" s="50"/>
       <c r="I29" s="7">
         <f>SUM(I26:I28)</f>
         <v>0</v>
@@ -33531,8 +33532,8 @@
       <c r="J51" s="9"/>
     </row>
     <row r="52" spans="8:10" ht="15.75">
-      <c r="H52" s="47"/>
-      <c r="I52" s="48"/>
+      <c r="H52" s="51"/>
+      <c r="I52" s="52"/>
       <c r="J52" s="10"/>
     </row>
   </sheetData>
@@ -33620,10 +33621,10 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="19.5" thickBot="1">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="52"/>
+      <c r="B4" s="50"/>
       <c r="C4" s="40">
         <f>C2-C3</f>
         <v>0</v>
@@ -33644,7 +33645,7 @@
       <c r="D12" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="49" t="s">
+      <c r="G12" s="47" t="s">
         <v>6</v>
       </c>
       <c r="H12" s="4" t="s">
@@ -33653,7 +33654,7 @@
       <c r="I12" s="5">
         <v>0</v>
       </c>
-      <c r="K12" s="49" t="s">
+      <c r="K12" s="47" t="s">
         <v>20</v>
       </c>
       <c r="L12" s="4" t="s">
@@ -33672,14 +33673,14 @@
       <c r="D13" s="17">
         <v>0</v>
       </c>
-      <c r="G13" s="50"/>
+      <c r="G13" s="48"/>
       <c r="H13" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I13" s="5">
         <v>0</v>
       </c>
-      <c r="K13" s="50"/>
+      <c r="K13" s="48"/>
       <c r="L13" s="3" t="s">
         <v>49</v>
       </c>
@@ -33696,14 +33697,14 @@
       <c r="D14" s="17">
         <v>0</v>
       </c>
-      <c r="G14" s="50"/>
+      <c r="G14" s="48"/>
       <c r="H14" s="3" t="s">
         <v>9</v>
       </c>
       <c r="I14" s="5">
         <v>0</v>
       </c>
-      <c r="K14" s="50"/>
+      <c r="K14" s="48"/>
       <c r="L14" s="6" t="s">
         <v>16</v>
       </c>
@@ -33720,17 +33721,17 @@
       <c r="D15" s="17">
         <v>0</v>
       </c>
-      <c r="G15" s="50"/>
+      <c r="G15" s="48"/>
       <c r="H15" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I15" s="5">
         <v>0</v>
       </c>
-      <c r="K15" s="51" t="s">
+      <c r="K15" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="L15" s="52"/>
+      <c r="L15" s="50"/>
       <c r="M15" s="7">
         <f>SUM(M12:M14)</f>
         <v>0</v>
@@ -33746,7 +33747,7 @@
         <f>SUM(D13:D15)</f>
         <v>0</v>
       </c>
-      <c r="G16" s="50"/>
+      <c r="G16" s="48"/>
       <c r="H16" s="3" t="s">
         <v>11</v>
       </c>
@@ -33757,7 +33758,7 @@
     <row r="17" spans="1:13" ht="16.5" thickBot="1">
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
-      <c r="G17" s="50"/>
+      <c r="G17" s="48"/>
       <c r="H17" s="3" t="s">
         <v>12</v>
       </c>
@@ -33768,7 +33769,7 @@
     <row r="18" spans="1:13" ht="16.5" thickBot="1">
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
-      <c r="G18" s="50"/>
+      <c r="G18" s="48"/>
       <c r="H18" s="3" t="s">
         <v>13</v>
       </c>
@@ -33787,14 +33788,14 @@
       <c r="D19" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="G19" s="50"/>
+      <c r="G19" s="48"/>
       <c r="H19" s="3" t="s">
         <v>14</v>
       </c>
       <c r="I19" s="5">
         <v>0</v>
       </c>
-      <c r="K19" s="49" t="s">
+      <c r="K19" s="47" t="s">
         <v>22</v>
       </c>
       <c r="L19" s="4" t="s">
@@ -33813,14 +33814,14 @@
       <c r="D20" s="17">
         <v>0</v>
       </c>
-      <c r="G20" s="50"/>
+      <c r="G20" s="48"/>
       <c r="H20" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I20" s="5">
         <v>0</v>
       </c>
-      <c r="K20" s="50"/>
+      <c r="K20" s="48"/>
       <c r="L20" s="3" t="s">
         <v>24</v>
       </c>
@@ -33837,14 +33838,14 @@
       <c r="D21" s="17">
         <v>0</v>
       </c>
-      <c r="G21" s="50"/>
+      <c r="G21" s="48"/>
       <c r="H21" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I21" s="5">
         <v>0</v>
       </c>
-      <c r="K21" s="50"/>
+      <c r="K21" s="48"/>
       <c r="L21" s="6" t="s">
         <v>25</v>
       </c>
@@ -33861,17 +33862,17 @@
       <c r="D22" s="17">
         <v>0</v>
       </c>
-      <c r="G22" s="50"/>
+      <c r="G22" s="48"/>
       <c r="H22" s="6" t="s">
         <v>16</v>
       </c>
       <c r="I22" s="5">
         <v>0</v>
       </c>
-      <c r="K22" s="51" t="s">
+      <c r="K22" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="L22" s="52"/>
+      <c r="L22" s="50"/>
       <c r="M22" s="7">
         <f>SUM(M19:M21)</f>
         <v>0</v>
@@ -33887,10 +33888,10 @@
         <f>SUM(D20:D22)</f>
         <v>0</v>
       </c>
-      <c r="G23" s="51" t="s">
+      <c r="G23" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="H23" s="52"/>
+      <c r="H23" s="50"/>
       <c r="I23" s="7">
         <f>SUM(I12:I22)</f>
         <v>0</v>
@@ -33915,7 +33916,7 @@
       <c r="D26" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="G26" s="49" t="s">
+      <c r="G26" s="47" t="s">
         <v>18</v>
       </c>
       <c r="H26" s="4" t="s">
@@ -33937,7 +33938,7 @@
       <c r="D27" s="17">
         <v>0</v>
       </c>
-      <c r="G27" s="50"/>
+      <c r="G27" s="48"/>
       <c r="H27" s="3" t="s">
         <v>50</v>
       </c>
@@ -33957,7 +33958,7 @@
       <c r="D28" s="17">
         <v>0</v>
       </c>
-      <c r="G28" s="50"/>
+      <c r="G28" s="48"/>
       <c r="H28" s="6" t="s">
         <v>16</v>
       </c>
@@ -33977,10 +33978,10 @@
       <c r="D29" s="17">
         <v>0</v>
       </c>
-      <c r="G29" s="51" t="s">
+      <c r="G29" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="H29" s="52"/>
+      <c r="H29" s="50"/>
       <c r="I29" s="7">
         <f>SUM(I26:I28)</f>
         <v>0</v>
@@ -34111,8 +34112,8 @@
       <c r="J51" s="9"/>
     </row>
     <row r="52" spans="8:10" ht="15.75">
-      <c r="H52" s="47"/>
-      <c r="I52" s="48"/>
+      <c r="H52" s="51"/>
+      <c r="I52" s="52"/>
       <c r="J52" s="10"/>
     </row>
   </sheetData>
@@ -34200,10 +34201,10 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="19.5" thickBot="1">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="52"/>
+      <c r="B4" s="50"/>
       <c r="C4" s="40">
         <f>C2-C3</f>
         <v>0</v>
@@ -34224,7 +34225,7 @@
       <c r="D12" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="49" t="s">
+      <c r="G12" s="47" t="s">
         <v>6</v>
       </c>
       <c r="H12" s="4" t="s">
@@ -34233,7 +34234,7 @@
       <c r="I12" s="5">
         <v>0</v>
       </c>
-      <c r="K12" s="49" t="s">
+      <c r="K12" s="47" t="s">
         <v>20</v>
       </c>
       <c r="L12" s="4" t="s">
@@ -34252,14 +34253,14 @@
       <c r="D13" s="17">
         <v>0</v>
       </c>
-      <c r="G13" s="50"/>
+      <c r="G13" s="48"/>
       <c r="H13" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I13" s="5">
         <v>0</v>
       </c>
-      <c r="K13" s="50"/>
+      <c r="K13" s="48"/>
       <c r="L13" s="3" t="s">
         <v>49</v>
       </c>
@@ -34276,14 +34277,14 @@
       <c r="D14" s="17">
         <v>0</v>
       </c>
-      <c r="G14" s="50"/>
+      <c r="G14" s="48"/>
       <c r="H14" s="3" t="s">
         <v>9</v>
       </c>
       <c r="I14" s="5">
         <v>0</v>
       </c>
-      <c r="K14" s="50"/>
+      <c r="K14" s="48"/>
       <c r="L14" s="6" t="s">
         <v>16</v>
       </c>
@@ -34300,17 +34301,17 @@
       <c r="D15" s="17">
         <v>0</v>
       </c>
-      <c r="G15" s="50"/>
+      <c r="G15" s="48"/>
       <c r="H15" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I15" s="5">
         <v>0</v>
       </c>
-      <c r="K15" s="51" t="s">
+      <c r="K15" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="L15" s="52"/>
+      <c r="L15" s="50"/>
       <c r="M15" s="7">
         <f>SUM(M12:M14)</f>
         <v>0</v>
@@ -34326,7 +34327,7 @@
         <f>SUM(D13:D15)</f>
         <v>0</v>
       </c>
-      <c r="G16" s="50"/>
+      <c r="G16" s="48"/>
       <c r="H16" s="3" t="s">
         <v>11</v>
       </c>
@@ -34337,7 +34338,7 @@
     <row r="17" spans="1:13" ht="16.5" thickBot="1">
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
-      <c r="G17" s="50"/>
+      <c r="G17" s="48"/>
       <c r="H17" s="3" t="s">
         <v>12</v>
       </c>
@@ -34348,7 +34349,7 @@
     <row r="18" spans="1:13" ht="16.5" thickBot="1">
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
-      <c r="G18" s="50"/>
+      <c r="G18" s="48"/>
       <c r="H18" s="3" t="s">
         <v>13</v>
       </c>
@@ -34367,14 +34368,14 @@
       <c r="D19" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="G19" s="50"/>
+      <c r="G19" s="48"/>
       <c r="H19" s="3" t="s">
         <v>14</v>
       </c>
       <c r="I19" s="5">
         <v>0</v>
       </c>
-      <c r="K19" s="49" t="s">
+      <c r="K19" s="47" t="s">
         <v>22</v>
       </c>
       <c r="L19" s="4" t="s">
@@ -34393,14 +34394,14 @@
       <c r="D20" s="17">
         <v>0</v>
       </c>
-      <c r="G20" s="50"/>
+      <c r="G20" s="48"/>
       <c r="H20" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I20" s="5">
         <v>0</v>
       </c>
-      <c r="K20" s="50"/>
+      <c r="K20" s="48"/>
       <c r="L20" s="3" t="s">
         <v>24</v>
       </c>
@@ -34417,14 +34418,14 @@
       <c r="D21" s="17">
         <v>0</v>
       </c>
-      <c r="G21" s="50"/>
+      <c r="G21" s="48"/>
       <c r="H21" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I21" s="5">
         <v>0</v>
       </c>
-      <c r="K21" s="50"/>
+      <c r="K21" s="48"/>
       <c r="L21" s="6" t="s">
         <v>25</v>
       </c>
@@ -34441,17 +34442,17 @@
       <c r="D22" s="17">
         <v>0</v>
       </c>
-      <c r="G22" s="50"/>
+      <c r="G22" s="48"/>
       <c r="H22" s="6" t="s">
         <v>16</v>
       </c>
       <c r="I22" s="5">
         <v>0</v>
       </c>
-      <c r="K22" s="51" t="s">
+      <c r="K22" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="L22" s="52"/>
+      <c r="L22" s="50"/>
       <c r="M22" s="7">
         <f>SUM(M19:M21)</f>
         <v>0</v>
@@ -34467,10 +34468,10 @@
         <f>SUM(D20:D22)</f>
         <v>0</v>
       </c>
-      <c r="G23" s="51" t="s">
+      <c r="G23" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="H23" s="52"/>
+      <c r="H23" s="50"/>
       <c r="I23" s="7">
         <f>SUM(I12:I22)</f>
         <v>0</v>
@@ -34495,7 +34496,7 @@
       <c r="D26" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="G26" s="49" t="s">
+      <c r="G26" s="47" t="s">
         <v>18</v>
       </c>
       <c r="H26" s="4" t="s">
@@ -34517,7 +34518,7 @@
       <c r="D27" s="17">
         <v>0</v>
       </c>
-      <c r="G27" s="50"/>
+      <c r="G27" s="48"/>
       <c r="H27" s="3" t="s">
         <v>50</v>
       </c>
@@ -34537,7 +34538,7 @@
       <c r="D28" s="17">
         <v>0</v>
       </c>
-      <c r="G28" s="50"/>
+      <c r="G28" s="48"/>
       <c r="H28" s="6" t="s">
         <v>16</v>
       </c>
@@ -34557,10 +34558,10 @@
       <c r="D29" s="17">
         <v>0</v>
       </c>
-      <c r="G29" s="51" t="s">
+      <c r="G29" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="H29" s="52"/>
+      <c r="H29" s="50"/>
       <c r="I29" s="7">
         <f>SUM(I26:I28)</f>
         <v>0</v>
@@ -34691,8 +34692,8 @@
       <c r="J51" s="9"/>
     </row>
     <row r="52" spans="8:10" ht="15.75">
-      <c r="H52" s="47"/>
-      <c r="I52" s="48"/>
+      <c r="H52" s="51"/>
+      <c r="I52" s="52"/>
       <c r="J52" s="10"/>
     </row>
   </sheetData>
